--- a/content/post/2022-03-24-covidsh/data/shcovid.xlsx
+++ b/content/post/2022-03-24-covidsh/data/shcovid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\luofeiblog\content\post\2022-03-24-covidsh\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21475FF-C33D-4C95-9630-74F78D9154A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B38056-5E6F-43C3-A2A1-8E57AF785440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/content/post/2022-03-24-covidsh/data/shcovid.xlsx
+++ b/content/post/2022-03-24-covidsh/data/shcovid.xlsx
@@ -1,91 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\luofeiblog\content\post\2022-03-24-covidsh\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B38056-5E6F-43C3-A2A1-8E57AF785440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$E$248</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t>Date_rep</t>
+    <t xml:space="preserve">Date_rep</t>
   </si>
   <si>
-    <t>Local</t>
+    <t xml:space="preserve">Local</t>
   </si>
   <si>
-    <t>case_conf</t>
+    <t xml:space="preserve">case_conf</t>
   </si>
   <si>
-    <t>case_none</t>
+    <t xml:space="preserve">case_none</t>
   </si>
   <si>
-    <t>case_sum</t>
+    <t xml:space="preserve">case_sum</t>
   </si>
   <si>
-    <t>浦东新区</t>
+    <t xml:space="preserve">浦东新区</t>
   </si>
   <si>
-    <t>黄浦区</t>
+    <t xml:space="preserve">黄浦区</t>
   </si>
   <si>
-    <t>静安区</t>
+    <t xml:space="preserve">静安区</t>
   </si>
   <si>
-    <t>徐汇区</t>
+    <t xml:space="preserve">徐汇区</t>
   </si>
   <si>
-    <t>长宁区</t>
+    <t xml:space="preserve">长宁区</t>
   </si>
   <si>
-    <t>普陀区</t>
+    <t xml:space="preserve">普陀区</t>
   </si>
   <si>
-    <t>虹口区</t>
+    <t xml:space="preserve">虹口区</t>
   </si>
   <si>
-    <t>杨浦区</t>
+    <t xml:space="preserve">杨浦区</t>
   </si>
   <si>
-    <t>宝山区</t>
+    <t xml:space="preserve">宝山区</t>
   </si>
   <si>
-    <t>闵行区</t>
+    <t xml:space="preserve">闵行区</t>
   </si>
   <si>
-    <t>嘉定区</t>
+    <t xml:space="preserve">嘉定区</t>
   </si>
   <si>
-    <t>金山区</t>
+    <t xml:space="preserve">金山区</t>
   </si>
   <si>
-    <t>松江区</t>
+    <t xml:space="preserve">松江区</t>
   </si>
   <si>
-    <t>青浦区</t>
+    <t xml:space="preserve">青浦区</t>
   </si>
   <si>
-    <t>奉贤区</t>
+    <t xml:space="preserve">奉贤区</t>
   </si>
   <si>
-    <t>崇明区</t>
+    <t xml:space="preserve">崇明区</t>
   </si>
 </sst>
 </file>
@@ -93,9 +82,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -107,13 +96,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -138,21 +120,12 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -434,16 +407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E248"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,4209 +431,4207 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>140</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>3514</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>3654</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>810</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>824</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>29</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>309</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>34</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>465</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>499</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>90</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>300</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>321</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>177</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>30</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>344</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>32</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>435</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>68</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>872</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>940</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>14</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>401</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>415</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>99</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>257</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>229</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>4</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>115</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>44654</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>164</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>108</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>1930</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>2038</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>27</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>632</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>659</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>26</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>298</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>44</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>998</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>1042</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>93</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>39</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>349</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>388</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>30</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>312</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>19</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>255</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>274</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>35</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>450</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>485</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>55</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>774</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>829</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>26</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>591</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>617</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>60</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>8</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>559</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>567</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>3</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>228</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>231</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>149</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>44653</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>3</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>110</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>79</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>2505</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>2584</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>5</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>255</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>11</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>178</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>37</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>602</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>639</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
-      <c r="C38">
-        <v>0</v>
-      </c>
-      <c r="D38">
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>13</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>232</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>245</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>3</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>58</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>11</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>123</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>10</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>35</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>57</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>986</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>1043</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>9</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>191</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>3</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>46</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>19</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>474</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>493</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
         <v>87</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>2</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>159</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" s="1" t="n">
         <v>44652</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>1</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>83</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>180</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>2227</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>2407</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>7</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>114</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>4</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>160</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>20</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>206</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>226</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>43</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>213</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>256</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>6</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>9</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>8</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>120</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>5</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>169</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>4</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>13</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>59</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>333</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>7</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>47</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>3</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>39</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="n">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="D62" t="n">
         <v>179</v>
       </c>
-      <c r="E62">
+      <c r="E62" t="n">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
-      <c r="C63">
+      <c r="C63" t="n">
         <v>1</v>
       </c>
-      <c r="D63">
+      <c r="D63" t="n">
         <v>94</v>
       </c>
-      <c r="E63">
+      <c r="E63" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
-      <c r="C64">
+      <c r="C64" t="n">
         <v>5</v>
       </c>
-      <c r="D64">
+      <c r="D64" t="n">
         <v>178</v>
       </c>
-      <c r="E64">
+      <c r="E64" t="n">
         <v>183</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" s="1" t="n">
         <v>44651</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
-      <c r="C65">
+      <c r="C65" t="n">
         <v>1</v>
       </c>
-      <c r="D65">
+      <c r="D65" t="n">
         <v>43</v>
       </c>
-      <c r="E65">
+      <c r="E65" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="n">
         <v>249</v>
       </c>
-      <c r="D66">
+      <c r="D66" t="n">
         <v>1958</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="n">
         <v>2207</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67">
+      <c r="A67" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
-      <c r="C67">
+      <c r="C67" t="n">
         <v>16</v>
       </c>
-      <c r="D67">
+      <c r="D67" t="n">
         <v>345</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="n">
         <v>361</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
-      <c r="C68">
+      <c r="C68" t="n">
         <v>8</v>
       </c>
-      <c r="D68">
+      <c r="D68" t="n">
         <v>94</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
-      <c r="C69">
+      <c r="C69" t="n">
         <v>15</v>
       </c>
-      <c r="D69">
+      <c r="D69" t="n">
         <v>389</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="n">
         <v>404</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C70">
+      <c r="C70" t="n">
         <v>8</v>
       </c>
-      <c r="D70">
+      <c r="D70" t="n">
         <v>120</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
-      <c r="C71">
+      <c r="C71" t="n">
         <v>6</v>
       </c>
-      <c r="D71">
+      <c r="D71" t="n">
         <v>140</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
-      <c r="C72">
+      <c r="C72" t="n">
         <v>1</v>
       </c>
-      <c r="D72">
+      <c r="D72" t="n">
         <v>83</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
-      <c r="C73">
+      <c r="C73" t="n">
         <v>3</v>
       </c>
-      <c r="D73">
+      <c r="D73" t="n">
         <v>97</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
-      <c r="C74">
+      <c r="C74" t="n">
         <v>1</v>
       </c>
-      <c r="D74">
+      <c r="D74" t="n">
         <v>503</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
-      <c r="C75">
+      <c r="C75" t="n">
         <v>19</v>
       </c>
-      <c r="D75">
+      <c r="D75" t="n">
         <v>761</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="n">
         <v>780</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
-      <c r="C76">
+      <c r="C76" t="n">
         <v>9</v>
       </c>
-      <c r="D76">
+      <c r="D76" t="n">
         <v>149</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
-      <c r="C77">
-        <v>0</v>
-      </c>
-      <c r="D77">
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="n">
         <v>33</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="n">
         <v>33</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
-      <c r="C78">
+      <c r="C78" t="n">
         <v>8</v>
       </c>
-      <c r="D78">
+      <c r="D78" t="n">
         <v>238</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="n">
         <v>246</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
-      <c r="C79">
+      <c r="C79" t="n">
         <v>5</v>
       </c>
-      <c r="D79">
+      <c r="D79" t="n">
         <v>72</v>
       </c>
-      <c r="E79">
+      <c r="E79" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
-      <c r="C80">
+      <c r="C80" t="n">
         <v>7</v>
       </c>
-      <c r="D80">
+      <c r="D80" t="n">
         <v>123</v>
       </c>
-      <c r="E80">
+      <c r="E80" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81">
+      <c r="A81" s="1" t="n">
         <v>44650</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
-      <c r="C81">
-        <v>0</v>
-      </c>
-      <c r="D81">
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
         <v>193</v>
       </c>
-      <c r="E81">
+      <c r="E81" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82">
+      <c r="A82" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
-      <c r="C82">
+      <c r="C82" t="n">
         <v>169</v>
       </c>
-      <c r="D82">
+      <c r="D82" t="n">
         <v>2014</v>
       </c>
-      <c r="E82">
+      <c r="E82" t="n">
         <v>2183</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83">
+      <c r="A83" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
-      <c r="C83">
+      <c r="C83" t="n">
         <v>6</v>
       </c>
-      <c r="D83">
+      <c r="D83" t="n">
         <v>104</v>
       </c>
-      <c r="E83">
+      <c r="E83" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84">
+      <c r="A84" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
-      <c r="C84">
+      <c r="C84" t="n">
         <v>8</v>
       </c>
-      <c r="D84">
+      <c r="D84" t="n">
         <v>167</v>
       </c>
-      <c r="E84">
+      <c r="E84" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85">
+      <c r="A85" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
-      <c r="C85">
+      <c r="C85" t="n">
         <v>34</v>
       </c>
-      <c r="D85">
+      <c r="D85" t="n">
         <v>1066</v>
       </c>
-      <c r="E85">
+      <c r="E85" t="n">
         <v>1100</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86">
+      <c r="A86" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
-      <c r="C86">
+      <c r="C86" t="n">
         <v>3</v>
       </c>
-      <c r="D86">
+      <c r="D86" t="n">
         <v>27</v>
       </c>
-      <c r="E86">
+      <c r="E86" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87">
+      <c r="A87" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
       </c>
-      <c r="C87">
+      <c r="C87" t="n">
         <v>6</v>
       </c>
-      <c r="D87">
+      <c r="D87" t="n">
         <v>107</v>
       </c>
-      <c r="E87">
+      <c r="E87" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88">
+      <c r="A88" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
-      <c r="C88">
+      <c r="C88" t="n">
         <v>7</v>
       </c>
-      <c r="D88">
+      <c r="D88" t="n">
         <v>66</v>
       </c>
-      <c r="E88">
+      <c r="E88" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89">
+      <c r="A89" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
-      <c r="C89">
+      <c r="C89" t="n">
         <v>3</v>
       </c>
-      <c r="D89">
+      <c r="D89" t="n">
         <v>96</v>
       </c>
-      <c r="E89">
+      <c r="E89" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90">
+      <c r="A90" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
-      <c r="C90">
+      <c r="C90" t="n">
         <v>33</v>
       </c>
-      <c r="D90">
+      <c r="D90" t="n">
         <v>330</v>
       </c>
-      <c r="E90">
+      <c r="E90" t="n">
         <v>363</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91">
+      <c r="A91" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
       </c>
-      <c r="C91">
+      <c r="C91" t="n">
         <v>29</v>
       </c>
-      <c r="D91">
+      <c r="D91" t="n">
         <v>958</v>
       </c>
-      <c r="E91">
+      <c r="E91" t="n">
         <v>987</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92">
+      <c r="A92" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
-      <c r="C92">
+      <c r="C92" t="n">
         <v>9</v>
       </c>
-      <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
+      <c r="D92" t="n">
+        <v>0</v>
+      </c>
+      <c r="E92" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93">
+      <c r="A93" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
-      <c r="C93">
+      <c r="C93" t="n">
         <v>2</v>
       </c>
-      <c r="D93">
+      <c r="D93" t="n">
         <v>24</v>
       </c>
-      <c r="E93">
+      <c r="E93" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94">
+      <c r="A94" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
-      <c r="C94">
+      <c r="C94" t="n">
         <v>15</v>
       </c>
-      <c r="D94">
+      <c r="D94" t="n">
         <v>213</v>
       </c>
-      <c r="E94">
+      <c r="E94" t="n">
         <v>228</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95">
+      <c r="A95" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
       </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="n">
         <v>87</v>
       </c>
-      <c r="E95">
+      <c r="E95" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96">
+      <c r="A96" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
       </c>
-      <c r="C96">
+      <c r="C96" t="n">
         <v>1</v>
       </c>
-      <c r="D96">
+      <c r="D96" t="n">
         <v>95</v>
       </c>
-      <c r="E96">
+      <c r="E96" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97">
+      <c r="A97" s="1" t="n">
         <v>44649</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
-      <c r="C97">
+      <c r="C97" t="n">
         <v>1</v>
       </c>
-      <c r="D97">
+      <c r="D97" t="n">
         <v>54</v>
       </c>
-      <c r="E97">
+      <c r="E97" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98">
+      <c r="A98" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
-      <c r="C98">
+      <c r="C98" t="n">
         <v>39</v>
       </c>
-      <c r="D98">
+      <c r="D98" t="n">
         <v>2467</v>
       </c>
-      <c r="E98">
+      <c r="E98" t="n">
         <v>2506</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99">
+      <c r="A99" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
-      <c r="C99">
+      <c r="C99" t="n">
         <v>1</v>
       </c>
-      <c r="D99">
+      <c r="D99" t="n">
         <v>282</v>
       </c>
-      <c r="E99">
+      <c r="E99" t="n">
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100">
+      <c r="A100" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
-      <c r="C100">
+      <c r="C100" t="n">
         <v>10</v>
       </c>
-      <c r="D100">
+      <c r="D100" t="n">
         <v>94</v>
       </c>
-      <c r="E100">
+      <c r="E100" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101">
+      <c r="A101" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
-      <c r="C101">
+      <c r="C101" t="n">
         <v>6</v>
       </c>
-      <c r="D101">
+      <c r="D101" t="n">
         <v>85</v>
       </c>
-      <c r="E101">
+      <c r="E101" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="102">
+      <c r="A102" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
-      <c r="C102">
+      <c r="C102" t="n">
         <v>7</v>
       </c>
-      <c r="D102">
+      <c r="D102" t="n">
         <v>108</v>
       </c>
-      <c r="E102">
+      <c r="E102" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103">
+      <c r="A103" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
-      <c r="C103">
+      <c r="C103" t="n">
         <v>3</v>
       </c>
-      <c r="D103">
+      <c r="D103" t="n">
         <v>78</v>
       </c>
-      <c r="E103">
+      <c r="E103" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104">
+      <c r="A104" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
-      <c r="C104">
+      <c r="C104" t="n">
         <v>4</v>
       </c>
-      <c r="D104">
+      <c r="D104" t="n">
         <v>4</v>
       </c>
-      <c r="E104">
+      <c r="E104" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105">
+      <c r="A105" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
       </c>
-      <c r="C105">
-        <v>0</v>
-      </c>
-      <c r="D105">
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
         <v>47</v>
       </c>
-      <c r="E105">
+      <c r="E105" t="n">
         <v>47</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106">
+      <c r="A106" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="C106">
+      <c r="C106" t="n">
         <v>8</v>
       </c>
-      <c r="D106">
+      <c r="D106" t="n">
         <v>303</v>
       </c>
-      <c r="E106">
+      <c r="E106" t="n">
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107">
+      <c r="A107" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
       </c>
-      <c r="C107">
+      <c r="C107" t="n">
         <v>9</v>
       </c>
-      <c r="D107">
+      <c r="D107" t="n">
         <v>361</v>
       </c>
-      <c r="E107">
+      <c r="E107" t="n">
         <v>370</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108">
+      <c r="A108" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
-      <c r="C108">
+      <c r="C108" t="n">
         <v>2</v>
       </c>
-      <c r="D108">
+      <c r="D108" t="n">
         <v>207</v>
       </c>
-      <c r="E108">
+      <c r="E108" t="n">
         <v>209</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109">
+      <c r="A109" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
-      <c r="C109">
+      <c r="C109" t="n">
         <v>1</v>
       </c>
-      <c r="D109">
+      <c r="D109" t="n">
         <v>18</v>
       </c>
-      <c r="E109">
+      <c r="E109" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110">
+      <c r="A110" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
       </c>
-      <c r="C110">
+      <c r="C110" t="n">
         <v>4</v>
       </c>
-      <c r="D110">
+      <c r="D110" t="n">
         <v>90</v>
       </c>
-      <c r="E110">
+      <c r="E110" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111">
+      <c r="A111" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
-      <c r="C111">
+      <c r="C111" t="n">
         <v>2</v>
       </c>
-      <c r="D111">
+      <c r="D111" t="n">
         <v>55</v>
       </c>
-      <c r="E111">
+      <c r="E111" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112">
+      <c r="A112" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
-      <c r="C112">
-        <v>0</v>
-      </c>
-      <c r="D112">
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
         <v>115</v>
       </c>
-      <c r="E112">
+      <c r="E112" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113">
+      <c r="A113" s="1" t="n">
         <v>44648</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
-      <c r="C113">
-        <v>0</v>
-      </c>
-      <c r="D113">
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
         <v>67</v>
       </c>
-      <c r="E113">
+      <c r="E113" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="114">
+      <c r="A114" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
-      <c r="C114">
+      <c r="C114" t="n">
         <v>4</v>
       </c>
-      <c r="D114">
+      <c r="D114" t="n">
         <v>1425</v>
       </c>
-      <c r="E114">
+      <c r="E114" t="n">
         <v>1429</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="115">
+      <c r="A115" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="n">
         <v>1</v>
       </c>
-      <c r="D115">
+      <c r="D115" t="n">
         <v>55</v>
       </c>
-      <c r="E115">
+      <c r="E115" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="116">
+      <c r="A116" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
-      <c r="C116">
+      <c r="C116" t="n">
         <v>5</v>
       </c>
-      <c r="D116">
+      <c r="D116" t="n">
         <v>65</v>
       </c>
-      <c r="E116">
+      <c r="E116" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="117">
+      <c r="A117" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
-      <c r="C117">
+      <c r="C117" t="n">
         <v>6</v>
       </c>
-      <c r="D117">
+      <c r="D117" t="n">
         <v>271</v>
       </c>
-      <c r="E117">
+      <c r="E117" t="n">
         <v>277</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="118">
+      <c r="A118" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C118">
-        <v>0</v>
-      </c>
-      <c r="D118">
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
         <v>45</v>
       </c>
-      <c r="E118">
+      <c r="E118" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119">
+      <c r="A119" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
-      <c r="C119">
+      <c r="C119" t="n">
         <v>4</v>
       </c>
-      <c r="D119">
+      <c r="D119" t="n">
         <v>66</v>
       </c>
-      <c r="E119">
+      <c r="E119" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120">
+      <c r="A120" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
-      <c r="C120">
+      <c r="C120" t="n">
         <v>1</v>
       </c>
-      <c r="D120">
+      <c r="D120" t="n">
         <v>26</v>
       </c>
-      <c r="E120">
+      <c r="E120" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121">
+      <c r="A121" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
-      <c r="C121">
-        <v>0</v>
-      </c>
-      <c r="D121">
+      <c r="C121" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" t="n">
         <v>35</v>
       </c>
-      <c r="E121">
+      <c r="E121" t="n">
         <v>35</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="122">
+      <c r="A122" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
-      <c r="C122">
+      <c r="C122" t="n">
         <v>5</v>
       </c>
-      <c r="D122">
+      <c r="D122" t="n">
         <v>89</v>
       </c>
-      <c r="E122">
+      <c r="E122" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="123">
+      <c r="A123" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
       </c>
-      <c r="C123">
+      <c r="C123" t="n">
         <v>20</v>
       </c>
-      <c r="D123">
+      <c r="D123" t="n">
         <v>599</v>
       </c>
-      <c r="E123">
+      <c r="E123" t="n">
         <v>619</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="124">
+      <c r="A124" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
-      <c r="C124">
+      <c r="C124" t="n">
         <v>3</v>
       </c>
-      <c r="D124">
+      <c r="D124" t="n">
         <v>248</v>
       </c>
-      <c r="E124">
+      <c r="E124" t="n">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="125">
+      <c r="A125" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
-      <c r="D125">
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
         <v>13</v>
       </c>
-      <c r="E125">
+      <c r="E125" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="126">
+      <c r="A126" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
       </c>
-      <c r="C126">
+      <c r="C126" t="n">
         <v>1</v>
       </c>
-      <c r="D126">
+      <c r="D126" t="n">
         <v>189</v>
       </c>
-      <c r="E126">
+      <c r="E126" t="n">
         <v>190</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row r="127">
+      <c r="A127" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
       </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-      <c r="D127">
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
         <v>43</v>
       </c>
-      <c r="E127">
+      <c r="E127" t="n">
         <v>43</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="128">
+      <c r="A128" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
       </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
         <v>45</v>
       </c>
-      <c r="E128">
+      <c r="E128" t="n">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="129">
+      <c r="A129" s="1" t="n">
         <v>44647</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
       </c>
-      <c r="C129">
-        <v>0</v>
-      </c>
-      <c r="D129">
+      <c r="C129" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" t="n">
         <v>236</v>
       </c>
-      <c r="E129">
+      <c r="E129" t="n">
         <v>236</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="130">
+      <c r="A130" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
-      <c r="C130">
+      <c r="C130" t="n">
         <v>1</v>
       </c>
-      <c r="D130">
+      <c r="D130" t="n">
         <v>322</v>
       </c>
-      <c r="E130">
+      <c r="E130" t="n">
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="131">
+      <c r="A131" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
-      <c r="C131">
-        <v>0</v>
-      </c>
-      <c r="D131">
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
         <v>160</v>
       </c>
-      <c r="E131">
+      <c r="E131" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="132">
+      <c r="A132" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
-      <c r="C132">
+      <c r="C132" t="n">
         <v>3</v>
       </c>
-      <c r="D132">
+      <c r="D132" t="n">
         <v>105</v>
       </c>
-      <c r="E132">
+      <c r="E132" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="133">
+      <c r="A133" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
-      <c r="C133">
+      <c r="C133" t="n">
         <v>5</v>
       </c>
-      <c r="D133">
+      <c r="D133" t="n">
         <v>326</v>
       </c>
-      <c r="E133">
+      <c r="E133" t="n">
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row r="134">
+      <c r="A134" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
-      <c r="C134">
+      <c r="C134" t="n">
         <v>2</v>
       </c>
-      <c r="D134">
+      <c r="D134" t="n">
         <v>27</v>
       </c>
-      <c r="E134">
+      <c r="E134" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row r="135">
+      <c r="A135" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
-      <c r="C135">
+      <c r="C135" t="n">
         <v>1</v>
       </c>
-      <c r="D135">
+      <c r="D135" t="n">
         <v>68</v>
       </c>
-      <c r="E135">
+      <c r="E135" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row r="136">
+      <c r="A136" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
-      <c r="C136">
+      <c r="C136" t="n">
         <v>1</v>
       </c>
-      <c r="D136">
+      <c r="D136" t="n">
         <v>49</v>
       </c>
-      <c r="E136">
+      <c r="E136" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row r="137">
+      <c r="A137" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
-      <c r="C137">
+      <c r="C137" t="n">
         <v>2</v>
       </c>
-      <c r="D137">
+      <c r="D137" t="n">
         <v>21</v>
       </c>
-      <c r="E137">
+      <c r="E137" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row r="138">
+      <c r="A138" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
-      <c r="C138">
+      <c r="C138" t="n">
         <v>6</v>
       </c>
-      <c r="D138">
+      <c r="D138" t="n">
         <v>147</v>
       </c>
-      <c r="E138">
+      <c r="E138" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row r="139">
+      <c r="A139" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
-      <c r="C139">
+      <c r="C139" t="n">
         <v>15</v>
       </c>
-      <c r="D139">
+      <c r="D139" t="n">
         <v>957</v>
       </c>
-      <c r="E139">
+      <c r="E139" t="n">
         <v>972</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row r="140">
+      <c r="A140" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
-      <c r="C140">
+      <c r="C140" t="n">
         <v>9</v>
       </c>
-      <c r="D140">
+      <c r="D140" t="n">
         <v>233</v>
       </c>
-      <c r="E140">
+      <c r="E140" t="n">
         <v>242</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row r="141">
+      <c r="A141" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
-      <c r="C141">
-        <v>0</v>
-      </c>
-      <c r="D141">
+      <c r="C141" t="n">
+        <v>0</v>
+      </c>
+      <c r="D141" t="n">
         <v>4</v>
       </c>
-      <c r="E141">
+      <c r="E141" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="142">
+      <c r="A142" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
       </c>
-      <c r="C142">
-        <v>0</v>
-      </c>
-      <c r="D142">
+      <c r="C142" t="n">
+        <v>0</v>
+      </c>
+      <c r="D142" t="n">
         <v>79</v>
       </c>
-      <c r="E142">
+      <c r="E142" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="143">
+      <c r="A143" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
       </c>
-      <c r="C143">
-        <v>0</v>
-      </c>
-      <c r="D143">
+      <c r="C143" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" t="n">
         <v>22</v>
       </c>
-      <c r="E143">
+      <c r="E143" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row r="144">
+      <c r="A144" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
       </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
         <v>84</v>
       </c>
-      <c r="E144">
+      <c r="E144" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row r="145">
+      <c r="A145" s="1" t="n">
         <v>44646</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
       </c>
-      <c r="C145">
-        <v>0</v>
-      </c>
-      <c r="D145">
+      <c r="C145" t="n">
+        <v>0</v>
+      </c>
+      <c r="D145" t="n">
         <v>27</v>
       </c>
-      <c r="E145">
+      <c r="E145" t="n">
         <v>27</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="146">
+      <c r="A146" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
-      <c r="C146">
+      <c r="C146" t="n">
         <v>31</v>
       </c>
-      <c r="D146">
+      <c r="D146" t="n">
         <v>1883</v>
       </c>
-      <c r="E146">
+      <c r="E146" t="n">
         <v>1914</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row r="147">
+      <c r="A147" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
+      <c r="C147" t="n">
+        <v>0</v>
+      </c>
+      <c r="D147" t="n">
         <v>23</v>
       </c>
-      <c r="E147">
+      <c r="E147" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="148">
+      <c r="A148" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
-      <c r="C148">
-        <v>0</v>
-      </c>
-      <c r="D148">
+      <c r="C148" t="n">
+        <v>0</v>
+      </c>
+      <c r="D148" t="n">
         <v>2</v>
       </c>
-      <c r="E148">
+      <c r="E148" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="149">
+      <c r="A149" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
-      <c r="C149">
+      <c r="C149" t="n">
         <v>1</v>
       </c>
-      <c r="D149">
+      <c r="D149" t="n">
         <v>2</v>
       </c>
-      <c r="E149">
+      <c r="E149" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="150">
+      <c r="A150" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
-      <c r="C150">
-        <v>0</v>
-      </c>
-      <c r="D150">
+      <c r="C150" t="n">
+        <v>0</v>
+      </c>
+      <c r="D150" t="n">
         <v>4</v>
       </c>
-      <c r="E150">
+      <c r="E150" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="151">
+      <c r="A151" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
-      <c r="C151">
+      <c r="C151" t="n">
         <v>1</v>
       </c>
-      <c r="D151">
+      <c r="D151" t="n">
         <v>8</v>
       </c>
-      <c r="E151">
+      <c r="E151" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="152">
+      <c r="A152" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
       </c>
-      <c r="C152">
-        <v>0</v>
-      </c>
-      <c r="D152">
+      <c r="C152" t="n">
+        <v>0</v>
+      </c>
+      <c r="D152" t="n">
         <v>4</v>
       </c>
-      <c r="E152">
+      <c r="E152" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="153">
+      <c r="A153" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
-      <c r="C153">
-        <v>0</v>
-      </c>
-      <c r="D153">
+      <c r="C153" t="n">
+        <v>0</v>
+      </c>
+      <c r="D153" t="n">
         <v>11</v>
       </c>
-      <c r="E153">
+      <c r="E153" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="154">
+      <c r="A154" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C154">
-        <v>0</v>
-      </c>
-      <c r="D154">
+      <c r="C154" t="n">
+        <v>0</v>
+      </c>
+      <c r="D154" t="n">
         <v>4</v>
       </c>
-      <c r="E154">
+      <c r="E154" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="155">
+      <c r="A155" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
       </c>
-      <c r="C155">
+      <c r="C155" t="n">
         <v>4</v>
       </c>
-      <c r="D155">
+      <c r="D155" t="n">
         <v>202</v>
       </c>
-      <c r="E155">
+      <c r="E155" t="n">
         <v>206</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row r="156">
+      <c r="A156" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
+      <c r="C156" t="n">
+        <v>0</v>
+      </c>
+      <c r="D156" t="n">
         <v>19</v>
       </c>
-      <c r="E156">
+      <c r="E156" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row r="157">
+      <c r="A157" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B157" t="s">
         <v>17</v>
       </c>
-      <c r="C157">
+      <c r="C157" t="n">
         <v>1</v>
       </c>
-      <c r="D157">
+      <c r="D157" t="n">
         <v>14</v>
       </c>
-      <c r="E157">
+      <c r="E157" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row r="158">
+      <c r="A158" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B158" t="s">
         <v>18</v>
       </c>
-      <c r="C158">
-        <v>0</v>
-      </c>
-      <c r="D158">
+      <c r="C158" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" t="n">
         <v>13</v>
       </c>
-      <c r="E158">
+      <c r="E158" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row r="159">
+      <c r="A159" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="B159" t="s">
         <v>20</v>
       </c>
-      <c r="C159">
-        <v>0</v>
-      </c>
-      <c r="D159">
+      <c r="C159" t="n">
+        <v>0</v>
+      </c>
+      <c r="D159" t="n">
         <v>41</v>
       </c>
-      <c r="E159">
+      <c r="E159" t="n">
         <v>41</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row r="160">
+      <c r="A160" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
-      <c r="C160">
+      <c r="C160" t="n">
         <v>12</v>
       </c>
-      <c r="D160">
+      <c r="D160" t="n">
         <v>181</v>
       </c>
-      <c r="E160">
+      <c r="E160" t="n">
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row r="161">
+      <c r="A161" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B161" t="s">
         <v>6</v>
       </c>
-      <c r="C161">
-        <v>0</v>
-      </c>
-      <c r="D161">
+      <c r="C161" t="n">
+        <v>0</v>
+      </c>
+      <c r="D161" t="n">
         <v>102</v>
       </c>
-      <c r="E161">
+      <c r="E161" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row r="162">
+      <c r="A162" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
       </c>
-      <c r="C162">
+      <c r="C162" t="n">
         <v>8</v>
       </c>
-      <c r="D162">
+      <c r="D162" t="n">
         <v>62</v>
       </c>
-      <c r="E162">
+      <c r="E162" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row r="163">
+      <c r="A163" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B163" t="s">
         <v>8</v>
       </c>
-      <c r="C163">
+      <c r="C163" t="n">
         <v>2</v>
       </c>
-      <c r="D163">
+      <c r="D163" t="n">
         <v>165</v>
       </c>
-      <c r="E163">
+      <c r="E163" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="164">
+      <c r="A164" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B164" t="s">
         <v>9</v>
       </c>
-      <c r="C164">
-        <v>0</v>
-      </c>
-      <c r="D164">
+      <c r="C164" t="n">
+        <v>0</v>
+      </c>
+      <c r="D164" t="n">
         <v>59</v>
       </c>
-      <c r="E164">
+      <c r="E164" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row r="165">
+      <c r="A165" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B165" t="s">
         <v>10</v>
       </c>
-      <c r="C165">
+      <c r="C165" t="n">
         <v>2</v>
       </c>
-      <c r="D165">
+      <c r="D165" t="n">
         <v>36</v>
       </c>
-      <c r="E165">
+      <c r="E165" t="n">
         <v>38</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row r="166">
+      <c r="A166" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B166" t="s">
         <v>11</v>
       </c>
-      <c r="C166">
-        <v>0</v>
-      </c>
-      <c r="D166">
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
         <v>29</v>
       </c>
-      <c r="E166">
+      <c r="E166" t="n">
         <v>29</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row r="167">
+      <c r="A167" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B167" t="s">
         <v>12</v>
       </c>
-      <c r="C167">
+      <c r="C167" t="n">
         <v>1</v>
       </c>
-      <c r="D167">
+      <c r="D167" t="n">
         <v>20</v>
       </c>
-      <c r="E167">
+      <c r="E167" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row r="168">
+      <c r="A168" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B168" t="s">
         <v>13</v>
       </c>
-      <c r="C168">
+      <c r="C168" t="n">
         <v>3</v>
       </c>
-      <c r="D168">
+      <c r="D168" t="n">
         <v>84</v>
       </c>
-      <c r="E168">
+      <c r="E168" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+    <row r="169">
+      <c r="A169" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B169" t="s">
         <v>14</v>
       </c>
-      <c r="C169">
-        <v>0</v>
-      </c>
-      <c r="D169">
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
         <v>490</v>
       </c>
-      <c r="E169">
+      <c r="E169" t="n">
         <v>490</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+    <row r="170">
+      <c r="A170" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B170" t="s">
         <v>15</v>
       </c>
-      <c r="C170">
+      <c r="C170" t="n">
         <v>1</v>
       </c>
-      <c r="D170">
+      <c r="D170" t="n">
         <v>129</v>
       </c>
-      <c r="E170">
+      <c r="E170" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+    <row r="171">
+      <c r="A171" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
-      <c r="C171">
-        <v>0</v>
-      </c>
-      <c r="D171">
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
         <v>12</v>
       </c>
-      <c r="E171">
+      <c r="E171" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row r="172">
+      <c r="A172" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B172" t="s">
         <v>17</v>
       </c>
-      <c r="C172">
-        <v>0</v>
-      </c>
-      <c r="D172">
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
         <v>92</v>
       </c>
-      <c r="E172">
+      <c r="E172" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row r="173">
+      <c r="A173" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B173" t="s">
         <v>18</v>
       </c>
-      <c r="C173">
-        <v>0</v>
-      </c>
-      <c r="D173">
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
         <v>13</v>
       </c>
-      <c r="E173">
+      <c r="E173" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row r="174">
+      <c r="A174" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B174" t="s">
         <v>19</v>
       </c>
-      <c r="C174">
-        <v>0</v>
-      </c>
-      <c r="D174">
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
         <v>24</v>
       </c>
-      <c r="E174">
+      <c r="E174" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row r="175">
+      <c r="A175" s="1" t="n">
         <v>44644</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
       </c>
-      <c r="C175">
-        <v>0</v>
-      </c>
-      <c r="D175">
+      <c r="C175" t="n">
+        <v>0</v>
+      </c>
+      <c r="D175" t="n">
         <v>82</v>
       </c>
-      <c r="E175">
+      <c r="E175" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="176">
+      <c r="A176" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
-      <c r="C176">
-        <v>0</v>
-      </c>
-      <c r="D176">
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
         <v>218</v>
       </c>
-      <c r="E176">
+      <c r="E176" t="n">
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row r="177">
+      <c r="A177" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
       </c>
-      <c r="C177">
-        <v>0</v>
-      </c>
-      <c r="D177">
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
         <v>20</v>
       </c>
-      <c r="E177">
+      <c r="E177" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+    <row r="178">
+      <c r="A178" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
-      <c r="C178">
-        <v>0</v>
-      </c>
-      <c r="D178">
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
         <v>48</v>
       </c>
-      <c r="E178">
+      <c r="E178" t="n">
         <v>48</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+    <row r="179">
+      <c r="A179" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
-      <c r="C179">
-        <v>0</v>
-      </c>
-      <c r="D179">
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
         <v>106</v>
       </c>
-      <c r="E179">
+      <c r="E179" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row r="180">
+      <c r="A180" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B180" t="s">
         <v>9</v>
       </c>
-      <c r="C180">
-        <v>0</v>
-      </c>
-      <c r="D180">
+      <c r="C180" t="n">
+        <v>0</v>
+      </c>
+      <c r="D180" t="n">
         <v>11</v>
       </c>
-      <c r="E180">
+      <c r="E180" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row r="181">
+      <c r="A181" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
-      <c r="C181">
-        <v>0</v>
-      </c>
-      <c r="D181">
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
         <v>34</v>
       </c>
-      <c r="E181">
+      <c r="E181" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+    <row r="182">
+      <c r="A182" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
       </c>
-      <c r="C182">
-        <v>0</v>
-      </c>
-      <c r="D182">
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
         <v>26</v>
       </c>
-      <c r="E182">
+      <c r="E182" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+    <row r="183">
+      <c r="A183" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
-      <c r="C183">
-        <v>0</v>
-      </c>
-      <c r="D183">
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
         <v>11</v>
       </c>
-      <c r="E183">
+      <c r="E183" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row r="184">
+      <c r="A184" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B184" t="s">
         <v>13</v>
       </c>
-      <c r="C184">
-        <v>0</v>
-      </c>
-      <c r="D184">
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
         <v>69</v>
       </c>
-      <c r="E184">
+      <c r="E184" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row r="185">
+      <c r="A185" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B185" t="s">
         <v>14</v>
       </c>
-      <c r="C185">
+      <c r="C185" t="n">
         <v>2</v>
       </c>
-      <c r="D185">
+      <c r="D185" t="n">
         <v>254</v>
       </c>
-      <c r="E185">
+      <c r="E185" t="n">
         <v>256</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row r="186">
+      <c r="A186" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
       </c>
-      <c r="C186">
+      <c r="C186" t="n">
         <v>1</v>
       </c>
-      <c r="D186">
+      <c r="D186" t="n">
         <v>68</v>
       </c>
-      <c r="E186">
+      <c r="E186" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+    <row r="187">
+      <c r="A187" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
-      <c r="C187">
-        <v>0</v>
-      </c>
-      <c r="D187">
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
         <v>5</v>
       </c>
-      <c r="E187">
+      <c r="E187" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row r="188">
+      <c r="A188" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
       </c>
-      <c r="C188">
-        <v>0</v>
-      </c>
-      <c r="D188">
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
         <v>34</v>
       </c>
-      <c r="E188">
+      <c r="E188" t="n">
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+    <row r="189">
+      <c r="A189" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B189" t="s">
         <v>18</v>
       </c>
-      <c r="C189">
-        <v>0</v>
-      </c>
-      <c r="D189">
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
         <v>10</v>
       </c>
-      <c r="E189">
+      <c r="E189" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+    <row r="190">
+      <c r="A190" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B190" t="s">
         <v>19</v>
       </c>
-      <c r="C190">
+      <c r="C190" t="n">
         <v>1</v>
       </c>
-      <c r="D190">
+      <c r="D190" t="n">
         <v>11</v>
       </c>
-      <c r="E190">
+      <c r="E190" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row r="191">
+      <c r="A191" s="1" t="n">
         <v>44643</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
       </c>
-      <c r="C191">
-        <v>0</v>
-      </c>
-      <c r="D191">
+      <c r="C191" t="n">
+        <v>0</v>
+      </c>
+      <c r="D191" t="n">
         <v>54</v>
       </c>
-      <c r="E191">
+      <c r="E191" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+    <row r="192">
+      <c r="A192" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
-      <c r="C192">
-        <v>0</v>
-      </c>
-      <c r="D192">
+      <c r="C192" t="n">
+        <v>0</v>
+      </c>
+      <c r="D192" t="n">
         <v>237</v>
       </c>
-      <c r="E192">
+      <c r="E192" t="n">
         <v>237</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+    <row r="193">
+      <c r="A193" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
       </c>
-      <c r="C193">
-        <v>0</v>
-      </c>
-      <c r="D193">
+      <c r="C193" t="n">
+        <v>0</v>
+      </c>
+      <c r="D193" t="n">
         <v>59</v>
       </c>
-      <c r="E193">
+      <c r="E193" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+    <row r="194">
+      <c r="A194" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
-      <c r="C194">
-        <v>0</v>
-      </c>
-      <c r="D194">
+      <c r="C194" t="n">
+        <v>0</v>
+      </c>
+      <c r="D194" t="n">
         <v>28</v>
       </c>
-      <c r="E194">
+      <c r="E194" t="n">
         <v>28</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+    <row r="195">
+      <c r="A195" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
-      <c r="C195">
+      <c r="C195" t="n">
         <v>2</v>
       </c>
-      <c r="D195">
+      <c r="D195" t="n">
         <v>85</v>
       </c>
-      <c r="E195">
+      <c r="E195" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+    <row r="196">
+      <c r="A196" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
       </c>
-      <c r="C196">
-        <v>0</v>
-      </c>
-      <c r="D196">
+      <c r="C196" t="n">
+        <v>0</v>
+      </c>
+      <c r="D196" t="n">
         <v>19</v>
       </c>
-      <c r="E196">
+      <c r="E196" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+    <row r="197">
+      <c r="A197" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
-      <c r="C197">
-        <v>0</v>
-      </c>
-      <c r="D197">
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
         <v>21</v>
       </c>
-      <c r="E197">
+      <c r="E197" t="n">
         <v>21</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+    <row r="198">
+      <c r="A198" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
       </c>
-      <c r="C198">
-        <v>0</v>
-      </c>
-      <c r="D198">
+      <c r="C198" t="n">
+        <v>0</v>
+      </c>
+      <c r="D198" t="n">
         <v>13</v>
       </c>
-      <c r="E198">
+      <c r="E198" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row r="199">
+      <c r="A199" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
       </c>
-      <c r="C199">
-        <v>0</v>
-      </c>
-      <c r="D199">
+      <c r="C199" t="n">
+        <v>0</v>
+      </c>
+      <c r="D199" t="n">
         <v>3</v>
       </c>
-      <c r="E199">
+      <c r="E199" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+    <row r="200">
+      <c r="A200" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B200" t="s">
         <v>13</v>
       </c>
-      <c r="C200">
-        <v>0</v>
-      </c>
-      <c r="D200">
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
         <v>16</v>
       </c>
-      <c r="E200">
+      <c r="E200" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+    <row r="201">
+      <c r="A201" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
       </c>
-      <c r="C201">
-        <v>0</v>
-      </c>
-      <c r="D201">
+      <c r="C201" t="n">
+        <v>0</v>
+      </c>
+      <c r="D201" t="n">
         <v>305</v>
       </c>
-      <c r="E201">
+      <c r="E201" t="n">
         <v>305</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+    <row r="202">
+      <c r="A202" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
       </c>
-      <c r="C202">
+      <c r="C202" t="n">
         <v>2</v>
       </c>
-      <c r="D202">
+      <c r="D202" t="n">
         <v>109</v>
       </c>
-      <c r="E202">
+      <c r="E202" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+    <row r="203">
+      <c r="A203" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
       </c>
-      <c r="C203">
-        <v>0</v>
-      </c>
-      <c r="D203">
+      <c r="C203" t="n">
+        <v>0</v>
+      </c>
+      <c r="D203" t="n">
         <v>4</v>
       </c>
-      <c r="E203">
+      <c r="E203" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row r="204">
+      <c r="A204" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B204" t="s">
         <v>17</v>
       </c>
-      <c r="C204">
-        <v>0</v>
-      </c>
-      <c r="D204">
+      <c r="C204" t="n">
+        <v>0</v>
+      </c>
+      <c r="D204" t="n">
         <v>31</v>
       </c>
-      <c r="E204">
+      <c r="E204" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+    <row r="205">
+      <c r="A205" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B205" t="s">
         <v>18</v>
       </c>
-      <c r="C205">
-        <v>0</v>
-      </c>
-      <c r="D205">
+      <c r="C205" t="n">
+        <v>0</v>
+      </c>
+      <c r="D205" t="n">
         <v>20</v>
       </c>
-      <c r="E205">
+      <c r="E205" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+    <row r="206">
+      <c r="A206" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B206" t="s">
         <v>19</v>
       </c>
-      <c r="C206">
-        <v>0</v>
-      </c>
-      <c r="D206">
+      <c r="C206" t="n">
+        <v>0</v>
+      </c>
+      <c r="D206" t="n">
         <v>8</v>
       </c>
-      <c r="E206">
+      <c r="E206" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+    <row r="207">
+      <c r="A207" s="1" t="n">
         <v>44642</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
       </c>
-      <c r="C207">
-        <v>0</v>
-      </c>
-      <c r="D207">
+      <c r="C207" t="n">
+        <v>0</v>
+      </c>
+      <c r="D207" t="n">
         <v>19</v>
       </c>
-      <c r="E207">
+      <c r="E207" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+    <row r="208">
+      <c r="A208" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
-      <c r="C208">
+      <c r="C208" t="n">
         <v>6</v>
       </c>
-      <c r="D208">
+      <c r="D208" t="n">
         <v>163</v>
       </c>
-      <c r="E208">
+      <c r="E208" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+    <row r="209">
+      <c r="A209" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
       </c>
-      <c r="C209">
-        <v>0</v>
-      </c>
-      <c r="D209">
+      <c r="C209" t="n">
+        <v>0</v>
+      </c>
+      <c r="D209" t="n">
         <v>49</v>
       </c>
-      <c r="E209">
+      <c r="E209" t="n">
         <v>49</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+    <row r="210">
+      <c r="A210" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
       </c>
-      <c r="C210">
-        <v>0</v>
-      </c>
-      <c r="D210">
+      <c r="C210" t="n">
+        <v>0</v>
+      </c>
+      <c r="D210" t="n">
         <v>44</v>
       </c>
-      <c r="E210">
+      <c r="E210" t="n">
         <v>44</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+    <row r="211">
+      <c r="A211" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
-      <c r="C211">
+      <c r="C211" t="n">
         <v>4</v>
       </c>
-      <c r="D211">
+      <c r="D211" t="n">
         <v>126</v>
       </c>
-      <c r="E211">
+      <c r="E211" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+    <row r="212">
+      <c r="A212" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B212" t="s">
         <v>9</v>
       </c>
-      <c r="C212">
-        <v>0</v>
-      </c>
-      <c r="D212">
+      <c r="C212" t="n">
+        <v>0</v>
+      </c>
+      <c r="D212" t="n">
         <v>26</v>
       </c>
-      <c r="E212">
+      <c r="E212" t="n">
         <v>26</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+    <row r="213">
+      <c r="A213" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
       </c>
-      <c r="C213">
+      <c r="C213" t="n">
         <v>1</v>
       </c>
-      <c r="D213">
+      <c r="D213" t="n">
         <v>30</v>
       </c>
-      <c r="E213">
+      <c r="E213" t="n">
         <v>31</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="214">
+      <c r="A214" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
       </c>
-      <c r="C214">
-        <v>0</v>
-      </c>
-      <c r="D214">
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
         <v>23</v>
       </c>
-      <c r="E214">
+      <c r="E214" t="n">
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+    <row r="215">
+      <c r="A215" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
       </c>
-      <c r="C215">
-        <v>0</v>
-      </c>
-      <c r="D215">
+      <c r="C215" t="n">
+        <v>0</v>
+      </c>
+      <c r="D215" t="n">
         <v>10</v>
       </c>
-      <c r="E215">
+      <c r="E215" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row r="216">
+      <c r="A216" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B216" t="s">
         <v>13</v>
       </c>
-      <c r="C216">
-        <v>0</v>
-      </c>
-      <c r="D216">
+      <c r="C216" t="n">
+        <v>0</v>
+      </c>
+      <c r="D216" t="n">
         <v>67</v>
       </c>
-      <c r="E216">
+      <c r="E216" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+    <row r="217">
+      <c r="A217" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B217" t="s">
         <v>14</v>
       </c>
-      <c r="C217">
+      <c r="C217" t="n">
         <v>10</v>
       </c>
-      <c r="D217">
+      <c r="D217" t="n">
         <v>112</v>
       </c>
-      <c r="E217">
+      <c r="E217" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+    <row r="218">
+      <c r="A218" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B218" t="s">
         <v>17</v>
       </c>
-      <c r="C218">
+      <c r="C218" t="n">
         <v>1</v>
       </c>
-      <c r="D218">
+      <c r="D218" t="n">
         <v>38</v>
       </c>
-      <c r="E218">
+      <c r="E218" t="n">
         <v>39</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row r="219">
+      <c r="A219" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B219" t="s">
         <v>18</v>
       </c>
-      <c r="C219">
+      <c r="C219" t="n">
         <v>5</v>
       </c>
-      <c r="D219">
-        <v>0</v>
-      </c>
-      <c r="E219">
+      <c r="D219" t="n">
+        <v>0</v>
+      </c>
+      <c r="E219" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row r="220">
+      <c r="A220" s="1" t="n">
         <v>44641</v>
       </c>
       <c r="B220" t="s">
         <v>19</v>
       </c>
-      <c r="C220">
+      <c r="C220" t="n">
         <v>1</v>
       </c>
-      <c r="D220">
+      <c r="D220" t="n">
         <v>21</v>
       </c>
-      <c r="E220">
+      <c r="E220" t="n">
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row r="221">
+      <c r="A221" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
-      <c r="C221">
+      <c r="C221" t="n">
         <v>1</v>
       </c>
-      <c r="D221">
+      <c r="D221" t="n">
         <v>219</v>
       </c>
-      <c r="E221">
+      <c r="E221" t="n">
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+    <row r="222">
+      <c r="A222" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B222" t="s">
         <v>6</v>
       </c>
-      <c r="C222">
+      <c r="C222" t="n">
         <v>2</v>
       </c>
-      <c r="D222">
+      <c r="D222" t="n">
         <v>40</v>
       </c>
-      <c r="E222">
+      <c r="E222" t="n">
         <v>42</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row r="223">
+      <c r="A223" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
       </c>
-      <c r="C223">
-        <v>0</v>
-      </c>
-      <c r="D223">
+      <c r="C223" t="n">
+        <v>0</v>
+      </c>
+      <c r="D223" t="n">
         <v>32</v>
       </c>
-      <c r="E223">
+      <c r="E223" t="n">
         <v>32</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row r="224">
+      <c r="A224" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
       </c>
-      <c r="C224">
+      <c r="C224" t="n">
         <v>1</v>
       </c>
-      <c r="D224">
+      <c r="D224" t="n">
         <v>45</v>
       </c>
-      <c r="E224">
+      <c r="E224" t="n">
         <v>46</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row r="225">
+      <c r="A225" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B225" t="s">
         <v>9</v>
       </c>
-      <c r="C225">
+      <c r="C225" t="n">
         <v>1</v>
       </c>
-      <c r="D225">
-        <v>0</v>
-      </c>
-      <c r="E225">
+      <c r="D225" t="n">
+        <v>0</v>
+      </c>
+      <c r="E225" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+    <row r="226">
+      <c r="A226" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B226" t="s">
         <v>10</v>
       </c>
-      <c r="C226">
-        <v>0</v>
-      </c>
-      <c r="D226">
+      <c r="C226" t="n">
+        <v>0</v>
+      </c>
+      <c r="D226" t="n">
         <v>18</v>
       </c>
-      <c r="E226">
+      <c r="E226" t="n">
         <v>18</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row r="227">
+      <c r="A227" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B227" t="s">
         <v>11</v>
       </c>
-      <c r="C227">
-        <v>0</v>
-      </c>
-      <c r="D227">
+      <c r="C227" t="n">
+        <v>0</v>
+      </c>
+      <c r="D227" t="n">
         <v>12</v>
       </c>
-      <c r="E227">
+      <c r="E227" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+    <row r="228">
+      <c r="A228" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B228" t="s">
         <v>12</v>
       </c>
-      <c r="C228">
-        <v>0</v>
-      </c>
-      <c r="D228">
+      <c r="C228" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" t="n">
         <v>8</v>
       </c>
-      <c r="E228">
+      <c r="E228" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+    <row r="229">
+      <c r="A229" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B229" t="s">
         <v>13</v>
       </c>
-      <c r="C229">
-        <v>0</v>
-      </c>
-      <c r="D229">
+      <c r="C229" t="n">
+        <v>0</v>
+      </c>
+      <c r="D229" t="n">
         <v>13</v>
       </c>
-      <c r="E229">
+      <c r="E229" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+    <row r="230">
+      <c r="A230" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B230" t="s">
         <v>14</v>
       </c>
-      <c r="C230">
+      <c r="C230" t="n">
         <v>18</v>
       </c>
-      <c r="D230">
+      <c r="D230" t="n">
         <v>247</v>
       </c>
-      <c r="E230">
+      <c r="E230" t="n">
         <v>265</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+    <row r="231">
+      <c r="A231" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B231" t="s">
         <v>16</v>
       </c>
-      <c r="C231">
+      <c r="C231" t="n">
         <v>11</v>
       </c>
-      <c r="D231">
-        <v>0</v>
-      </c>
-      <c r="E231">
+      <c r="D231" t="n">
+        <v>0</v>
+      </c>
+      <c r="E231" t="n">
         <v>11</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+    <row r="232">
+      <c r="A232" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B232" t="s">
         <v>17</v>
       </c>
-      <c r="C232">
+      <c r="C232" t="n">
         <v>9</v>
       </c>
-      <c r="D232">
-        <v>0</v>
-      </c>
-      <c r="E232">
+      <c r="D232" t="n">
+        <v>0</v>
+      </c>
+      <c r="E232" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+    <row r="233">
+      <c r="A233" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B233" t="s">
         <v>18</v>
       </c>
-      <c r="C233">
+      <c r="C233" t="n">
         <v>4</v>
       </c>
-      <c r="D233">
-        <v>0</v>
-      </c>
-      <c r="E233">
+      <c r="D233" t="n">
+        <v>0</v>
+      </c>
+      <c r="E233" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+    <row r="234">
+      <c r="A234" s="1" t="n">
         <v>44640</v>
       </c>
       <c r="B234" t="s">
         <v>19</v>
       </c>
-      <c r="C234">
-        <v>0</v>
-      </c>
-      <c r="D234">
+      <c r="C234" t="n">
+        <v>0</v>
+      </c>
+      <c r="D234" t="n">
         <v>13</v>
       </c>
-      <c r="E234">
+      <c r="E234" t="n">
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+    <row r="235">
+      <c r="A235" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
-      <c r="C235">
+      <c r="C235" t="n">
         <v>8</v>
       </c>
-      <c r="D235">
+      <c r="D235" t="n">
         <v>127</v>
       </c>
-      <c r="E235">
+      <c r="E235" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+    <row r="236">
+      <c r="A236" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B236" t="s">
         <v>6</v>
       </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236">
+      <c r="C236" t="n">
+        <v>0</v>
+      </c>
+      <c r="D236" t="n">
         <v>36</v>
       </c>
-      <c r="E236">
+      <c r="E236" t="n">
         <v>36</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+    <row r="237">
+      <c r="A237" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B237" t="s">
         <v>7</v>
       </c>
-      <c r="C237">
-        <v>0</v>
-      </c>
-      <c r="D237">
+      <c r="C237" t="n">
+        <v>0</v>
+      </c>
+      <c r="D237" t="n">
         <v>15</v>
       </c>
-      <c r="E237">
+      <c r="E237" t="n">
         <v>15</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+    <row r="238">
+      <c r="A238" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
       </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238">
+      <c r="C238" t="n">
+        <v>0</v>
+      </c>
+      <c r="D238" t="n">
         <v>61</v>
       </c>
-      <c r="E238">
+      <c r="E238" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+    <row r="239">
+      <c r="A239" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B239" t="s">
         <v>9</v>
       </c>
-      <c r="C239">
-        <v>0</v>
-      </c>
-      <c r="D239">
+      <c r="C239" t="n">
+        <v>0</v>
+      </c>
+      <c r="D239" t="n">
         <v>12</v>
       </c>
-      <c r="E239">
+      <c r="E239" t="n">
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+    <row r="240">
+      <c r="A240" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B240" t="s">
         <v>10</v>
       </c>
-      <c r="C240">
-        <v>0</v>
-      </c>
-      <c r="D240">
+      <c r="C240" t="n">
+        <v>0</v>
+      </c>
+      <c r="D240" t="n">
         <v>25</v>
       </c>
-      <c r="E240">
+      <c r="E240" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+    <row r="241">
+      <c r="A241" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B241" t="s">
         <v>12</v>
       </c>
-      <c r="C241">
-        <v>0</v>
-      </c>
-      <c r="D241">
+      <c r="C241" t="n">
+        <v>0</v>
+      </c>
+      <c r="D241" t="n">
         <v>14</v>
       </c>
-      <c r="E241">
+      <c r="E241" t="n">
         <v>14</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+    <row r="242">
+      <c r="A242" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B242" t="s">
         <v>13</v>
       </c>
-      <c r="C242">
+      <c r="C242" t="n">
         <v>1</v>
       </c>
-      <c r="D242">
+      <c r="D242" t="n">
         <v>16</v>
       </c>
-      <c r="E242">
+      <c r="E242" t="n">
         <v>17</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row r="243">
+      <c r="A243" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B243" t="s">
         <v>14</v>
       </c>
-      <c r="C243">
+      <c r="C243" t="n">
         <v>4</v>
       </c>
-      <c r="D243">
+      <c r="D243" t="n">
         <v>49</v>
       </c>
-      <c r="E243">
+      <c r="E243" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row r="244">
+      <c r="A244" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B244" t="s">
         <v>15</v>
       </c>
-      <c r="C244">
+      <c r="C244" t="n">
         <v>2</v>
       </c>
-      <c r="D244">
-        <v>0</v>
-      </c>
-      <c r="E244">
+      <c r="D244" t="n">
+        <v>0</v>
+      </c>
+      <c r="E244" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row r="245">
+      <c r="A245" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B245" t="s">
         <v>16</v>
       </c>
-      <c r="C245">
+      <c r="C245" t="n">
         <v>3</v>
       </c>
-      <c r="D245">
-        <v>0</v>
-      </c>
-      <c r="E245">
+      <c r="D245" t="n">
+        <v>0</v>
+      </c>
+      <c r="E245" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="246">
+      <c r="A246" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B246" t="s">
         <v>17</v>
       </c>
-      <c r="C246">
+      <c r="C246" t="n">
         <v>16</v>
       </c>
-      <c r="D246">
-        <v>0</v>
-      </c>
-      <c r="E246">
+      <c r="D246" t="n">
+        <v>0</v>
+      </c>
+      <c r="E246" t="n">
         <v>16</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row r="247">
+      <c r="A247" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B247" t="s">
         <v>18</v>
       </c>
-      <c r="C247">
+      <c r="C247" t="n">
         <v>5</v>
       </c>
-      <c r="D247">
-        <v>0</v>
-      </c>
-      <c r="E247">
+      <c r="D247" t="n">
+        <v>0</v>
+      </c>
+      <c r="E247" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+    <row r="248">
+      <c r="A248" s="1" t="n">
         <v>44639</v>
       </c>
       <c r="B248" t="s">
         <v>19</v>
       </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-      <c r="D248">
+      <c r="C248" t="n">
+        <v>0</v>
+      </c>
+      <c r="D248" t="n">
         <v>6</v>
       </c>
-      <c r="E248">
+      <c r="E248" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E248" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/content/post/2022-03-24-covidsh/data/shcovid.xlsx
+++ b/content/post/2022-03-24-covidsh/data/shcovid.xlsx
@@ -433,211 +433,211 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="D2" t="n">
-        <v>3514</v>
+        <v>6866</v>
       </c>
       <c r="E2" t="n">
-        <v>3654</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>810</v>
+        <v>962</v>
       </c>
       <c r="E3" t="n">
-        <v>824</v>
+        <v>970</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="E4" t="n">
-        <v>338</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>465</v>
+        <v>1221</v>
       </c>
       <c r="E5" t="n">
-        <v>499</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E6" t="n">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E7" t="n">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>177</v>
+        <v>603</v>
       </c>
       <c r="E8" t="n">
-        <v>188</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D9" t="n">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="E9" t="n">
-        <v>374</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>435</v>
+        <v>264</v>
       </c>
       <c r="E10" t="n">
-        <v>467</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>872</v>
+        <v>1370</v>
       </c>
       <c r="E11" t="n">
-        <v>940</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>415</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E13" t="n">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -646,287 +646,287 @@
         <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>257</v>
+        <v>553</v>
       </c>
       <c r="E14" t="n">
-        <v>263</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="E15" t="n">
-        <v>232</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E16" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="E17" t="n">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D18" t="n">
-        <v>1930</v>
+        <v>3514</v>
       </c>
       <c r="E18" t="n">
-        <v>2038</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>632</v>
+        <v>810</v>
       </c>
       <c r="E19" t="n">
-        <v>659</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" t="n">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E20" t="n">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D21" t="n">
-        <v>998</v>
+        <v>465</v>
       </c>
       <c r="E21" t="n">
-        <v>1042</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D22" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E22" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E23" t="n">
-        <v>388</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="E24" t="n">
-        <v>342</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D25" t="n">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="E25" t="n">
-        <v>274</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D26" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E26" t="n">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D27" t="n">
-        <v>774</v>
+        <v>872</v>
       </c>
       <c r="E27" t="n">
-        <v>829</v>
+        <v>940</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D28" t="n">
-        <v>591</v>
+        <v>401</v>
       </c>
       <c r="E28" t="n">
-        <v>617</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
       </c>
       <c r="C30" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="E30" t="n">
-        <v>567</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
@@ -935,508 +935,508 @@
         <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E31" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E32" t="n">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="E33" t="n">
-        <v>113</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D34" t="n">
-        <v>2505</v>
+        <v>1930</v>
       </c>
       <c r="E34" t="n">
-        <v>2584</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D35" t="n">
-        <v>255</v>
+        <v>632</v>
       </c>
       <c r="E35" t="n">
-        <v>260</v>
+        <v>659</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D36" t="n">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="E36" t="n">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D37" t="n">
-        <v>602</v>
+        <v>998</v>
       </c>
       <c r="E37" t="n">
-        <v>639</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D38" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E38" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D39" t="n">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="E39" t="n">
-        <v>245</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D40" t="n">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="E40" t="n">
-        <v>61</v>
+        <v>342</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D41" t="n">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="E41" t="n">
-        <v>134</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D42" t="n">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="E42" t="n">
-        <v>45</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D43" t="n">
-        <v>986</v>
+        <v>774</v>
       </c>
       <c r="E43" t="n">
-        <v>1043</v>
+        <v>829</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D44" t="n">
-        <v>191</v>
+        <v>591</v>
       </c>
       <c r="E44" t="n">
-        <v>200</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E45" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D46" t="n">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="E46" t="n">
-        <v>493</v>
+        <v>567</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="E47" t="n">
-        <v>87</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D48" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E48" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E49" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D50" t="n">
-        <v>2227</v>
+        <v>2505</v>
       </c>
       <c r="E50" t="n">
-        <v>2407</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="E51" t="n">
-        <v>121</v>
+        <v>260</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D52" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E52" t="n">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D53" t="n">
-        <v>206</v>
+        <v>602</v>
       </c>
       <c r="E53" t="n">
-        <v>226</v>
+        <v>639</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="E54" t="n">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D55" t="n">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="E55" t="n">
-        <v>15</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E56" t="n">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="E57" t="n">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E58" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D59" t="n">
-        <v>333</v>
+        <v>986</v>
       </c>
       <c r="E59" t="n">
-        <v>392</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D60" t="n">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="E60" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -1445,66 +1445,66 @@
         <v>3</v>
       </c>
       <c r="D61" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E61" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D62" t="n">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="E62" t="n">
-        <v>184</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E63" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E64" t="n">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
@@ -1513,100 +1513,100 @@
         <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E65" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="D66" t="n">
-        <v>1958</v>
+        <v>2227</v>
       </c>
       <c r="E66" t="n">
-        <v>2207</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="E67" t="n">
-        <v>361</v>
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="E68" t="n">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D69" t="n">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="E69" t="n">
-        <v>404</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D70" t="n">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="E70" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
@@ -1615,219 +1615,219 @@
         <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="E71" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D72" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E72" t="n">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E73" t="n">
-        <v>100</v>
+        <v>174</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>503</v>
+        <v>13</v>
       </c>
       <c r="E74" t="n">
-        <v>504</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D75" t="n">
-        <v>761</v>
+        <v>333</v>
       </c>
       <c r="E75" t="n">
-        <v>780</v>
+        <v>392</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D76" t="n">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E76" t="n">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E77" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="E78" t="n">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E79" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E80" t="n">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E81" t="n">
-        <v>193</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D82" t="n">
-        <v>2014</v>
+        <v>1958</v>
       </c>
       <c r="E82" t="n">
-        <v>2183</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="E83" t="n">
-        <v>110</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -1836,49 +1836,49 @@
         <v>8</v>
       </c>
       <c r="D84" t="n">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E84" t="n">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D85" t="n">
-        <v>1066</v>
+        <v>389</v>
       </c>
       <c r="E85" t="n">
-        <v>1100</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D86" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E86" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -1887,32 +1887,32 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E87" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E88" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
@@ -1921,49 +1921,49 @@
         <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E89" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="E90" t="n">
-        <v>363</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D91" t="n">
-        <v>958</v>
+        <v>761</v>
       </c>
       <c r="E91" t="n">
-        <v>987</v>
+        <v>780</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
@@ -1972,389 +1972,389 @@
         <v>9</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E92" t="n">
-        <v>9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E93" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D94" t="n">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E94" t="n">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E95" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E96" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="E97" t="n">
-        <v>55</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D98" t="n">
-        <v>2467</v>
+        <v>2014</v>
       </c>
       <c r="E98" t="n">
-        <v>2506</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="E99" t="n">
-        <v>283</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
       </c>
       <c r="C100" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="E100" t="n">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
-        <v>85</v>
+        <v>1066</v>
       </c>
       <c r="E101" t="n">
-        <v>91</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D102" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E102" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
       </c>
       <c r="C103" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E103" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E104" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E105" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E106" t="n">
-        <v>311</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D107" t="n">
-        <v>361</v>
+        <v>958</v>
       </c>
       <c r="E107" t="n">
-        <v>370</v>
+        <v>987</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
       </c>
       <c r="C108" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D109" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E109" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
       </c>
       <c r="C110" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D110" t="n">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="E110" t="n">
-        <v>94</v>
+        <v>228</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E111" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E112" t="n">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D113" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E113" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D114" t="n">
-        <v>1425</v>
+        <v>2467</v>
       </c>
       <c r="E114" t="n">
-        <v>1429</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
@@ -2363,32 +2363,32 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="E115" t="n">
-        <v>56</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E116" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -2397,66 +2397,66 @@
         <v>6</v>
       </c>
       <c r="D117" t="n">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="E117" t="n">
-        <v>277</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="E118" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D119" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E119" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D120" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E120" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -2465,117 +2465,117 @@
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E121" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D122" t="n">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="E122" t="n">
-        <v>94</v>
+        <v>311</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
       </c>
       <c r="C123" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D123" t="n">
-        <v>599</v>
+        <v>361</v>
       </c>
       <c r="E123" t="n">
-        <v>619</v>
+        <v>370</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D124" t="n">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="E124" t="n">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E125" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D126" t="n">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="E126" t="n">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D127" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E127" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
@@ -2584,15 +2584,15 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E128" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
@@ -2601,117 +2601,117 @@
         <v>0</v>
       </c>
       <c r="D129" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E129" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D130" t="n">
-        <v>322</v>
+        <v>1425</v>
       </c>
       <c r="E130" t="n">
-        <v>323</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E131" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D132" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E132" t="n">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
       </c>
       <c r="C133" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="E133" t="n">
-        <v>331</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
       <c r="C134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E134" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D135" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E135" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
@@ -2720,83 +2720,83 @@
         <v>1</v>
       </c>
       <c r="D136" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E136" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="C137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E137" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D138" t="n">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="E138" t="n">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
       <c r="C139" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D139" t="n">
-        <v>957</v>
+        <v>599</v>
       </c>
       <c r="E139" t="n">
-        <v>972</v>
+        <v>619</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D140" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E140" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
@@ -2805,32 +2805,32 @@
         <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E141" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="n">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="E142" t="n">
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
@@ -2839,15 +2839,15 @@
         <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E143" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
@@ -2856,15 +2856,15 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E144" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -2873,32 +2873,32 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="E145" t="n">
-        <v>27</v>
+        <v>236</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D146" t="n">
-        <v>1883</v>
+        <v>322</v>
       </c>
       <c r="E146" t="n">
-        <v>1914</v>
+        <v>323</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
@@ -2907,66 +2907,66 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="E147" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D148" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E148" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D149" t="n">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="E149" t="n">
-        <v>3</v>
+        <v>331</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E150" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
@@ -2975,406 +2975,406 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E151" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E152" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E153" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D154" t="n">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="E154" t="n">
-        <v>4</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
       </c>
       <c r="C155" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>202</v>
+        <v>957</v>
       </c>
       <c r="E155" t="n">
-        <v>206</v>
+        <v>972</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D156" t="n">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="E156" t="n">
-        <v>19</v>
+        <v>242</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E157" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B158" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E158" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E159" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C160" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="E160" t="n">
-        <v>193</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E161" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D162" t="n">
-        <v>62</v>
+        <v>1883</v>
       </c>
       <c r="E162" t="n">
-        <v>70</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="E163" t="n">
-        <v>167</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="n">
         <v>2</v>
       </c>
-      <c r="D165" t="n">
-        <v>36</v>
-      </c>
       <c r="E165" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E166" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C167" t="n">
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E167" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C168" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E168" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C169" t="n">
         <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="E169" t="n">
-        <v>490</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="E170" t="n">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="E171" t="n">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B172" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C172" t="n">
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E172" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B173" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D173" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E173" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B174" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E174" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B175" t="s">
         <v>20</v>
@@ -3383,32 +3383,32 @@
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E175" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
       <c r="C176" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D176" t="n">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="E176" t="n">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B177" t="s">
         <v>6</v>
@@ -3417,49 +3417,49 @@
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E177" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
       </c>
       <c r="C178" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D178" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E178" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D179" t="n">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E179" t="n">
-        <v>106</v>
+        <v>167</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B180" t="s">
         <v>9</v>
@@ -3468,32 +3468,32 @@
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E180" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B181" t="s">
         <v>10</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D181" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E181" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B182" t="s">
         <v>11</v>
@@ -3502,66 +3502,66 @@
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E182" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B183" t="s">
         <v>12</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E183" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B184" t="s">
         <v>13</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D184" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E184" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B185" t="s">
         <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>254</v>
+        <v>490</v>
       </c>
       <c r="E185" t="n">
-        <v>256</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B186" t="s">
         <v>15</v>
@@ -3570,15 +3570,15 @@
         <v>1</v>
       </c>
       <c r="D186" t="n">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E186" t="n">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
@@ -3587,15 +3587,15 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E187" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B188" t="s">
         <v>17</v>
@@ -3604,15 +3604,15 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E188" t="n">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B189" t="s">
         <v>18</v>
@@ -3621,32 +3621,32 @@
         <v>0</v>
       </c>
       <c r="D189" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E189" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B190" t="s">
         <v>19</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E190" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
@@ -3655,15 +3655,15 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E191" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
@@ -3672,15 +3672,15 @@
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E192" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -3689,15 +3689,15 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E193" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
@@ -3706,32 +3706,32 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E194" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="C195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D195" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E195" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
@@ -3740,15 +3740,15 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E196" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
@@ -3757,15 +3757,15 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E197" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -3774,15 +3774,15 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E198" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
@@ -3791,15 +3791,15 @@
         <v>0</v>
       </c>
       <c r="D199" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E199" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B200" t="s">
         <v>13</v>
@@ -3808,49 +3808,49 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E200" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D201" t="n">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="E201" t="n">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
       </c>
       <c r="C202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E202" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
@@ -3859,15 +3859,15 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E203" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B204" t="s">
         <v>17</v>
@@ -3876,15 +3876,15 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E204" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B205" t="s">
         <v>18</v>
@@ -3893,32 +3893,32 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E205" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B206" t="s">
         <v>19</v>
       </c>
       <c r="C206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D206" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E206" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
@@ -3927,32 +3927,32 @@
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E207" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
       <c r="C208" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="E208" t="n">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -3961,15 +3961,15 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E209" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -3978,32 +3978,32 @@
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E210" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
       <c r="C211" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D211" t="n">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E211" t="n">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B212" t="s">
         <v>9</v>
@@ -4012,32 +4012,32 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E212" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E213" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -4046,15 +4046,15 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E214" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
@@ -4063,15 +4063,15 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E215" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B216" t="s">
         <v>13</v>
@@ -4080,553 +4080,825 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E216" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B217" t="s">
         <v>14</v>
       </c>
       <c r="C217" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D217" t="n">
-        <v>112</v>
+        <v>305</v>
       </c>
       <c r="E217" t="n">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B218" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218" t="n">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E218" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B219" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E219" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B220" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E220" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="E221" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E222" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E223" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D224" t="n">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="E224" t="n">
-        <v>46</v>
+        <v>169</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E225" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E226" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D227" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E227" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E228" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E229" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C230" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="E230" t="n">
-        <v>265</v>
+        <v>23</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B231" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C231" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E231" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B232" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C232" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E232" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B233" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C233" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E233" t="n">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B234" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E234" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235" t="n">
         <v>5</v>
       </c>
-      <c r="C235" t="n">
-        <v>8</v>
-      </c>
       <c r="D235" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D236" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E236" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D237" t="n">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="E237" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D238" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E238" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E239" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C240" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D240" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E240" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D241" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E241" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E242" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C243" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E243" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E244" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B245" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E245" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B246" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C246" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E246" t="n">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B247" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C247" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D247" t="n">
         <v>0</v>
       </c>
       <c r="E247" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B248" t="s">
+        <v>17</v>
+      </c>
+      <c r="C248" t="n">
+        <v>9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B249" t="s">
+        <v>18</v>
+      </c>
+      <c r="C249" t="n">
+        <v>4</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B250" t="s">
+        <v>19</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+      <c r="D250" t="n">
+        <v>13</v>
+      </c>
+      <c r="E250" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
         <v>44639</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="n">
+        <v>8</v>
+      </c>
+      <c r="D251" t="n">
+        <v>127</v>
+      </c>
+      <c r="E251" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0</v>
+      </c>
+      <c r="D252" t="n">
+        <v>36</v>
+      </c>
+      <c r="E252" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0</v>
+      </c>
+      <c r="D253" t="n">
+        <v>15</v>
+      </c>
+      <c r="E253" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0</v>
+      </c>
+      <c r="D254" t="n">
+        <v>61</v>
+      </c>
+      <c r="E254" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0</v>
+      </c>
+      <c r="D255" t="n">
+        <v>12</v>
+      </c>
+      <c r="E255" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B256" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0</v>
+      </c>
+      <c r="D256" t="n">
+        <v>25</v>
+      </c>
+      <c r="E256" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B257" t="s">
+        <v>12</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0</v>
+      </c>
+      <c r="D257" t="n">
+        <v>14</v>
+      </c>
+      <c r="E257" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B258" t="s">
+        <v>13</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="n">
+        <v>16</v>
+      </c>
+      <c r="E258" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B259" t="s">
+        <v>14</v>
+      </c>
+      <c r="C259" t="n">
+        <v>4</v>
+      </c>
+      <c r="D259" t="n">
+        <v>49</v>
+      </c>
+      <c r="E259" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B260" t="s">
+        <v>15</v>
+      </c>
+      <c r="C260" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B261" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" t="n">
+        <v>3</v>
+      </c>
+      <c r="D261" t="n">
+        <v>0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B262" t="s">
+        <v>17</v>
+      </c>
+      <c r="C262" t="n">
+        <v>16</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B263" t="s">
+        <v>18</v>
+      </c>
+      <c r="C263" t="n">
+        <v>5</v>
+      </c>
+      <c r="D263" t="n">
+        <v>0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B264" t="s">
         <v>19</v>
       </c>
-      <c r="C248" t="n">
-        <v>0</v>
-      </c>
-      <c r="D248" t="n">
+      <c r="C264" t="n">
+        <v>0</v>
+      </c>
+      <c r="D264" t="n">
         <v>6</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E264" t="n">
         <v>6</v>
       </c>
     </row>

--- a/content/post/2022-03-24-covidsh/data/shcovid.xlsx
+++ b/content/post/2022-03-24-covidsh/data/shcovid.xlsx
@@ -433,194 +433,194 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="D2" t="n">
-        <v>6866</v>
+        <v>7983</v>
       </c>
       <c r="E2" t="n">
-        <v>7071</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>962</v>
+        <v>642</v>
       </c>
       <c r="E3" t="n">
-        <v>970</v>
+        <v>658</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>49</v>
+        <v>290</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>1221</v>
+        <v>897</v>
       </c>
       <c r="E5" t="n">
-        <v>1229</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="E6" t="n">
-        <v>33</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>250</v>
+        <v>476</v>
       </c>
       <c r="E7" t="n">
-        <v>254</v>
+        <v>483</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
-        <v>603</v>
+        <v>402</v>
       </c>
       <c r="E8" t="n">
-        <v>608</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>210</v>
+        <v>612</v>
       </c>
       <c r="E9" t="n">
-        <v>220</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" t="n">
-        <v>264</v>
+        <v>547</v>
       </c>
       <c r="E10" t="n">
-        <v>265</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D11" t="n">
-        <v>1370</v>
+        <v>2914</v>
       </c>
       <c r="E11" t="n">
-        <v>1381</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -629,49 +629,49 @@
         <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="E13" t="n">
-        <v>52</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D14" t="n">
-        <v>553</v>
+        <v>782</v>
       </c>
       <c r="E14" t="n">
-        <v>559</v>
+        <v>796</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>313</v>
+        <v>378</v>
       </c>
       <c r="E15" t="n">
-        <v>314</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -680,236 +680,236 @@
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="E16" t="n">
-        <v>64</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E17" t="n">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
       <c r="C18" t="n">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="D18" t="n">
-        <v>3514</v>
+        <v>6866</v>
       </c>
       <c r="E18" t="n">
-        <v>3654</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="C19" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D19" t="n">
-        <v>810</v>
+        <v>962</v>
       </c>
       <c r="E19" t="n">
-        <v>824</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
       </c>
       <c r="C20" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>309</v>
+        <v>49</v>
       </c>
       <c r="E20" t="n">
-        <v>338</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>465</v>
+        <v>1221</v>
       </c>
       <c r="E21" t="n">
-        <v>499</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B22" t="s">
         <v>9</v>
       </c>
       <c r="C22" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
       </c>
       <c r="C23" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="E23" t="n">
-        <v>321</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>177</v>
+        <v>603</v>
       </c>
       <c r="E24" t="n">
-        <v>188</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B25" t="s">
         <v>12</v>
       </c>
       <c r="C25" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="E25" t="n">
-        <v>374</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>435</v>
+        <v>264</v>
       </c>
       <c r="E26" t="n">
-        <v>467</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" t="n">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>872</v>
+        <v>1370</v>
       </c>
       <c r="E27" t="n">
-        <v>940</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>415</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
-        <v>103</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B30" t="s">
         <v>17</v>
@@ -918,287 +918,287 @@
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>257</v>
+        <v>553</v>
       </c>
       <c r="E30" t="n">
-        <v>263</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B31" t="s">
         <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="E31" t="n">
-        <v>232</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B32" t="s">
         <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E32" t="n">
-        <v>119</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>44654</v>
+        <v>44655</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>164</v>
+        <v>47</v>
       </c>
       <c r="E33" t="n">
-        <v>165</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>108</v>
+        <v>140</v>
       </c>
       <c r="D34" t="n">
-        <v>1930</v>
+        <v>3514</v>
       </c>
       <c r="E34" t="n">
-        <v>2038</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B35" t="s">
         <v>6</v>
       </c>
       <c r="C35" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D35" t="n">
-        <v>632</v>
+        <v>810</v>
       </c>
       <c r="E35" t="n">
-        <v>659</v>
+        <v>824</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B36" t="s">
         <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D36" t="n">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="E36" t="n">
-        <v>324</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B37" t="s">
         <v>8</v>
       </c>
       <c r="C37" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D37" t="n">
-        <v>998</v>
+        <v>465</v>
       </c>
       <c r="E37" t="n">
-        <v>1042</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B38" t="s">
         <v>9</v>
       </c>
       <c r="C38" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D38" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E38" t="n">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D39" t="n">
-        <v>349</v>
+        <v>300</v>
       </c>
       <c r="E39" t="n">
-        <v>388</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B40" t="s">
         <v>11</v>
       </c>
       <c r="C40" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="E40" t="n">
-        <v>342</v>
+        <v>188</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
-        <v>255</v>
+        <v>344</v>
       </c>
       <c r="E41" t="n">
-        <v>274</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="E42" t="n">
-        <v>485</v>
+        <v>467</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B43" t="s">
         <v>14</v>
       </c>
       <c r="C43" t="n">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="D43" t="n">
-        <v>774</v>
+        <v>872</v>
       </c>
       <c r="E43" t="n">
-        <v>829</v>
+        <v>940</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
       </c>
       <c r="C44" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="D44" t="n">
-        <v>591</v>
+        <v>401</v>
       </c>
       <c r="E44" t="n">
-        <v>617</v>
+        <v>415</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B46" t="s">
         <v>17</v>
       </c>
       <c r="C46" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>559</v>
+        <v>257</v>
       </c>
       <c r="E46" t="n">
-        <v>567</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -1207,508 +1207,508 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E47" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B48" t="s">
         <v>19</v>
       </c>
       <c r="C48" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E48" t="n">
-        <v>157</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>44653</v>
+        <v>44654</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="E49" t="n">
-        <v>113</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="n">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="D50" t="n">
-        <v>2505</v>
+        <v>1930</v>
       </c>
       <c r="E50" t="n">
-        <v>2584</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B51" t="s">
         <v>6</v>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D51" t="n">
-        <v>255</v>
+        <v>632</v>
       </c>
       <c r="E51" t="n">
-        <v>260</v>
+        <v>659</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B52" t="s">
         <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D52" t="n">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="E52" t="n">
-        <v>189</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
       </c>
       <c r="C53" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D53" t="n">
-        <v>602</v>
+        <v>998</v>
       </c>
       <c r="E53" t="n">
-        <v>639</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B54" t="s">
         <v>9</v>
       </c>
       <c r="C54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D54" t="n">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="E54" t="n">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B55" t="s">
         <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D55" t="n">
-        <v>232</v>
+        <v>349</v>
       </c>
       <c r="E55" t="n">
-        <v>245</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B56" t="s">
         <v>11</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D56" t="n">
-        <v>58</v>
+        <v>312</v>
       </c>
       <c r="E56" t="n">
-        <v>61</v>
+        <v>342</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D57" t="n">
-        <v>123</v>
+        <v>255</v>
       </c>
       <c r="E57" t="n">
-        <v>134</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B58" t="s">
         <v>13</v>
       </c>
       <c r="C58" t="n">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D58" t="n">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="E58" t="n">
-        <v>45</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B59" t="s">
         <v>14</v>
       </c>
       <c r="C59" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D59" t="n">
-        <v>986</v>
+        <v>774</v>
       </c>
       <c r="E59" t="n">
-        <v>1043</v>
+        <v>829</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B60" t="s">
         <v>15</v>
       </c>
       <c r="C60" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D60" t="n">
-        <v>191</v>
+        <v>591</v>
       </c>
       <c r="E60" t="n">
-        <v>200</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E61" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B62" t="s">
         <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D62" t="n">
-        <v>474</v>
+        <v>559</v>
       </c>
       <c r="E62" t="n">
-        <v>493</v>
+        <v>567</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>87</v>
+        <v>228</v>
       </c>
       <c r="E63" t="n">
-        <v>87</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D64" t="n">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E64" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>44652</v>
+        <v>44653</v>
       </c>
       <c r="B65" t="s">
         <v>20</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="E65" t="n">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="D66" t="n">
-        <v>2227</v>
+        <v>2505</v>
       </c>
       <c r="E66" t="n">
-        <v>2407</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B67" t="s">
         <v>6</v>
       </c>
       <c r="C67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>114</v>
+        <v>255</v>
       </c>
       <c r="E67" t="n">
-        <v>121</v>
+        <v>260</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E68" t="n">
-        <v>164</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
       </c>
       <c r="C69" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D69" t="n">
-        <v>206</v>
+        <v>602</v>
       </c>
       <c r="E69" t="n">
-        <v>226</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B70" t="s">
         <v>9</v>
       </c>
       <c r="C70" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>213</v>
+        <v>37</v>
       </c>
       <c r="E70" t="n">
-        <v>256</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B71" t="s">
         <v>10</v>
       </c>
       <c r="C71" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D71" t="n">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="E71" t="n">
-        <v>15</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
       <c r="C72" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="E72" t="n">
-        <v>128</v>
+        <v>61</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="E73" t="n">
-        <v>174</v>
+        <v>134</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B74" t="s">
         <v>13</v>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D74" t="n">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E74" t="n">
-        <v>17</v>
+        <v>45</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B75" t="s">
         <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D75" t="n">
-        <v>333</v>
+        <v>986</v>
       </c>
       <c r="E75" t="n">
-        <v>392</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B76" t="s">
         <v>15</v>
       </c>
       <c r="C76" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D76" t="n">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="E76" t="n">
-        <v>54</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
@@ -1717,66 +1717,66 @@
         <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E77" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B78" t="s">
         <v>17</v>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D78" t="n">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="E78" t="n">
-        <v>184</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E79" t="n">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="E80" t="n">
-        <v>183</v>
+        <v>161</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>44651</v>
+        <v>44652</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -1785,100 +1785,100 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="E81" t="n">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
       <c r="C82" t="n">
-        <v>249</v>
+        <v>180</v>
       </c>
       <c r="D82" t="n">
-        <v>1958</v>
+        <v>2227</v>
       </c>
       <c r="E82" t="n">
-        <v>2207</v>
+        <v>2407</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B83" t="s">
         <v>6</v>
       </c>
       <c r="C83" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D83" t="n">
-        <v>345</v>
+        <v>114</v>
       </c>
       <c r="E83" t="n">
-        <v>361</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
       </c>
       <c r="C84" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
-        <v>94</v>
+        <v>160</v>
       </c>
       <c r="E84" t="n">
-        <v>102</v>
+        <v>164</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
       </c>
       <c r="C85" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D85" t="n">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="E85" t="n">
-        <v>404</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B86" t="s">
         <v>9</v>
       </c>
       <c r="C86" t="n">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="D86" t="n">
-        <v>120</v>
+        <v>213</v>
       </c>
       <c r="E86" t="n">
-        <v>128</v>
+        <v>256</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B87" t="s">
         <v>10</v>
@@ -1887,219 +1887,219 @@
         <v>6</v>
       </c>
       <c r="D87" t="n">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="E87" t="n">
-        <v>146</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D88" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E88" t="n">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="E89" t="n">
-        <v>100</v>
+        <v>174</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B90" t="s">
         <v>13</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
-        <v>503</v>
+        <v>13</v>
       </c>
       <c r="E90" t="n">
-        <v>504</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B91" t="s">
         <v>14</v>
       </c>
       <c r="C91" t="n">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D91" t="n">
-        <v>761</v>
+        <v>333</v>
       </c>
       <c r="E91" t="n">
-        <v>780</v>
+        <v>392</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B92" t="s">
         <v>15</v>
       </c>
       <c r="C92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>149</v>
+        <v>47</v>
       </c>
       <c r="E92" t="n">
-        <v>158</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E93" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B94" t="s">
         <v>17</v>
       </c>
       <c r="C94" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="E94" t="n">
-        <v>246</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="E95" t="n">
-        <v>77</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
       </c>
       <c r="C96" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="E96" t="n">
-        <v>130</v>
+        <v>183</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>44650</v>
+        <v>44651</v>
       </c>
       <c r="B97" t="s">
         <v>20</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="E97" t="n">
-        <v>193</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
       <c r="C98" t="n">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="D98" t="n">
-        <v>2014</v>
+        <v>1958</v>
       </c>
       <c r="E98" t="n">
-        <v>2183</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B99" t="s">
         <v>6</v>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D99" t="n">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="E99" t="n">
-        <v>110</v>
+        <v>361</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -2108,49 +2108,49 @@
         <v>8</v>
       </c>
       <c r="D100" t="n">
-        <v>167</v>
+        <v>94</v>
       </c>
       <c r="E100" t="n">
-        <v>175</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B101" t="s">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="D101" t="n">
-        <v>1066</v>
+        <v>389</v>
       </c>
       <c r="E101" t="n">
-        <v>1100</v>
+        <v>404</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B102" t="s">
         <v>9</v>
       </c>
       <c r="C102" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D102" t="n">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>128</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B103" t="s">
         <v>10</v>
@@ -2159,32 +2159,32 @@
         <v>6</v>
       </c>
       <c r="D103" t="n">
-        <v>107</v>
+        <v>140</v>
       </c>
       <c r="E103" t="n">
-        <v>113</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B104" t="s">
         <v>11</v>
       </c>
       <c r="C104" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D104" t="n">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="E104" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -2193,49 +2193,49 @@
         <v>3</v>
       </c>
       <c r="D105" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E105" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B106" t="s">
         <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="D106" t="n">
-        <v>330</v>
+        <v>503</v>
       </c>
       <c r="E106" t="n">
-        <v>363</v>
+        <v>504</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B107" t="s">
         <v>14</v>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D107" t="n">
-        <v>958</v>
+        <v>761</v>
       </c>
       <c r="E107" t="n">
-        <v>987</v>
+        <v>780</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B108" t="s">
         <v>15</v>
@@ -2244,389 +2244,389 @@
         <v>9</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="E108" t="n">
-        <v>9</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E109" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B110" t="s">
         <v>17</v>
       </c>
       <c r="C110" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D110" t="n">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="E110" t="n">
-        <v>228</v>
+        <v>246</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B111" t="s">
         <v>18</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D111" t="n">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E111" t="n">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B112" t="s">
         <v>19</v>
       </c>
       <c r="C112" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D112" t="n">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="E112" t="n">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>44649</v>
+        <v>44650</v>
       </c>
       <c r="B113" t="s">
         <v>20</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>54</v>
+        <v>193</v>
       </c>
       <c r="E113" t="n">
-        <v>55</v>
+        <v>193</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
       <c r="C114" t="n">
-        <v>39</v>
+        <v>169</v>
       </c>
       <c r="D114" t="n">
-        <v>2467</v>
+        <v>2014</v>
       </c>
       <c r="E114" t="n">
-        <v>2506</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B115" t="s">
         <v>6</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D115" t="n">
-        <v>282</v>
+        <v>104</v>
       </c>
       <c r="E115" t="n">
-        <v>283</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B116" t="s">
         <v>7</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D116" t="n">
-        <v>94</v>
+        <v>167</v>
       </c>
       <c r="E116" t="n">
-        <v>104</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
       </c>
       <c r="C117" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="D117" t="n">
-        <v>85</v>
+        <v>1066</v>
       </c>
       <c r="E117" t="n">
-        <v>91</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B118" t="s">
         <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D118" t="n">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="E118" t="n">
-        <v>115</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B119" t="s">
         <v>10</v>
       </c>
       <c r="C119" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D119" t="n">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="E119" t="n">
-        <v>81</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B120" t="s">
         <v>11</v>
       </c>
       <c r="C120" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D120" t="n">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="E120" t="n">
-        <v>8</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D121" t="n">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="E121" t="n">
-        <v>47</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B122" t="s">
         <v>13</v>
       </c>
       <c r="C122" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D122" t="n">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="E122" t="n">
-        <v>311</v>
+        <v>363</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B123" t="s">
         <v>14</v>
       </c>
       <c r="C123" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D123" t="n">
-        <v>361</v>
+        <v>958</v>
       </c>
       <c r="E123" t="n">
-        <v>370</v>
+        <v>987</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B124" t="s">
         <v>15</v>
       </c>
       <c r="C124" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D124" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D125" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E125" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B126" t="s">
         <v>17</v>
       </c>
       <c r="C126" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D126" t="n">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="E126" t="n">
-        <v>94</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B127" t="s">
         <v>18</v>
       </c>
       <c r="C127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="E127" t="n">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B128" t="s">
         <v>19</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D128" t="n">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="E128" t="n">
-        <v>115</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>44648</v>
+        <v>44649</v>
       </c>
       <c r="B129" t="s">
         <v>20</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E129" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
       <c r="C130" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D130" t="n">
-        <v>1425</v>
+        <v>2467</v>
       </c>
       <c r="E130" t="n">
-        <v>1429</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B131" t="s">
         <v>6</v>
@@ -2635,32 +2635,32 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>55</v>
+        <v>282</v>
       </c>
       <c r="E131" t="n">
-        <v>56</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
       </c>
       <c r="C132" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D132" t="n">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E132" t="n">
-        <v>70</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -2669,66 +2669,66 @@
         <v>6</v>
       </c>
       <c r="D133" t="n">
-        <v>271</v>
+        <v>85</v>
       </c>
       <c r="E133" t="n">
-        <v>277</v>
+        <v>91</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B134" t="s">
         <v>9</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D134" t="n">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="E134" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B135" t="s">
         <v>10</v>
       </c>
       <c r="C135" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D135" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E135" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B136" t="s">
         <v>11</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -2737,117 +2737,117 @@
         <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E137" t="n">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
       </c>
       <c r="C138" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D138" t="n">
-        <v>89</v>
+        <v>303</v>
       </c>
       <c r="E138" t="n">
-        <v>94</v>
+        <v>311</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B139" t="s">
         <v>14</v>
       </c>
       <c r="C139" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D139" t="n">
-        <v>599</v>
+        <v>361</v>
       </c>
       <c r="E139" t="n">
-        <v>619</v>
+        <v>370</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B140" t="s">
         <v>15</v>
       </c>
       <c r="C140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="E140" t="n">
-        <v>251</v>
+        <v>209</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D141" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E141" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B142" t="s">
         <v>17</v>
       </c>
       <c r="C142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D142" t="n">
-        <v>189</v>
+        <v>90</v>
       </c>
       <c r="E142" t="n">
-        <v>190</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B143" t="s">
         <v>18</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E143" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B144" t="s">
         <v>19</v>
@@ -2856,15 +2856,15 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E144" t="n">
-        <v>45</v>
+        <v>115</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>44647</v>
+        <v>44648</v>
       </c>
       <c r="B145" t="s">
         <v>20</v>
@@ -2873,117 +2873,117 @@
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
       <c r="E145" t="n">
-        <v>236</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D146" t="n">
-        <v>322</v>
+        <v>1425</v>
       </c>
       <c r="E146" t="n">
-        <v>323</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B147" t="s">
         <v>6</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="E147" t="n">
-        <v>160</v>
+        <v>56</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
       </c>
       <c r="C148" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D148" t="n">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="E148" t="n">
-        <v>108</v>
+        <v>70</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
       </c>
       <c r="C149" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D149" t="n">
-        <v>326</v>
+        <v>271</v>
       </c>
       <c r="E149" t="n">
-        <v>331</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B150" t="s">
         <v>9</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D150" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E150" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B151" t="s">
         <v>10</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D151" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E151" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B152" t="s">
         <v>11</v>
@@ -2992,83 +2992,83 @@
         <v>1</v>
       </c>
       <c r="D152" t="n">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E152" t="n">
-        <v>50</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B153" t="s">
         <v>12</v>
       </c>
       <c r="C153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D153" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="E153" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B154" t="s">
         <v>13</v>
       </c>
       <c r="C154" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154" t="n">
-        <v>147</v>
+        <v>89</v>
       </c>
       <c r="E154" t="n">
-        <v>153</v>
+        <v>94</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B155" t="s">
         <v>14</v>
       </c>
       <c r="C155" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D155" t="n">
-        <v>957</v>
+        <v>599</v>
       </c>
       <c r="E155" t="n">
-        <v>972</v>
+        <v>619</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B156" t="s">
         <v>15</v>
       </c>
       <c r="C156" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D156" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="E156" t="n">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
@@ -3077,32 +3077,32 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E157" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B158" t="s">
         <v>17</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>79</v>
+        <v>189</v>
       </c>
       <c r="E158" t="n">
-        <v>79</v>
+        <v>190</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B159" t="s">
         <v>18</v>
@@ -3111,15 +3111,15 @@
         <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E159" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B160" t="s">
         <v>19</v>
@@ -3128,15 +3128,15 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E160" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>44646</v>
+        <v>44647</v>
       </c>
       <c r="B161" t="s">
         <v>20</v>
@@ -3145,32 +3145,32 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>27</v>
+        <v>236</v>
       </c>
       <c r="E161" t="n">
-        <v>27</v>
+        <v>236</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
       <c r="C162" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>1883</v>
+        <v>322</v>
       </c>
       <c r="E162" t="n">
-        <v>1914</v>
+        <v>323</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B163" t="s">
         <v>6</v>
@@ -3179,66 +3179,66 @@
         <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
       <c r="E163" t="n">
-        <v>23</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="E164" t="n">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B165" t="s">
         <v>8</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D165" t="n">
-        <v>2</v>
+        <v>326</v>
       </c>
       <c r="E165" t="n">
-        <v>3</v>
+        <v>331</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B166" t="s">
         <v>9</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D166" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E166" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B167" t="s">
         <v>10</v>
@@ -3247,406 +3247,406 @@
         <v>1</v>
       </c>
       <c r="D167" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="E167" t="n">
-        <v>9</v>
+        <v>69</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B168" t="s">
         <v>11</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B169" t="s">
         <v>12</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D169" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E169" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B170" t="s">
         <v>13</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D170" t="n">
-        <v>4</v>
+        <v>147</v>
       </c>
       <c r="E170" t="n">
-        <v>4</v>
+        <v>153</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B171" t="s">
         <v>14</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
-        <v>202</v>
+        <v>957</v>
       </c>
       <c r="E171" t="n">
-        <v>206</v>
+        <v>972</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B172" t="s">
         <v>15</v>
       </c>
       <c r="C172" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D172" t="n">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="E172" t="n">
-        <v>19</v>
+        <v>242</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E173" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B174" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
       </c>
       <c r="D174" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E174" t="n">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="B175" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
       </c>
       <c r="D175" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E175" t="n">
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C176" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>181</v>
+        <v>84</v>
       </c>
       <c r="E176" t="n">
-        <v>193</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>44644</v>
+        <v>44646</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C177" t="n">
         <v>0</v>
       </c>
       <c r="D177" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
       <c r="E177" t="n">
-        <v>102</v>
+        <v>27</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C178" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="D178" t="n">
-        <v>62</v>
+        <v>1883</v>
       </c>
       <c r="E178" t="n">
-        <v>70</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D179" t="n">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="E179" t="n">
-        <v>167</v>
+        <v>23</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C180" t="n">
         <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="E180" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="n">
         <v>2</v>
       </c>
-      <c r="D181" t="n">
-        <v>36</v>
-      </c>
       <c r="E181" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
       </c>
       <c r="D182" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="E182" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C183" t="n">
         <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E183" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="E184" t="n">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>490</v>
+        <v>11</v>
       </c>
       <c r="E185" t="n">
-        <v>490</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>129</v>
+        <v>4</v>
       </c>
       <c r="E186" t="n">
-        <v>130</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B187" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D187" t="n">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="E187" t="n">
-        <v>12</v>
+        <v>206</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B188" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="E188" t="n">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E189" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B190" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E190" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="B191" t="s">
         <v>20</v>
@@ -3655,32 +3655,32 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="E191" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D192" t="n">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="E192" t="n">
-        <v>218</v>
+        <v>193</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B193" t="s">
         <v>6</v>
@@ -3689,49 +3689,49 @@
         <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
       <c r="E193" t="n">
-        <v>20</v>
+        <v>102</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B194" t="s">
         <v>7</v>
       </c>
       <c r="C194" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D194" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="E194" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D195" t="n">
-        <v>106</v>
+        <v>165</v>
       </c>
       <c r="E195" t="n">
-        <v>106</v>
+        <v>167</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B196" t="s">
         <v>9</v>
@@ -3740,32 +3740,32 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E196" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B197" t="s">
         <v>10</v>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D197" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E197" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B198" t="s">
         <v>11</v>
@@ -3774,66 +3774,66 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E198" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B199" t="s">
         <v>12</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E199" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B200" t="s">
         <v>13</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D200" t="n">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E200" t="n">
-        <v>69</v>
+        <v>87</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B201" t="s">
         <v>14</v>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>254</v>
+        <v>490</v>
       </c>
       <c r="E201" t="n">
-        <v>256</v>
+        <v>490</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B202" t="s">
         <v>15</v>
@@ -3842,15 +3842,15 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E202" t="n">
-        <v>69</v>
+        <v>130</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
@@ -3859,15 +3859,15 @@
         <v>0</v>
       </c>
       <c r="D203" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E203" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B204" t="s">
         <v>17</v>
@@ -3876,15 +3876,15 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="E204" t="n">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B205" t="s">
         <v>18</v>
@@ -3893,32 +3893,32 @@
         <v>0</v>
       </c>
       <c r="D205" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E205" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B206" t="s">
         <v>19</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E206" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="B207" t="s">
         <v>20</v>
@@ -3927,15 +3927,15 @@
         <v>0</v>
       </c>
       <c r="D207" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="E207" t="n">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B208" t="s">
         <v>5</v>
@@ -3944,15 +3944,15 @@
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="E208" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B209" t="s">
         <v>6</v>
@@ -3961,15 +3961,15 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="E209" t="n">
-        <v>59</v>
+        <v>20</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -3978,32 +3978,32 @@
         <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E210" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B211" t="s">
         <v>8</v>
       </c>
       <c r="C211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E211" t="n">
-        <v>87</v>
+        <v>106</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B212" t="s">
         <v>9</v>
@@ -4012,15 +4012,15 @@
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E212" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B213" t="s">
         <v>10</v>
@@ -4029,15 +4029,15 @@
         <v>0</v>
       </c>
       <c r="D213" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="E213" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B214" t="s">
         <v>11</v>
@@ -4046,15 +4046,15 @@
         <v>0</v>
       </c>
       <c r="D214" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E214" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B215" t="s">
         <v>12</v>
@@ -4063,15 +4063,15 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E215" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B216" t="s">
         <v>13</v>
@@ -4080,49 +4080,49 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="E216" t="n">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B217" t="s">
         <v>14</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D217" t="n">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="E217" t="n">
-        <v>305</v>
+        <v>256</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B218" t="s">
         <v>15</v>
       </c>
       <c r="C218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D218" t="n">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="E218" t="n">
-        <v>111</v>
+        <v>69</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B219" t="s">
         <v>16</v>
@@ -4131,15 +4131,15 @@
         <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E219" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B220" t="s">
         <v>17</v>
@@ -4148,15 +4148,15 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E220" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B221" t="s">
         <v>18</v>
@@ -4165,32 +4165,32 @@
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E221" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B222" t="s">
         <v>19</v>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D222" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E222" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="B223" t="s">
         <v>20</v>
@@ -4199,32 +4199,32 @@
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E223" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
       <c r="C224" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="E224" t="n">
-        <v>169</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B225" t="s">
         <v>6</v>
@@ -4233,15 +4233,15 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E225" t="n">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -4250,32 +4250,32 @@
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E226" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
       </c>
       <c r="C227" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D227" t="n">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E227" t="n">
-        <v>130</v>
+        <v>87</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B228" t="s">
         <v>9</v>
@@ -4284,32 +4284,32 @@
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E228" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B229" t="s">
         <v>10</v>
       </c>
       <c r="C229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E229" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B230" t="s">
         <v>11</v>
@@ -4318,15 +4318,15 @@
         <v>0</v>
       </c>
       <c r="D230" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E230" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B231" t="s">
         <v>12</v>
@@ -4335,15 +4335,15 @@
         <v>0</v>
       </c>
       <c r="D231" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E231" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B232" t="s">
         <v>13</v>
@@ -4352,553 +4352,825 @@
         <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="E232" t="n">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B233" t="s">
         <v>14</v>
       </c>
       <c r="C233" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D233" t="n">
-        <v>112</v>
+        <v>305</v>
       </c>
       <c r="E233" t="n">
-        <v>122</v>
+        <v>305</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B234" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234" t="n">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E234" t="n">
-        <v>39</v>
+        <v>111</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B235" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C235" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E235" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>44641</v>
+        <v>44642</v>
       </c>
       <c r="B236" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E236" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="E237" t="n">
-        <v>220</v>
+        <v>20</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="E238" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>44640</v>
+        <v>44642</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
       </c>
       <c r="D239" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E239" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B240" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D240" t="n">
-        <v>45</v>
+        <v>163</v>
       </c>
       <c r="E240" t="n">
-        <v>46</v>
+        <v>169</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>49</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
       </c>
       <c r="D242" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="E242" t="n">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D243" t="n">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E243" t="n">
-        <v>12</v>
+        <v>130</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
       </c>
       <c r="D244" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E244" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D245" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E245" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C246" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="D246" t="n">
-        <v>247</v>
+        <v>23</v>
       </c>
       <c r="E246" t="n">
-        <v>265</v>
+        <v>23</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B247" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C247" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D247" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E247" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B248" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C248" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E248" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B249" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C249" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D249" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="E249" t="n">
-        <v>4</v>
+        <v>122</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>44640</v>
+        <v>44641</v>
       </c>
       <c r="B250" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D250" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E250" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B251" t="s">
+        <v>18</v>
+      </c>
+      <c r="C251" t="n">
         <v>5</v>
       </c>
-      <c r="C251" t="n">
-        <v>8</v>
-      </c>
       <c r="D251" t="n">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="E251" t="n">
-        <v>135</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>44639</v>
+        <v>44641</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="E252" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D253" t="n">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c r="E253" t="n">
-        <v>15</v>
+        <v>220</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D254" t="n">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E254" t="n">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
       </c>
       <c r="D255" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="E255" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D256" t="n">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E256" t="n">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D257" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E257" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D258" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E258" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C259" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="E259" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E260" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B261" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D261" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E261" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B262" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C262" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D262" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="E262" t="n">
-        <v>16</v>
+        <v>265</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>44639</v>
+        <v>44640</v>
       </c>
       <c r="B263" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C263" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
       </c>
       <c r="E263" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B264" t="s">
+        <v>17</v>
+      </c>
+      <c r="C264" t="n">
+        <v>9</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B265" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" t="n">
+        <v>4</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="B266" t="s">
+        <v>19</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0</v>
+      </c>
+      <c r="D266" t="n">
+        <v>13</v>
+      </c>
+      <c r="E266" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
         <v>44639</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="n">
+        <v>8</v>
+      </c>
+      <c r="D267" t="n">
+        <v>127</v>
+      </c>
+      <c r="E267" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0</v>
+      </c>
+      <c r="D268" t="n">
+        <v>36</v>
+      </c>
+      <c r="E268" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0</v>
+      </c>
+      <c r="D269" t="n">
+        <v>15</v>
+      </c>
+      <c r="E269" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0</v>
+      </c>
+      <c r="D270" t="n">
+        <v>61</v>
+      </c>
+      <c r="E270" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B271" t="s">
+        <v>9</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0</v>
+      </c>
+      <c r="D271" t="n">
+        <v>12</v>
+      </c>
+      <c r="E271" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B272" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0</v>
+      </c>
+      <c r="D272" t="n">
+        <v>25</v>
+      </c>
+      <c r="E272" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0</v>
+      </c>
+      <c r="D273" t="n">
+        <v>14</v>
+      </c>
+      <c r="E273" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="n">
+        <v>16</v>
+      </c>
+      <c r="E274" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+      <c r="C275" t="n">
+        <v>4</v>
+      </c>
+      <c r="D275" t="n">
+        <v>49</v>
+      </c>
+      <c r="E275" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+      <c r="C276" t="n">
+        <v>2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B277" t="s">
+        <v>16</v>
+      </c>
+      <c r="C277" t="n">
+        <v>3</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B278" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" t="n">
+        <v>16</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B279" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" t="n">
+        <v>5</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="B280" t="s">
         <v>19</v>
       </c>
-      <c r="C264" t="n">
-        <v>0</v>
-      </c>
-      <c r="D264" t="n">
+      <c r="C280" t="n">
+        <v>0</v>
+      </c>
+      <c r="D280" t="n">
         <v>6</v>
       </c>
-      <c r="E264" t="n">
+      <c r="E280" t="n">
         <v>6</v>
       </c>
     </row>

--- a/content/post/2022-03-24-covidsh/data/shcovid.xlsx
+++ b/content/post/2022-03-24-covidsh/data/shcovid.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t xml:space="preserve">var_loca</t>
   </si>
@@ -32,102 +32,549 @@
     <t xml:space="preserve">case_sum</t>
   </si>
   <si>
+    <t xml:space="preserve">2022年4月18日，浦东新区新增1075例本土确诊病例，新增7756例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">浦东新区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，黄浦区新增362例本土确诊病例，新增2961例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">黄浦区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，静安区新增203例本土确诊病例，新增807例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">静安区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，徐汇区新增68例本土确诊病例，新增504例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">徐汇区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，长宁区新增193例本土确诊病例，新增487例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">长宁区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，普陀区新增21例本土确诊病例，新增350例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">普陀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，虹口区新增233例本土确诊病例，新增859例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">虹口区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，杨浦区新增64例本土确诊病例，新增417例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">杨浦区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，宝山区新增203例本土确诊病例，新增827例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">宝山区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，闵行区新增312例本土确诊病例，新增1060例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">闵行区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，嘉定区新增72例本土确诊病例，新增516例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">嘉定区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，松江区新增191例本土确诊病例，新增571例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">松江区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，青浦区新增77例本土确诊病例，新增180例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">青浦区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月18日，奉贤区新增2例本土确诊病例，新增12例本土无症状感染者，居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">奉贤区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，浦东新区新增521例本土确诊病例，新增7219例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，黄浦区新增186例本土确诊病例，新增1710例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，静安区新增127例本土确诊病例，新增715例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，徐汇区新增167例本土确诊病例，新增1386例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，长宁区新增62例本土确诊病例，新增677例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，普陀区新增330例本土确诊病例，新增895例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，虹口区新增266例本土确诊病例，新增900例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，杨浦区新增26例本土新冠肺炎确诊病例，新增861例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，宝山区新增85例本土确诊病例，新增1365例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，闵行区新增106例本土确诊病例，新增2296例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，嘉定区新增356例本土确诊病例，新增622例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，松江区新增153例确诊病例，新增752例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，青浦区新增17例本土确诊病例，新增352例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月17日，奉贤区新增1例本土新冠肺炎确诊病例，新增19例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，浦东新区新增1002例本土确诊病例，新增9789例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，黄浦区新增188例本土确诊病例，新增1377例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，静安区新增143例本土确诊病例，新增991例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，徐汇区新增170例本土确诊病例，新增1362例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，长宁区新增127例本土确诊病例，新增579例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，普陀区新增145例本土确诊病例，新增1186例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，虹口区新增157例本土确诊病例，新增870例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，杨浦区新增84例本土新冠肺炎确诊病例，新增776例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，宝山区新增51例本土确诊病例，新增1242例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，闵行区新增890例本土确诊病例，新增2170例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，嘉定区新增103例本土确诊病例，新增582例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，金山区新增9例本土确诊病例，新增12例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">金山区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，松江区新增87例确诊病例，新增323例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，青浦区新增46例本土确诊病例，新增259例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，奉贤区新增23例本土新冠肺炎确诊病例，新增28例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月16日，崇明区新增13例新冠肺炎本土确诊病例，新增36例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">崇明区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，黄浦区新增246例本土确诊病例，新增1138例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，静安区新增92例本土确诊病例，新增341例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，徐汇区新增277例本土确诊病例，新增1412例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，长宁区新增233例本土确诊病例，新增519例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，普陀区新增66例本土确诊病例，新增360例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，虹口区新增287例本土确诊病例，新增1210例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，杨浦区新增275例本土确诊病例，新增1136例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，宝山区新增74例本土确诊病例，新增1249例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，闵行区新增301例本土确诊病例，新增1736例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，嘉定区新增173例本土确诊病例，新增568例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，金山区新增21例本土确诊病例，新增10例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，松江区新增198例本土确诊病例，新增575例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，青浦区新增131例本土确诊病例，新增405例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，奉贤区新增23例本土确诊病例，新增83例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月15日，崇明区新增51例本土确诊病例，新增41例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，浦东新区新增1252例本土确诊病例，新增10404例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，黄浦区新增268例本土确诊病例，新增1745例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，静安区新增70例本土确诊病例，新增196例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，徐汇区新增293例本土确诊病例，新增1049例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，长宁区新增148例本土确诊病例，新增850例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，普陀区新增45例本土确诊病例，新增219例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，虹口区新增174例本土确诊病例，新增756例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，杨浦区新增48例本土新冠肺炎确诊病例，新增769例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，宝山区新增50例本土确诊病例，新增367例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，闵行区新增274例本土确诊病例，新增2104例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，嘉定区新增200例本土确诊病例，新增603例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，金山区新增23例本土确诊病例，新增5例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，松江区新增178例确诊病例，新增583例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，青浦区新增128例本土确诊病例，新增176例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，奉贤区新增20例本土新冠肺炎确诊病例，新增15例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月14日，崇明区新增29例新冠肺炎本土确诊病例，新增31例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，静安区新增75例本土确诊病例，新增981例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，徐汇区新增56例本土确诊病例，新增1052例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，长宁区新增90例本土确诊病例，新增1043例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，普陀区新增50例本土确诊病例，新增1120例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，虹口区新增83例本土确诊病例，新增848例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，嘉定区新增42例本土确诊病例，新增944例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，金山区新增3例本土确诊病例，新增36例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，松江区新增77例本土确诊病例，新增635例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，青浦区新增61例本土确诊病例，新增463例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，奉贤区新增1例本土确诊病例，新增32例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月12日，崇明区新增29例本土确诊病例，新增57例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，浦东新区新增493例本土确诊病例，新增7813例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，黄浦区新增117例本土确诊病例，新增2106例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，静安区新增20例本土确诊病例，新增532例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，徐汇区新增48例本土确诊病例，新增1723例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，长宁区新增25例本土确诊病例，新增368例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，普陀区新增37例本土确诊病例，新增1841例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，虹口区新增25例本土确诊病例，新增1350例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，杨浦区新增30例本土新冠肺炎确诊病例，新增1390例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，宝山区新增47例本土确诊病例，新增977例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，闵行区新增68例本土确诊病例，新增2939例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，嘉定区新增43例本土确诊病例，新增165例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，金山区新增3例本土确诊病例，新增35例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，松江区新增21例确诊病例，新增670例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，青浦区新增7例本土确诊病例，新增324例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，奉贤区新增4例本土新冠肺炎确诊病例，新增64例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月11日，崇明区新增6例本土确诊病例，新增51例新冠肺炎无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，浦东新区新增212例本土确诊病例，新增6520例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，黄浦区新增36例本土确诊病例，新增1725例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，静安区新增29例本土确诊病例，新增574例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，徐汇区新增46例本土确诊病例，新增3157例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，长宁区新增5例本土确诊病例，新增382例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，普陀区新增7例本土确诊病例，新增994例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，虹口区新增6例本土确诊病例，新增1232例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，杨浦区新增61例本土新冠肺炎确诊病例，新增1816例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，宝山区新增21例本土确诊病例，新增1818例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，闵行区新增102例本土确诊病例，新增3087例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，嘉定区新增71例本土确诊病例，新增1334例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，金山区新增15例本土确诊病例，新增42例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，松江区新增291例确诊病例，新增1534例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，青浦区新增1例本土确诊病例，新增876例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，奉贤区新增11例本土新冠肺炎确诊病例，新增27例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月10日，崇明区无新增本土确诊病例，新增55例新冠肺炎无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，黄浦区新增101例本土确诊病例，新增447例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，静安区新增25例本土确诊病例，新增577例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，徐汇区新增44例本土确诊病例，新增1106例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，长宁区新增26例本土确诊病例，新增731例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，普陀区新增24例本土确诊病例，新增629例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，虹口区新增12例本土确诊病例，新增337例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，杨浦区新增32例本土确诊病例，新增1048例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，宝山区新增36例本土确诊病例，新增2225例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，闵行区新增88例本土确诊病例，新增4536例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，嘉定区新增21例本土确诊病例，新增348例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，金山区新增44例本土确诊病例，新增24例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，松江区新增10例本土确诊病例，新增490例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，青浦区新增9例本土确诊病例，新增548例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，奉贤区新增13例本土确诊病例，新增111例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月9日，崇明区新增4例本土确诊病例，新增167例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，浦东新区新增348例本土确诊病例，新增6938例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，黄浦区新增41例本土确诊病例，新增2566例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，静安区新增42例本土确诊病例，新增623例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，徐汇区新增114例本土确诊病例，新增1515例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，长宁区新增20例本土确诊病例，新增594例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，普陀区新增21例本土确诊病例，新增1073例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，虹口区新增18例本土确诊病例，新增360例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，杨浦区新增12例本土新冠肺炎确诊病例，新增689例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，宝山区新增29例本土确诊病例，新增2792例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，闵行区新增62例本土确诊病例，新增2792例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，嘉定区新增116例本土确诊病例，新增1389例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，金山区新增45例本土确诊病例，新增45例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，松江区新增108例确诊病例，新增663例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，青浦区新增24例本土确诊病例，新增318例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，奉贤区新增12例本土新冠肺炎确诊病例，新增85例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022年4月8日，崇明区新增3例新冠肺炎本土确诊病例，新增167例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022年4月7日，浦东新区新增307例本土确诊病例，新增8743例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">浦东新区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，黄浦区新增14例本土确诊病例，新增1366例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">黄浦区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，静安区新增22例本土确诊病例，新增359例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">静安区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，徐汇区新增43例本土确诊病例，新增2033例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">徐汇区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，长宁区新增29例本土确诊病例，新增823例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">长宁区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，普陀区新增11例本土确诊病例，新增946例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">普陀区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，虹口区新增26例本土确诊病例，新增568例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">虹口区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，杨浦区新增29例本土新冠肺炎确诊病例，新增572例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">杨浦区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，宝山区新增9例本土确诊病例，新增405例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">宝山区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，闵行区新增95例本土确诊病例，新增2162例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">闵行区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，嘉定区新增23例本土确诊病例，新增910例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">嘉定区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，金山区新增72例本土确诊病例，新增57例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">金山区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，松江区新增107例确诊病例，新增644例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">松江区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，青浦区新增4例本土确诊病例，新增489例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">青浦区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，奉贤区新增31例本土新冠肺炎确诊病例，新增61例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">奉贤区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月7日，崇明区新增2例新冠肺炎本土确诊病例，新增260例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">崇明区</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022年4月6日，浦东新区新增151例本土确诊病例，新增8306例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
@@ -278,6 +725,51 @@
     <t xml:space="preserve">年4月3日，奉贤区新增4例本土确诊病例，新增115例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
+    <t xml:space="preserve">年4月2日，黄浦区新增27例本土确诊病例，新增632例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，静安区新增26例本土确诊病例，新增298例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，徐汇区新增44例本土确诊病例，新增998例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，长宁区新增7例本土确诊病例、93例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，普陀区新增39例本土确诊病例、349例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，虹口区新增30例本土确诊病例、312例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，杨浦区新增19例本土确诊病例、255例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，宝山区新增35例本土确诊病例，新增450例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，闵行区新增55例本土确诊病例，新增774例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，嘉定区新增26例本土确诊病例，新增591例无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，金山区无新增本土确诊病例，新增60例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，松江区新增8例本土确诊病例、559例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，青浦区新增3例本土确诊病例、228例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，奉贤区新增8例本土确诊病例，新增149例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">年4月2日，崇明区新增3例本土确诊病例、110例本土无症状感染者，分别居住于：</t>
+  </si>
+  <si>
     <t xml:space="preserve">年4月1日，黄浦区新增5例本土确诊病例，新增255例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
@@ -443,7 +935,7 @@
     <t xml:space="preserve">年3月29日，宝山区新增33例本土确诊病例、330例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">年3月29日，闵行区新增29例本土确诊病例，新增958例本土无症状感染者，分别居住于：</t>
+    <t xml:space="preserve">年3月29日，闵行区新增29例本土确诊病例，新增959例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
     <t xml:space="preserve">年3月29日，嘉定区新增9例本土确诊病例和246例本土无症状感染者，分别居住于：</t>
@@ -452,7 +944,7 @@
     <t xml:space="preserve">年3月29日，金山区新增2例本土确诊病例、24例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
-    <t xml:space="preserve">年3月29日，松江区新增15例确诊病例、213例本土无症状感染者，分别居住于：</t>
+    <t xml:space="preserve">年3月29日，松江区新增15例确诊病例、214例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
     <t xml:space="preserve">年3月29日，青浦区无新增本土确诊病例，新增87例本土无症状感染者，分别居住于：</t>
@@ -477,54 +969,6 @@
   </si>
   <si>
     <t xml:space="preserve">年3月28日，奉贤无新增本土确诊病例，新增115例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，浦东新区新增4例本土确诊病例、1425例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，黄浦区新增1例本土确诊病例，新增55例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，静安区新增5例本土确诊病例，新增65例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，徐汇区新增6例本土确诊病例、271例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，长宁区无新增本土确诊病例，新增45例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，普陀区新增4例本土确诊病例、66例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，虹口区新增1例本土确诊病例，新增26例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，杨浦区无新增本土确诊病例，新增35例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，宝山区新增5例本土确诊病例、89例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，闵行区新增20例本土确诊病例，新增599例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，嘉定区新增3例本土确诊病例，新增248例无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，金山区无新增本土确诊病例，新增13例无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，松江区新增1例本土确诊病例，新增189例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，青浦区无新增本土确诊病例，新增43例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，奉贤区无新增本土新冠肺炎确诊病例，新增45例本土无症状感染者，分别居住于：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">年3月27日，崇明区无新增本土确诊病例，新增236例本土无症状感染者，分别居住于：</t>
   </si>
   <si>
     <t xml:space="preserve">年3月26日，浦东新区新增1例本土确诊病例、322例本土无症状感染者，分别居住于：</t>
@@ -1177,19 +1621,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>307</v>
+        <v>1075</v>
       </c>
       <c r="E2" t="n">
-        <v>8743</v>
+        <v>7756</v>
       </c>
       <c r="F2" t="n">
-        <v>9050</v>
+        <v>8831</v>
       </c>
     </row>
     <row r="3">
@@ -1197,19 +1641,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>362</v>
       </c>
       <c r="E3" t="n">
-        <v>1366</v>
+        <v>2961</v>
       </c>
       <c r="F3" t="n">
-        <v>1380</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="4">
@@ -1217,19 +1661,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>203</v>
       </c>
       <c r="E4" t="n">
-        <v>359</v>
+        <v>807</v>
       </c>
       <c r="F4" t="n">
-        <v>381</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="5">
@@ -1237,19 +1681,19 @@
         <v>12</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C5" t="s">
         <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="E5" t="n">
-        <v>2033</v>
+        <v>504</v>
       </c>
       <c r="F5" t="n">
-        <v>2076</v>
+        <v>572</v>
       </c>
     </row>
     <row r="6">
@@ -1257,19 +1701,19 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="E6" t="n">
-        <v>823</v>
+        <v>487</v>
       </c>
       <c r="F6" t="n">
-        <v>852</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7">
@@ -1277,19 +1721,19 @@
         <v>16</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E7" t="n">
-        <v>946</v>
+        <v>350</v>
       </c>
       <c r="F7" t="n">
-        <v>957</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8">
@@ -1297,19 +1741,19 @@
         <v>18</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="E8" t="n">
-        <v>568</v>
+        <v>859</v>
       </c>
       <c r="F8" t="n">
-        <v>594</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="9">
@@ -1317,19 +1761,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="n">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="E9" t="n">
-        <v>572</v>
+        <v>417</v>
       </c>
       <c r="F9" t="n">
-        <v>601</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10">
@@ -1337,19 +1781,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>203</v>
       </c>
       <c r="E10" t="n">
-        <v>405</v>
+        <v>827</v>
       </c>
       <c r="F10" t="n">
-        <v>414</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="11">
@@ -1357,19 +1801,19 @@
         <v>24</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
       </c>
       <c r="D11" t="n">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="E11" t="n">
-        <v>2162</v>
+        <v>1060</v>
       </c>
       <c r="F11" t="n">
-        <v>2257</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1821,19 @@
         <v>26</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C12" t="s">
         <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="E12" t="n">
-        <v>910</v>
+        <v>516</v>
       </c>
       <c r="F12" t="n">
-        <v>933</v>
+        <v>588</v>
       </c>
     </row>
     <row r="13">
@@ -1397,19 +1841,19 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>191</v>
       </c>
       <c r="E13" t="n">
-        <v>57</v>
+        <v>571</v>
       </c>
       <c r="F13" t="n">
-        <v>129</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14">
@@ -1417,19 +1861,19 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="n">
-        <v>644</v>
+        <v>77</v>
       </c>
       <c r="E14" t="n">
-        <v>644</v>
+        <v>180</v>
       </c>
       <c r="F14" t="n">
-        <v>1288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15">
@@ -1437,19 +1881,19 @@
         <v>32</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44658</v>
+        <v>44669</v>
       </c>
       <c r="C15" t="s">
         <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>489</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>493</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1457,599 +1901,599 @@
         <v>34</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44658</v>
+        <v>44668</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>31</v>
+        <v>521</v>
       </c>
       <c r="E16" t="n">
-        <v>61</v>
+        <v>7219</v>
       </c>
       <c r="F16" t="n">
-        <v>92</v>
+        <v>7740</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44658</v>
+        <v>44668</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>260</v>
+        <v>186</v>
       </c>
       <c r="E17" t="n">
-        <v>260</v>
+        <v>1710</v>
       </c>
       <c r="F17" t="n">
-        <v>520</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E18" t="n">
-        <v>8306</v>
+        <v>715</v>
       </c>
       <c r="F18" t="n">
-        <v>8457</v>
+        <v>842</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" t="n">
-        <v>9</v>
+        <v>167</v>
       </c>
       <c r="E19" t="n">
-        <v>1035</v>
+        <v>1386</v>
       </c>
       <c r="F19" t="n">
-        <v>1044</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D20" t="n">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E20" t="n">
-        <v>518</v>
+        <v>677</v>
       </c>
       <c r="F20" t="n">
-        <v>545</v>
+        <v>739</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>330</v>
       </c>
       <c r="E21" t="n">
-        <v>1088</v>
+        <v>895</v>
       </c>
       <c r="F21" t="n">
-        <v>1107</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D22" t="n">
-        <v>31</v>
+        <v>266</v>
       </c>
       <c r="E22" t="n">
-        <v>319</v>
+        <v>900</v>
       </c>
       <c r="F22" t="n">
-        <v>350</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" t="n">
-        <v>1006</v>
+        <v>861</v>
       </c>
       <c r="F23" t="n">
-        <v>1033</v>
+        <v>887</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="E24" t="n">
-        <v>667</v>
+        <v>1365</v>
       </c>
       <c r="F24" t="n">
-        <v>668</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C25" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E25" t="n">
-        <v>618</v>
+        <v>2296</v>
       </c>
       <c r="F25" t="n">
-        <v>630</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>356</v>
       </c>
       <c r="E26" t="n">
-        <v>651</v>
+        <v>622</v>
       </c>
       <c r="F26" t="n">
-        <v>660</v>
+        <v>978</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D27" t="n">
-        <v>21</v>
+        <v>752</v>
       </c>
       <c r="E27" t="n">
-        <v>2388</v>
+        <v>752</v>
       </c>
       <c r="F27" t="n">
-        <v>2409</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E28" t="n">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="F28" t="n">
-        <v>79</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44657</v>
+        <v>44668</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>779</v>
+        <v>19</v>
       </c>
       <c r="F29" t="n">
-        <v>781</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44657</v>
+        <v>44667</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>1002</v>
       </c>
       <c r="E30" t="n">
-        <v>466</v>
+        <v>9789</v>
       </c>
       <c r="F30" t="n">
-        <v>470</v>
+        <v>10791</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44657</v>
+        <v>44667</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="E31" t="n">
-        <v>278</v>
+        <v>1377</v>
       </c>
       <c r="F31" t="n">
-        <v>556</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44657</v>
+        <v>44667</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="E32" t="n">
-        <v>63</v>
+        <v>991</v>
       </c>
       <c r="F32" t="n">
-        <v>126</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D33" t="n">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="E33" t="n">
-        <v>7983</v>
+        <v>1362</v>
       </c>
       <c r="F33" t="n">
-        <v>8145</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D34" t="n">
-        <v>16</v>
+        <v>127</v>
       </c>
       <c r="E34" t="n">
-        <v>642</v>
+        <v>579</v>
       </c>
       <c r="F34" t="n">
-        <v>658</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>145</v>
       </c>
       <c r="E35" t="n">
-        <v>290</v>
+        <v>1186</v>
       </c>
       <c r="F35" t="n">
-        <v>302</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="E36" t="n">
-        <v>897</v>
+        <v>870</v>
       </c>
       <c r="F36" t="n">
-        <v>920</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="E37" t="n">
-        <v>78</v>
+        <v>776</v>
       </c>
       <c r="F37" t="n">
-        <v>84</v>
+        <v>860</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D38" t="n">
-        <v>7</v>
+        <v>51</v>
       </c>
       <c r="E38" t="n">
-        <v>476</v>
+        <v>1242</v>
       </c>
       <c r="F38" t="n">
-        <v>483</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D39" t="n">
-        <v>8</v>
+        <v>890</v>
       </c>
       <c r="E39" t="n">
-        <v>402</v>
+        <v>2170</v>
       </c>
       <c r="F39" t="n">
-        <v>410</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C40" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="E40" t="n">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="F40" t="n">
-        <v>623</v>
+        <v>685</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E41" t="n">
-        <v>547</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>554</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C42" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D42" t="n">
-        <v>23</v>
+        <v>323</v>
       </c>
       <c r="E42" t="n">
-        <v>2914</v>
+        <v>323</v>
       </c>
       <c r="F42" t="n">
-        <v>2937</v>
+        <v>646</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D43" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="E43" t="n">
-        <v>470</v>
+        <v>259</v>
       </c>
       <c r="F43" t="n">
-        <v>481</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44656</v>
+        <v>44667</v>
       </c>
       <c r="C44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E44" t="n">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="F44" t="n">
-        <v>77</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>44667</v>
+      </c>
+      <c r="C45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="1" t="n">
-        <v>44656</v>
-      </c>
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
       <c r="D45" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="E45" t="n">
-        <v>782</v>
+        <v>36</v>
       </c>
       <c r="F45" t="n">
-        <v>796</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46">
@@ -2057,19 +2501,19 @@
         <v>66</v>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44656</v>
+        <v>44666</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" t="n">
-        <v>6</v>
+        <v>246</v>
       </c>
       <c r="E46" t="n">
-        <v>378</v>
+        <v>1138</v>
       </c>
       <c r="F46" t="n">
-        <v>384</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="47">
@@ -2077,19 +2521,19 @@
         <v>67</v>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44656</v>
+        <v>44666</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="E47" t="n">
-        <v>142</v>
+        <v>341</v>
       </c>
       <c r="F47" t="n">
-        <v>144</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48">
@@ -2097,19 +2541,19 @@
         <v>68</v>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44656</v>
+        <v>44666</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="E48" t="n">
-        <v>77</v>
+        <v>1412</v>
       </c>
       <c r="F48" t="n">
-        <v>79</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="49">
@@ -2117,19 +2561,19 @@
         <v>69</v>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D49" t="n">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="E49" t="n">
-        <v>6866</v>
+        <v>519</v>
       </c>
       <c r="F49" t="n">
-        <v>7071</v>
+        <v>752</v>
       </c>
     </row>
     <row r="50">
@@ -2137,19 +2581,19 @@
         <v>70</v>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="E50" t="n">
-        <v>962</v>
+        <v>360</v>
       </c>
       <c r="F50" t="n">
-        <v>970</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51">
@@ -2157,19 +2601,19 @@
         <v>71</v>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C51" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>287</v>
       </c>
       <c r="E51" t="n">
-        <v>49</v>
+        <v>1210</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="52">
@@ -2177,19 +2621,19 @@
         <v>72</v>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>275</v>
       </c>
       <c r="E52" t="n">
-        <v>1221</v>
+        <v>1136</v>
       </c>
       <c r="F52" t="n">
-        <v>1229</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="53">
@@ -2197,19 +2641,19 @@
         <v>73</v>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="E53" t="n">
-        <v>32</v>
+        <v>1249</v>
       </c>
       <c r="F53" t="n">
-        <v>33</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="54">
@@ -2217,19 +2661,19 @@
         <v>74</v>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>301</v>
       </c>
       <c r="E54" t="n">
-        <v>250</v>
+        <v>1736</v>
       </c>
       <c r="F54" t="n">
-        <v>254</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="55">
@@ -2237,19 +2681,19 @@
         <v>75</v>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D55" t="n">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="E55" t="n">
-        <v>603</v>
+        <v>568</v>
       </c>
       <c r="F55" t="n">
-        <v>608</v>
+        <v>741</v>
       </c>
     </row>
     <row r="56">
@@ -2257,19 +2701,19 @@
         <v>76</v>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="n">
         <v>21</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>10</v>
       </c>
-      <c r="E56" t="n">
-        <v>210</v>
-      </c>
       <c r="F56" t="n">
-        <v>220</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57">
@@ -2277,19 +2721,19 @@
         <v>77</v>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="E57" t="n">
-        <v>264</v>
+        <v>575</v>
       </c>
       <c r="F57" t="n">
-        <v>265</v>
+        <v>773</v>
       </c>
     </row>
     <row r="58">
@@ -2297,19 +2741,19 @@
         <v>78</v>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C58" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D58" t="n">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="E58" t="n">
-        <v>1370</v>
+        <v>405</v>
       </c>
       <c r="F58" t="n">
-        <v>1381</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59">
@@ -2317,19 +2761,19 @@
         <v>79</v>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D59" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="E59" t="n">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="F59" t="n">
-        <v>237</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
@@ -2337,19 +2781,19 @@
         <v>80</v>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44655</v>
+        <v>44666</v>
       </c>
       <c r="C60" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="E60" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F60" t="n">
-        <v>52</v>
+        <v>92</v>
       </c>
     </row>
     <row r="61">
@@ -2357,19 +2801,19 @@
         <v>81</v>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44655</v>
+        <v>44665</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>553</v>
+        <v>1252</v>
       </c>
       <c r="E61" t="n">
-        <v>553</v>
+        <v>10404</v>
       </c>
       <c r="F61" t="n">
-        <v>1106</v>
+        <v>11656</v>
       </c>
     </row>
     <row r="62">
@@ -2377,19 +2821,19 @@
         <v>82</v>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44655</v>
+        <v>44665</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>268</v>
       </c>
       <c r="E62" t="n">
-        <v>313</v>
+        <v>1745</v>
       </c>
       <c r="F62" t="n">
-        <v>314</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="63">
@@ -2397,19 +2841,19 @@
         <v>83</v>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44655</v>
+        <v>44665</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E63" t="n">
-        <v>62</v>
+        <v>196</v>
       </c>
       <c r="F63" t="n">
-        <v>64</v>
+        <v>266</v>
       </c>
     </row>
     <row r="64">
@@ -2417,19 +2861,19 @@
         <v>84</v>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44655</v>
+        <v>44665</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D64" t="n">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="E64" t="n">
-        <v>47</v>
+        <v>1049</v>
       </c>
       <c r="F64" t="n">
-        <v>94</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="65">
@@ -2437,19 +2881,19 @@
         <v>85</v>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44654</v>
+        <v>44665</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D65" t="n">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="E65" t="n">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="F65" t="n">
-        <v>824</v>
+        <v>998</v>
       </c>
     </row>
     <row r="66">
@@ -2457,19 +2901,19 @@
         <v>86</v>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44654</v>
+        <v>44665</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D66" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E66" t="n">
-        <v>309</v>
+        <v>219</v>
       </c>
       <c r="F66" t="n">
-        <v>338</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67">
@@ -2477,19 +2921,19 @@
         <v>87</v>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44654</v>
+        <v>44665</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="E67" t="n">
-        <v>115</v>
+        <v>756</v>
       </c>
       <c r="F67" t="n">
-        <v>119</v>
+        <v>930</v>
       </c>
     </row>
     <row r="68">
@@ -2497,19 +2941,19 @@
         <v>88</v>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D68" t="n">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="E68" t="n">
-        <v>255</v>
+        <v>769</v>
       </c>
       <c r="F68" t="n">
-        <v>260</v>
+        <v>817</v>
       </c>
     </row>
     <row r="69">
@@ -2517,19 +2961,19 @@
         <v>89</v>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="E69" t="n">
-        <v>178</v>
+        <v>367</v>
       </c>
       <c r="F69" t="n">
-        <v>189</v>
+        <v>417</v>
       </c>
     </row>
     <row r="70">
@@ -2537,19 +2981,19 @@
         <v>90</v>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D70" t="n">
-        <v>37</v>
+        <v>274</v>
       </c>
       <c r="E70" t="n">
-        <v>602</v>
+        <v>2104</v>
       </c>
       <c r="F70" t="n">
-        <v>639</v>
+        <v>2378</v>
       </c>
     </row>
     <row r="71">
@@ -2557,19 +3001,19 @@
         <v>91</v>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D71" t="n">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E71" t="n">
-        <v>37</v>
+        <v>603</v>
       </c>
       <c r="F71" t="n">
-        <v>74</v>
+        <v>803</v>
       </c>
     </row>
     <row r="72">
@@ -2577,19 +3021,19 @@
         <v>92</v>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C72" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D72" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E72" t="n">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="F72" t="n">
-        <v>245</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
@@ -2597,19 +3041,19 @@
         <v>93</v>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D73" t="n">
-        <v>3</v>
+        <v>583</v>
       </c>
       <c r="E73" t="n">
-        <v>58</v>
+        <v>583</v>
       </c>
       <c r="F73" t="n">
-        <v>61</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="74">
@@ -2617,19 +3061,19 @@
         <v>94</v>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C74" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D74" t="n">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="E74" t="n">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="F74" t="n">
-        <v>134</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75">
@@ -2637,19 +3081,19 @@
         <v>95</v>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D75" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E75" t="n">
+        <v>15</v>
+      </c>
+      <c r="F75" t="n">
         <v>35</v>
-      </c>
-      <c r="F75" t="n">
-        <v>45</v>
       </c>
     </row>
     <row r="76">
@@ -2657,19 +3101,19 @@
         <v>96</v>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44652</v>
+        <v>44665</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D76" t="n">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E76" t="n">
-        <v>986</v>
+        <v>31</v>
       </c>
       <c r="F76" t="n">
-        <v>1043</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77">
@@ -2677,19 +3121,19 @@
         <v>97</v>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>981</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="78">
@@ -2697,19 +3141,19 @@
         <v>98</v>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="E78" t="n">
-        <v>46</v>
+        <v>1052</v>
       </c>
       <c r="F78" t="n">
-        <v>49</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="79">
@@ -2717,19 +3161,19 @@
         <v>99</v>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D79" t="n">
-        <v>474</v>
+        <v>90</v>
       </c>
       <c r="E79" t="n">
-        <v>474</v>
+        <v>1043</v>
       </c>
       <c r="F79" t="n">
-        <v>948</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="80">
@@ -2737,19 +3181,19 @@
         <v>100</v>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="D80" t="n">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="E80" t="n">
-        <v>87</v>
+        <v>1120</v>
       </c>
       <c r="F80" t="n">
-        <v>174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="81">
@@ -2757,19 +3201,19 @@
         <v>101</v>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D81" t="n">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="E81" t="n">
-        <v>159</v>
+        <v>848</v>
       </c>
       <c r="F81" t="n">
-        <v>161</v>
+        <v>931</v>
       </c>
     </row>
     <row r="82">
@@ -2777,19 +3221,19 @@
         <v>102</v>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44652</v>
+        <v>44663</v>
       </c>
       <c r="C82" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D82" t="n">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="E82" t="n">
-        <v>83</v>
+        <v>944</v>
       </c>
       <c r="F82" t="n">
-        <v>166</v>
+        <v>986</v>
       </c>
     </row>
     <row r="83">
@@ -2797,19 +3241,19 @@
         <v>103</v>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44651</v>
+        <v>44663</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D83" t="n">
-        <v>180</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>2227</v>
+        <v>36</v>
       </c>
       <c r="F83" t="n">
-        <v>2407</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84">
@@ -2817,19 +3261,19 @@
         <v>104</v>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44651</v>
+        <v>44663</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="E84" t="n">
-        <v>114</v>
+        <v>635</v>
       </c>
       <c r="F84" t="n">
-        <v>121</v>
+        <v>712</v>
       </c>
     </row>
     <row r="85">
@@ -2837,19 +3281,19 @@
         <v>105</v>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44651</v>
+        <v>44663</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D85" t="n">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="E85" t="n">
-        <v>160</v>
+        <v>463</v>
       </c>
       <c r="F85" t="n">
-        <v>164</v>
+        <v>524</v>
       </c>
     </row>
     <row r="86">
@@ -2857,19 +3301,19 @@
         <v>106</v>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44651</v>
+        <v>44663</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F86" t="n">
-        <v>226</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87">
@@ -2877,19 +3321,19 @@
         <v>107</v>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44651</v>
+        <v>44663</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D87" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E87" t="n">
-        <v>213</v>
+        <v>57</v>
       </c>
       <c r="F87" t="n">
-        <v>256</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
@@ -2897,19 +3341,19 @@
         <v>108</v>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>493</v>
       </c>
       <c r="E88" t="n">
-        <v>9</v>
+        <v>7813</v>
       </c>
       <c r="F88" t="n">
-        <v>15</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="89">
@@ -2917,19 +3361,19 @@
         <v>109</v>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D89" t="n">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="E89" t="n">
-        <v>120</v>
+        <v>2106</v>
       </c>
       <c r="F89" t="n">
-        <v>128</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="90">
@@ -2937,19 +3381,19 @@
         <v>110</v>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C90" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E90" t="n">
-        <v>169</v>
+        <v>532</v>
       </c>
       <c r="F90" t="n">
-        <v>174</v>
+        <v>552</v>
       </c>
     </row>
     <row r="91">
@@ -2957,19 +3401,19 @@
         <v>111</v>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C91" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D91" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="E91" t="n">
-        <v>13</v>
+        <v>1723</v>
       </c>
       <c r="F91" t="n">
-        <v>17</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="92">
@@ -2977,19 +3421,19 @@
         <v>112</v>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C92" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" t="n">
         <v>25</v>
       </c>
-      <c r="D92" t="n">
-        <v>59</v>
-      </c>
       <c r="E92" t="n">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="F92" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="93">
@@ -2997,19 +3441,19 @@
         <v>113</v>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D93" t="n">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="E93" t="n">
-        <v>47</v>
+        <v>1841</v>
       </c>
       <c r="F93" t="n">
-        <v>54</v>
+        <v>1878</v>
       </c>
     </row>
     <row r="94">
@@ -3017,19 +3461,19 @@
         <v>114</v>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C94" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D94" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E94" t="n">
-        <v>39</v>
+        <v>1350</v>
       </c>
       <c r="F94" t="n">
-        <v>42</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="95">
@@ -3037,19 +3481,19 @@
         <v>115</v>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D95" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E95" t="n">
-        <v>94</v>
+        <v>1390</v>
       </c>
       <c r="F95" t="n">
-        <v>95</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="96">
@@ -3057,19 +3501,19 @@
         <v>116</v>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C96" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="E96" t="n">
-        <v>178</v>
+        <v>977</v>
       </c>
       <c r="F96" t="n">
-        <v>183</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="97">
@@ -3077,19 +3521,19 @@
         <v>117</v>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44651</v>
+        <v>44662</v>
       </c>
       <c r="C97" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="E97" t="n">
-        <v>43</v>
+        <v>2939</v>
       </c>
       <c r="F97" t="n">
-        <v>44</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="98">
@@ -3097,19 +3541,19 @@
         <v>118</v>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="C98" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D98" t="n">
-        <v>249</v>
+        <v>43</v>
       </c>
       <c r="E98" t="n">
-        <v>1958</v>
+        <v>165</v>
       </c>
       <c r="F98" t="n">
-        <v>2207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
@@ -3117,19 +3561,19 @@
         <v>119</v>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E99" t="n">
-        <v>345</v>
+        <v>35</v>
       </c>
       <c r="F99" t="n">
-        <v>361</v>
+        <v>38</v>
       </c>
     </row>
     <row r="100">
@@ -3137,19 +3581,19 @@
         <v>120</v>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="C100" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>670</v>
       </c>
       <c r="E100" t="n">
-        <v>94</v>
+        <v>670</v>
       </c>
       <c r="F100" t="n">
-        <v>102</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="101">
@@ -3157,19 +3601,19 @@
         <v>121</v>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D101" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E101" t="n">
-        <v>389</v>
+        <v>324</v>
       </c>
       <c r="F101" t="n">
-        <v>404</v>
+        <v>331</v>
       </c>
     </row>
     <row r="102">
@@ -3177,19 +3621,19 @@
         <v>122</v>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D102" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E102" t="n">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="F102" t="n">
-        <v>128</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103">
@@ -3197,19 +3641,19 @@
         <v>123</v>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44650</v>
+        <v>44662</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D103" t="n">
         <v>6</v>
       </c>
       <c r="E103" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -3217,19 +3661,19 @@
         <v>124</v>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C104" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D104" t="n">
-        <v>1</v>
+        <v>212</v>
       </c>
       <c r="E104" t="n">
-        <v>83</v>
+        <v>6520</v>
       </c>
       <c r="F104" t="n">
-        <v>84</v>
+        <v>6732</v>
       </c>
     </row>
     <row r="105">
@@ -3237,19 +3681,19 @@
         <v>125</v>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C105" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E105" t="n">
-        <v>97</v>
+        <v>1725</v>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="106">
@@ -3257,19 +3701,19 @@
         <v>126</v>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C106" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="E106" t="n">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="F106" t="n">
-        <v>504</v>
+        <v>603</v>
       </c>
     </row>
     <row r="107">
@@ -3277,19 +3721,19 @@
         <v>127</v>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C107" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D107" t="n">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E107" t="n">
-        <v>761</v>
+        <v>3157</v>
       </c>
       <c r="F107" t="n">
-        <v>780</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="108">
@@ -3297,19 +3741,19 @@
         <v>128</v>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D108" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E108" t="n">
-        <v>149</v>
+        <v>382</v>
       </c>
       <c r="F108" t="n">
-        <v>158</v>
+        <v>387</v>
       </c>
     </row>
     <row r="109">
@@ -3317,19 +3761,19 @@
         <v>129</v>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D109" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E109" t="n">
-        <v>33</v>
+        <v>994</v>
       </c>
       <c r="F109" t="n">
-        <v>66</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="110">
@@ -3337,19 +3781,19 @@
         <v>130</v>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D110" t="n">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="E110" t="n">
-        <v>238</v>
+        <v>1232</v>
       </c>
       <c r="F110" t="n">
-        <v>476</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="111">
@@ -3357,19 +3801,19 @@
         <v>131</v>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D111" t="n">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="E111" t="n">
-        <v>72</v>
+        <v>1816</v>
       </c>
       <c r="F111" t="n">
-        <v>77</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="112">
@@ -3377,19 +3821,19 @@
         <v>132</v>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C112" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D112" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E112" t="n">
-        <v>123</v>
+        <v>1818</v>
       </c>
       <c r="F112" t="n">
-        <v>130</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="113">
@@ -3397,19 +3841,19 @@
         <v>133</v>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44650</v>
+        <v>44661</v>
       </c>
       <c r="C113" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D113" t="n">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="E113" t="n">
-        <v>193</v>
+        <v>3087</v>
       </c>
       <c r="F113" t="n">
-        <v>386</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="114">
@@ -3417,19 +3861,19 @@
         <v>134</v>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="C114" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="D114" t="n">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="E114" t="n">
-        <v>2014</v>
+        <v>1334</v>
       </c>
       <c r="F114" t="n">
-        <v>2183</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="115">
@@ -3437,19 +3881,19 @@
         <v>135</v>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E115" t="n">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="F115" t="n">
-        <v>110</v>
+        <v>57</v>
       </c>
     </row>
     <row r="116">
@@ -3457,19 +3901,19 @@
         <v>136</v>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="C116" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D116" t="n">
-        <v>8</v>
+        <v>1534</v>
       </c>
       <c r="E116" t="n">
-        <v>167</v>
+        <v>1534</v>
       </c>
       <c r="F116" t="n">
-        <v>175</v>
+        <v>3068</v>
       </c>
     </row>
     <row r="117">
@@ -3477,19 +3921,19 @@
         <v>137</v>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="C117" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D117" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>1066</v>
+        <v>876</v>
       </c>
       <c r="F117" t="n">
-        <v>1100</v>
+        <v>877</v>
       </c>
     </row>
     <row r="118">
@@ -3497,19 +3941,19 @@
         <v>138</v>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E118" t="n">
         <v>27</v>
       </c>
       <c r="F118" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="119">
@@ -3517,19 +3961,19 @@
         <v>139</v>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44649</v>
+        <v>44661</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3537,19 +3981,19 @@
         <v>140</v>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C120" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="E120" t="n">
-        <v>66</v>
+        <v>447</v>
       </c>
       <c r="F120" t="n">
-        <v>73</v>
+        <v>548</v>
       </c>
     </row>
     <row r="121">
@@ -3557,19 +4001,19 @@
         <v>141</v>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D121" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E121" t="n">
-        <v>96</v>
+        <v>577</v>
       </c>
       <c r="F121" t="n">
-        <v>99</v>
+        <v>602</v>
       </c>
     </row>
     <row r="122">
@@ -3577,19 +4021,19 @@
         <v>142</v>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C122" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D122" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E122" t="n">
-        <v>330</v>
+        <v>1106</v>
       </c>
       <c r="F122" t="n">
-        <v>363</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="123">
@@ -3597,19 +4041,19 @@
         <v>143</v>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C123" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D123" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E123" t="n">
-        <v>958</v>
+        <v>731</v>
       </c>
       <c r="F123" t="n">
-        <v>987</v>
+        <v>757</v>
       </c>
     </row>
     <row r="124">
@@ -3617,19 +4061,19 @@
         <v>144</v>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D124" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="E124" t="n">
-        <v>246</v>
+        <v>629</v>
       </c>
       <c r="F124" t="n">
-        <v>255</v>
+        <v>653</v>
       </c>
     </row>
     <row r="125">
@@ -3637,19 +4081,19 @@
         <v>145</v>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C125" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D125" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>24</v>
+        <v>337</v>
       </c>
       <c r="F125" t="n">
-        <v>26</v>
+        <v>349</v>
       </c>
     </row>
     <row r="126">
@@ -3657,19 +4101,19 @@
         <v>146</v>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D126" t="n">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="E126" t="n">
-        <v>213</v>
+        <v>1048</v>
       </c>
       <c r="F126" t="n">
-        <v>426</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="127">
@@ -3677,19 +4121,19 @@
         <v>147</v>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D127" t="n">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="E127" t="n">
-        <v>87</v>
+        <v>2225</v>
       </c>
       <c r="F127" t="n">
-        <v>174</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="128">
@@ -3697,19 +4141,19 @@
         <v>148</v>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C128" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D128" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="E128" t="n">
-        <v>95</v>
+        <v>4536</v>
       </c>
       <c r="F128" t="n">
-        <v>96</v>
+        <v>4624</v>
       </c>
     </row>
     <row r="129">
@@ -3717,19 +4161,19 @@
         <v>149</v>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44649</v>
+        <v>44660</v>
       </c>
       <c r="C129" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E129" t="n">
-        <v>54</v>
+        <v>348</v>
       </c>
       <c r="F129" t="n">
-        <v>55</v>
+        <v>369</v>
       </c>
     </row>
     <row r="130">
@@ -3737,19 +4181,19 @@
         <v>150</v>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44648</v>
+        <v>44660</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D130" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E130" t="n">
-        <v>2467</v>
+        <v>24</v>
       </c>
       <c r="F130" t="n">
-        <v>2506</v>
+        <v>68</v>
       </c>
     </row>
     <row r="131">
@@ -3757,19 +4201,19 @@
         <v>151</v>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44648</v>
+        <v>44660</v>
       </c>
       <c r="C131" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D131" t="n">
         <v>10</v>
       </c>
       <c r="E131" t="n">
-        <v>94</v>
+        <v>490</v>
       </c>
       <c r="F131" t="n">
-        <v>104</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132">
@@ -3777,19 +4221,19 @@
         <v>152</v>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44648</v>
+        <v>44660</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D132" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E132" t="n">
-        <v>108</v>
+        <v>548</v>
       </c>
       <c r="F132" t="n">
-        <v>115</v>
+        <v>557</v>
       </c>
     </row>
     <row r="133">
@@ -3797,19 +4241,19 @@
         <v>153</v>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44648</v>
+        <v>44660</v>
       </c>
       <c r="C133" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D133" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E133" t="n">
-        <v>303</v>
+        <v>111</v>
       </c>
       <c r="F133" t="n">
-        <v>311</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134">
@@ -3817,19 +4261,19 @@
         <v>154</v>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44648</v>
+        <v>44660</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D134" t="n">
-        <v>115</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="F134" t="n">
-        <v>230</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135">
@@ -3837,19 +4281,19 @@
         <v>155</v>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
       </c>
       <c r="D135" t="n">
-        <v>4</v>
+        <v>348</v>
       </c>
       <c r="E135" t="n">
-        <v>1425</v>
+        <v>6938</v>
       </c>
       <c r="F135" t="n">
-        <v>1429</v>
+        <v>7286</v>
       </c>
     </row>
     <row r="136">
@@ -3857,19 +4301,19 @@
         <v>156</v>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C136" t="s">
         <v>9</v>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E136" t="n">
-        <v>55</v>
+        <v>2566</v>
       </c>
       <c r="F136" t="n">
-        <v>56</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="137">
@@ -3877,19 +4321,19 @@
         <v>157</v>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C137" t="s">
         <v>11</v>
       </c>
       <c r="D137" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="E137" t="n">
-        <v>65</v>
+        <v>623</v>
       </c>
       <c r="F137" t="n">
-        <v>70</v>
+        <v>665</v>
       </c>
     </row>
     <row r="138">
@@ -3897,19 +4341,19 @@
         <v>158</v>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C138" t="s">
         <v>13</v>
       </c>
       <c r="D138" t="n">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="E138" t="n">
-        <v>271</v>
+        <v>1515</v>
       </c>
       <c r="F138" t="n">
-        <v>277</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="139">
@@ -3917,19 +4361,19 @@
         <v>159</v>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C139" t="s">
         <v>15</v>
       </c>
       <c r="D139" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E139" t="n">
-        <v>45</v>
+        <v>594</v>
       </c>
       <c r="F139" t="n">
-        <v>90</v>
+        <v>614</v>
       </c>
     </row>
     <row r="140">
@@ -3937,19 +4381,19 @@
         <v>160</v>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C140" t="s">
         <v>17</v>
       </c>
       <c r="D140" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E140" t="n">
-        <v>66</v>
+        <v>1073</v>
       </c>
       <c r="F140" t="n">
-        <v>70</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="141">
@@ -3957,19 +4401,19 @@
         <v>161</v>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C141" t="s">
         <v>19</v>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E141" t="n">
-        <v>26</v>
+        <v>360</v>
       </c>
       <c r="F141" t="n">
-        <v>27</v>
+        <v>378</v>
       </c>
     </row>
     <row r="142">
@@ -3977,19 +4421,19 @@
         <v>162</v>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
       </c>
       <c r="D142" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="E142" t="n">
-        <v>35</v>
+        <v>689</v>
       </c>
       <c r="F142" t="n">
-        <v>70</v>
+        <v>701</v>
       </c>
     </row>
     <row r="143">
@@ -3997,19 +4441,19 @@
         <v>163</v>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C143" t="s">
         <v>23</v>
       </c>
       <c r="D143" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E143" t="n">
-        <v>89</v>
+        <v>2792</v>
       </c>
       <c r="F143" t="n">
-        <v>94</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="144">
@@ -4017,19 +4461,19 @@
         <v>164</v>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C144" t="s">
         <v>25</v>
       </c>
       <c r="D144" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E144" t="n">
-        <v>599</v>
+        <v>2792</v>
       </c>
       <c r="F144" t="n">
-        <v>619</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="145">
@@ -4037,19 +4481,19 @@
         <v>165</v>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C145" t="s">
         <v>27</v>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="146">
@@ -4057,19 +4501,19 @@
         <v>166</v>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C146" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="147">
@@ -4077,19 +4521,19 @@
         <v>167</v>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>663</v>
       </c>
       <c r="E147" t="n">
-        <v>189</v>
+        <v>663</v>
       </c>
       <c r="F147" t="n">
-        <v>190</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="148">
@@ -4097,19 +4541,19 @@
         <v>168</v>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D148" t="n">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="E148" t="n">
-        <v>43</v>
+        <v>318</v>
       </c>
       <c r="F148" t="n">
-        <v>86</v>
+        <v>342</v>
       </c>
     </row>
     <row r="149">
@@ -4117,19 +4561,19 @@
         <v>169</v>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C149" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D149" t="n">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="E149" t="n">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="F149" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="150">
@@ -4137,19 +4581,19 @@
         <v>170</v>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44647</v>
+        <v>44659</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D150" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="E150" t="n">
-        <v>236</v>
+        <v>167</v>
       </c>
       <c r="F150" t="n">
-        <v>472</v>
+        <v>334</v>
       </c>
     </row>
     <row r="151">
@@ -4157,19 +4601,19 @@
         <v>171</v>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C151" t="s">
         <v>7</v>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>307</v>
       </c>
       <c r="E151" t="n">
-        <v>322</v>
+        <v>8743</v>
       </c>
       <c r="F151" t="n">
-        <v>323</v>
+        <v>9050</v>
       </c>
     </row>
     <row r="152">
@@ -4177,19 +4621,19 @@
         <v>172</v>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C152" t="s">
         <v>9</v>
       </c>
       <c r="D152" t="n">
-        <v>160</v>
+        <v>14</v>
       </c>
       <c r="E152" t="n">
-        <v>160</v>
+        <v>1366</v>
       </c>
       <c r="F152" t="n">
-        <v>320</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="153">
@@ -4197,19 +4641,19 @@
         <v>173</v>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C153" t="s">
         <v>11</v>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="E153" t="n">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="F153" t="n">
-        <v>108</v>
+        <v>381</v>
       </c>
     </row>
     <row r="154">
@@ -4217,19 +4661,19 @@
         <v>174</v>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C154" t="s">
         <v>13</v>
       </c>
       <c r="D154" t="n">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="E154" t="n">
-        <v>326</v>
+        <v>2033</v>
       </c>
       <c r="F154" t="n">
-        <v>331</v>
+        <v>2076</v>
       </c>
     </row>
     <row r="155">
@@ -4237,19 +4681,19 @@
         <v>175</v>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C155" t="s">
         <v>15</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E155" t="n">
-        <v>27</v>
+        <v>823</v>
       </c>
       <c r="F155" t="n">
-        <v>29</v>
+        <v>852</v>
       </c>
     </row>
     <row r="156">
@@ -4257,19 +4701,19 @@
         <v>176</v>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C156" t="s">
         <v>17</v>
       </c>
       <c r="D156" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E156" t="n">
-        <v>68</v>
+        <v>946</v>
       </c>
       <c r="F156" t="n">
-        <v>69</v>
+        <v>957</v>
       </c>
     </row>
     <row r="157">
@@ -4277,19 +4721,19 @@
         <v>177</v>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C157" t="s">
         <v>19</v>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E157" t="n">
-        <v>49</v>
+        <v>568</v>
       </c>
       <c r="F157" t="n">
-        <v>50</v>
+        <v>594</v>
       </c>
     </row>
     <row r="158">
@@ -4297,19 +4741,19 @@
         <v>178</v>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C158" t="s">
         <v>21</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E158" t="n">
-        <v>21</v>
+        <v>572</v>
       </c>
       <c r="F158" t="n">
-        <v>23</v>
+        <v>601</v>
       </c>
     </row>
     <row r="159">
@@ -4317,19 +4761,19 @@
         <v>179</v>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C159" t="s">
         <v>23</v>
       </c>
       <c r="D159" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E159" t="n">
-        <v>147</v>
+        <v>405</v>
       </c>
       <c r="F159" t="n">
-        <v>153</v>
+        <v>414</v>
       </c>
     </row>
     <row r="160">
@@ -4337,19 +4781,19 @@
         <v>180</v>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C160" t="s">
         <v>25</v>
       </c>
       <c r="D160" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="E160" t="n">
-        <v>957</v>
+        <v>2162</v>
       </c>
       <c r="F160" t="n">
-        <v>972</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="161">
@@ -4357,19 +4801,19 @@
         <v>181</v>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C161" t="s">
         <v>27</v>
       </c>
       <c r="D161" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
     </row>
     <row r="162">
@@ -4377,19 +4821,19 @@
         <v>182</v>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C162" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
@@ -4397,19 +4841,19 @@
         <v>183</v>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D163" t="n">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="E163" t="n">
-        <v>79</v>
+        <v>644</v>
       </c>
       <c r="F163" t="n">
-        <v>158</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="164">
@@ -4417,19 +4861,19 @@
         <v>184</v>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D164" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="E164" t="n">
-        <v>22</v>
+        <v>489</v>
       </c>
       <c r="F164" t="n">
-        <v>44</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165">
@@ -4437,19 +4881,19 @@
         <v>185</v>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C165" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D165" t="n">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="E165" t="n">
-        <v>84</v>
+        <v>61</v>
       </c>
       <c r="F165" t="n">
-        <v>168</v>
+        <v>92</v>
       </c>
     </row>
     <row r="166">
@@ -4457,19 +4901,19 @@
         <v>186</v>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44646</v>
+        <v>44658</v>
       </c>
       <c r="C166" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D166" t="n">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="E166" t="n">
-        <v>27</v>
+        <v>260</v>
       </c>
       <c r="F166" t="n">
-        <v>54</v>
+        <v>520</v>
       </c>
     </row>
     <row r="167">
@@ -4477,19 +4921,19 @@
         <v>187</v>
       </c>
       <c r="B167" s="1" t="n">
-        <v>44645</v>
+        <v>44657</v>
       </c>
       <c r="C167" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="E167" t="n">
-        <v>2</v>
+        <v>8306</v>
       </c>
       <c r="F167" t="n">
-        <v>4</v>
+        <v>8457</v>
       </c>
     </row>
     <row r="168">
@@ -4497,19 +4941,19 @@
         <v>188</v>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44645</v>
+        <v>44657</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D168" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>1035</v>
       </c>
       <c r="F168" t="n">
-        <v>8</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="169">
@@ -4517,19 +4961,19 @@
         <v>189</v>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44645</v>
+        <v>44657</v>
       </c>
       <c r="C169" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D169" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E169" t="n">
-        <v>4</v>
+        <v>518</v>
       </c>
       <c r="F169" t="n">
-        <v>8</v>
+        <v>545</v>
       </c>
     </row>
     <row r="170">
@@ -4537,19 +4981,19 @@
         <v>190</v>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44645</v>
+        <v>44657</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D170" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E170" t="n">
-        <v>13</v>
+        <v>1088</v>
       </c>
       <c r="F170" t="n">
-        <v>26</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="171">
@@ -4557,19 +5001,19 @@
         <v>191</v>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44645</v>
+        <v>44657</v>
       </c>
       <c r="C171" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="D171" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E171" t="n">
-        <v>41</v>
+        <v>319</v>
       </c>
       <c r="F171" t="n">
-        <v>82</v>
+        <v>350</v>
       </c>
     </row>
     <row r="172">
@@ -4577,19 +5021,19 @@
         <v>192</v>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D172" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E172" t="n">
-        <v>181</v>
+        <v>1006</v>
       </c>
       <c r="F172" t="n">
-        <v>193</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="173">
@@ -4597,19 +5041,19 @@
         <v>193</v>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D173" t="n">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>102</v>
+        <v>667</v>
       </c>
       <c r="F173" t="n">
-        <v>204</v>
+        <v>668</v>
       </c>
     </row>
     <row r="174">
@@ -4617,19 +5061,19 @@
         <v>194</v>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C174" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D174" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E174" t="n">
-        <v>62</v>
+        <v>618</v>
       </c>
       <c r="F174" t="n">
-        <v>70</v>
+        <v>630</v>
       </c>
     </row>
     <row r="175">
@@ -4637,19 +5081,19 @@
         <v>195</v>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C175" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E175" t="n">
-        <v>165</v>
+        <v>651</v>
       </c>
       <c r="F175" t="n">
-        <v>167</v>
+        <v>660</v>
       </c>
     </row>
     <row r="176">
@@ -4657,19 +5101,19 @@
         <v>196</v>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C176" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D176" t="n">
-        <v>59</v>
+        <v>21</v>
       </c>
       <c r="E176" t="n">
-        <v>59</v>
+        <v>2388</v>
       </c>
       <c r="F176" t="n">
-        <v>118</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="177">
@@ -4677,19 +5121,19 @@
         <v>197</v>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C177" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E177" t="n">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F177" t="n">
-        <v>38</v>
+        <v>79</v>
       </c>
     </row>
     <row r="178">
@@ -4697,19 +5141,19 @@
         <v>198</v>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C178" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D178" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E178" t="n">
-        <v>29</v>
+        <v>779</v>
       </c>
       <c r="F178" t="n">
-        <v>58</v>
+        <v>781</v>
       </c>
     </row>
     <row r="179">
@@ -4717,19 +5161,19 @@
         <v>199</v>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C179" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E179" t="n">
-        <v>20</v>
+        <v>466</v>
       </c>
       <c r="F179" t="n">
-        <v>21</v>
+        <v>470</v>
       </c>
     </row>
     <row r="180">
@@ -4737,19 +5181,19 @@
         <v>200</v>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C180" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D180" t="n">
-        <v>3</v>
+        <v>278</v>
       </c>
       <c r="E180" t="n">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="F180" t="n">
-        <v>87</v>
+        <v>556</v>
       </c>
     </row>
     <row r="181">
@@ -4757,19 +5201,19 @@
         <v>201</v>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44644</v>
+        <v>44657</v>
       </c>
       <c r="C181" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D181" t="n">
-        <v>490</v>
+        <v>63</v>
       </c>
       <c r="E181" t="n">
-        <v>490</v>
+        <v>63</v>
       </c>
       <c r="F181" t="n">
-        <v>980</v>
+        <v>126</v>
       </c>
     </row>
     <row r="182">
@@ -4777,19 +5221,19 @@
         <v>202</v>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="C182" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="E182" t="n">
-        <v>129</v>
+        <v>7983</v>
       </c>
       <c r="F182" t="n">
-        <v>130</v>
+        <v>8145</v>
       </c>
     </row>
     <row r="183">
@@ -4797,19 +5241,19 @@
         <v>203</v>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="C183" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>642</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>658</v>
       </c>
     </row>
     <row r="184">
@@ -4817,19 +5261,19 @@
         <v>204</v>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D184" t="n">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="E184" t="n">
-        <v>92</v>
+        <v>290</v>
       </c>
       <c r="F184" t="n">
-        <v>184</v>
+        <v>302</v>
       </c>
     </row>
     <row r="185">
@@ -4837,19 +5281,19 @@
         <v>205</v>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D185" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E185" t="n">
-        <v>13</v>
+        <v>897</v>
       </c>
       <c r="F185" t="n">
-        <v>26</v>
+        <v>920</v>
       </c>
     </row>
     <row r="186">
@@ -4857,19 +5301,19 @@
         <v>206</v>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="C186" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D186" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="E186" t="n">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="F186" t="n">
-        <v>48</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187">
@@ -4877,19 +5321,19 @@
         <v>207</v>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44644</v>
+        <v>44656</v>
       </c>
       <c r="C187" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D187" t="n">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="E187" t="n">
-        <v>82</v>
+        <v>476</v>
       </c>
       <c r="F187" t="n">
-        <v>164</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188">
@@ -4897,19 +5341,19 @@
         <v>208</v>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C188" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D188" t="n">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="E188" t="n">
-        <v>218</v>
+        <v>402</v>
       </c>
       <c r="F188" t="n">
-        <v>436</v>
+        <v>410</v>
       </c>
     </row>
     <row r="189">
@@ -4917,19 +5361,19 @@
         <v>209</v>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D189" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E189" t="n">
-        <v>20</v>
+        <v>612</v>
       </c>
       <c r="F189" t="n">
-        <v>40</v>
+        <v>623</v>
       </c>
     </row>
     <row r="190">
@@ -4937,19 +5381,19 @@
         <v>210</v>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C190" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D190" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>48</v>
+        <v>547</v>
       </c>
       <c r="F190" t="n">
-        <v>96</v>
+        <v>554</v>
       </c>
     </row>
     <row r="191">
@@ -4957,19 +5401,19 @@
         <v>211</v>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D191" t="n">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="E191" t="n">
-        <v>106</v>
+        <v>2914</v>
       </c>
       <c r="F191" t="n">
-        <v>212</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="192">
@@ -4977,19 +5421,19 @@
         <v>212</v>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C192" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D192" t="n">
         <v>11</v>
       </c>
       <c r="E192" t="n">
-        <v>11</v>
+        <v>470</v>
       </c>
       <c r="F192" t="n">
-        <v>22</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193">
@@ -4997,19 +5441,19 @@
         <v>213</v>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C193" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D193" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E193" t="n">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F193" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="194">
@@ -5017,19 +5461,19 @@
         <v>214</v>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C194" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D194" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E194" t="n">
-        <v>26</v>
+        <v>782</v>
       </c>
       <c r="F194" t="n">
-        <v>52</v>
+        <v>796</v>
       </c>
     </row>
     <row r="195">
@@ -5037,19 +5481,19 @@
         <v>215</v>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D195" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E195" t="n">
-        <v>11</v>
+        <v>378</v>
       </c>
       <c r="F195" t="n">
-        <v>22</v>
+        <v>384</v>
       </c>
     </row>
     <row r="196">
@@ -5057,19 +5501,19 @@
         <v>216</v>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C196" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D196" t="n">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="E196" t="n">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="F196" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="197">
@@ -5077,19 +5521,19 @@
         <v>217</v>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44643</v>
+        <v>44656</v>
       </c>
       <c r="C197" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="D197" t="n">
         <v>2</v>
       </c>
       <c r="E197" t="n">
-        <v>254</v>
+        <v>77</v>
       </c>
       <c r="F197" t="n">
-        <v>256</v>
+        <v>79</v>
       </c>
     </row>
     <row r="198">
@@ -5097,19 +5541,19 @@
         <v>218</v>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44643</v>
+        <v>44655</v>
       </c>
       <c r="C198" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="D198" t="n">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="E198" t="n">
-        <v>68</v>
+        <v>6866</v>
       </c>
       <c r="F198" t="n">
-        <v>69</v>
+        <v>7071</v>
       </c>
     </row>
     <row r="199">
@@ -5117,19 +5561,19 @@
         <v>219</v>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44643</v>
+        <v>44655</v>
       </c>
       <c r="C199" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D199" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E199" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="F199" t="n">
-        <v>0</v>
+        <v>970</v>
       </c>
     </row>
     <row r="200">
@@ -5137,19 +5581,19 @@
         <v>220</v>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44643</v>
+        <v>44655</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="E200" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="F200" t="n">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="201">
@@ -5157,19 +5601,19 @@
         <v>221</v>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44643</v>
+        <v>44655</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D201" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E201" t="n">
-        <v>10</v>
+        <v>1221</v>
       </c>
       <c r="F201" t="n">
-        <v>20</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="202">
@@ -5177,19 +5621,19 @@
         <v>222</v>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44643</v>
+        <v>44655</v>
       </c>
       <c r="C202" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F202" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="203">
@@ -5197,19 +5641,19 @@
         <v>223</v>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44643</v>
+        <v>44655</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D203" t="n">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E203" t="n">
-        <v>54</v>
+        <v>250</v>
       </c>
       <c r="F203" t="n">
-        <v>108</v>
+        <v>254</v>
       </c>
     </row>
     <row r="204">
@@ -5217,19 +5661,19 @@
         <v>224</v>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44642</v>
+        <v>44655</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D204" t="n">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="E204" t="n">
-        <v>59</v>
+        <v>603</v>
       </c>
       <c r="F204" t="n">
-        <v>118</v>
+        <v>608</v>
       </c>
     </row>
     <row r="205">
@@ -5237,19 +5681,19 @@
         <v>225</v>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44642</v>
+        <v>44655</v>
       </c>
       <c r="C205" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D205" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E205" t="n">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="F205" t="n">
-        <v>38</v>
+        <v>220</v>
       </c>
     </row>
     <row r="206">
@@ -5257,19 +5701,19 @@
         <v>226</v>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44642</v>
+        <v>44655</v>
       </c>
       <c r="C206" t="s">
         <v>23</v>
       </c>
       <c r="D206" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>16</v>
+        <v>264</v>
       </c>
       <c r="F206" t="n">
-        <v>32</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207">
@@ -5277,19 +5721,19 @@
         <v>227</v>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44642</v>
+        <v>44655</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D207" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="E207" t="n">
-        <v>20</v>
+        <v>1370</v>
       </c>
       <c r="F207" t="n">
-        <v>40</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="208">
@@ -5297,19 +5741,19 @@
         <v>228</v>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44642</v>
+        <v>44655</v>
       </c>
       <c r="C208" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D208" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E208" t="n">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="F208" t="n">
-        <v>38</v>
+        <v>237</v>
       </c>
     </row>
     <row r="209">
@@ -5317,19 +5761,19 @@
         <v>229</v>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="C209" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D209" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E209" t="n">
-        <v>163</v>
+        <v>51</v>
       </c>
       <c r="F209" t="n">
-        <v>169</v>
+        <v>52</v>
       </c>
     </row>
     <row r="210">
@@ -5337,19 +5781,19 @@
         <v>230</v>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="C210" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D210" t="n">
-        <v>49</v>
+        <v>553</v>
       </c>
       <c r="E210" t="n">
-        <v>49</v>
+        <v>553</v>
       </c>
       <c r="F210" t="n">
-        <v>98</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="211">
@@ -5357,19 +5801,19 @@
         <v>231</v>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="C211" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D211" t="n">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="F211" t="n">
-        <v>88</v>
+        <v>314</v>
       </c>
     </row>
     <row r="212">
@@ -5377,19 +5821,19 @@
         <v>232</v>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="C212" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D212" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E212" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="F212" t="n">
-        <v>130</v>
+        <v>64</v>
       </c>
     </row>
     <row r="213">
@@ -5397,19 +5841,19 @@
         <v>233</v>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44641</v>
+        <v>44655</v>
       </c>
       <c r="C213" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="D213" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E213" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="F213" t="n">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="214">
@@ -5417,19 +5861,19 @@
         <v>234</v>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44641</v>
+        <v>44654</v>
       </c>
       <c r="C214" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E214" t="n">
-        <v>30</v>
+        <v>810</v>
       </c>
       <c r="F214" t="n">
-        <v>31</v>
+        <v>824</v>
       </c>
     </row>
     <row r="215">
@@ -5437,19 +5881,19 @@
         <v>235</v>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44641</v>
+        <v>44654</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D215" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E215" t="n">
-        <v>23</v>
+        <v>309</v>
       </c>
       <c r="F215" t="n">
-        <v>46</v>
+        <v>338</v>
       </c>
     </row>
     <row r="216">
@@ -5457,19 +5901,19 @@
         <v>236</v>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44641</v>
+        <v>44654</v>
       </c>
       <c r="C216" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D216" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E216" t="n">
-        <v>10</v>
+        <v>115</v>
       </c>
       <c r="F216" t="n">
-        <v>20</v>
+        <v>119</v>
       </c>
     </row>
     <row r="217">
@@ -5477,19 +5921,19 @@
         <v>237</v>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44641</v>
+        <v>44653</v>
       </c>
       <c r="C217" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D217" t="n">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="E217" t="n">
-        <v>67</v>
+        <v>632</v>
       </c>
       <c r="F217" t="n">
-        <v>134</v>
+        <v>659</v>
       </c>
     </row>
     <row r="218">
@@ -5497,19 +5941,19 @@
         <v>238</v>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44641</v>
+        <v>44653</v>
       </c>
       <c r="C218" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="D218" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E218" t="n">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="F218" t="n">
-        <v>122</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219">
@@ -5517,19 +5961,19 @@
         <v>239</v>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44641</v>
+        <v>44653</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D219" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E219" t="n">
-        <v>38</v>
+        <v>998</v>
       </c>
       <c r="F219" t="n">
-        <v>76</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="220">
@@ -5537,19 +5981,19 @@
         <v>240</v>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44641</v>
+        <v>44653</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D220" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E220" t="n">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="221">
@@ -5557,19 +6001,19 @@
         <v>241</v>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44641</v>
+        <v>44653</v>
       </c>
       <c r="C221" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E221" t="n">
-        <v>21</v>
+        <v>349</v>
       </c>
       <c r="F221" t="n">
-        <v>22</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222">
@@ -5577,19 +6021,19 @@
         <v>242</v>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E222" t="n">
-        <v>219</v>
+        <v>312</v>
       </c>
       <c r="F222" t="n">
-        <v>220</v>
+        <v>342</v>
       </c>
     </row>
     <row r="223">
@@ -5597,19 +6041,19 @@
         <v>243</v>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C223" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="E223" t="n">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="F223" t="n">
-        <v>42</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224">
@@ -5617,19 +6061,19 @@
         <v>244</v>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C224" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D224" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E224" t="n">
-        <v>32</v>
+        <v>450</v>
       </c>
       <c r="F224" t="n">
-        <v>64</v>
+        <v>485</v>
       </c>
     </row>
     <row r="225">
@@ -5637,19 +6081,19 @@
         <v>245</v>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C225" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E225" t="n">
-        <v>45</v>
+        <v>774</v>
       </c>
       <c r="F225" t="n">
-        <v>46</v>
+        <v>829</v>
       </c>
     </row>
     <row r="226">
@@ -5657,19 +6101,19 @@
         <v>246</v>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C226" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D226" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E226" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5677,19 +6121,19 @@
         <v>247</v>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C227" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="D227" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="E227" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="F227" t="n">
-        <v>36</v>
+        <v>120</v>
       </c>
     </row>
     <row r="228">
@@ -5697,19 +6141,19 @@
         <v>248</v>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C228" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D228" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E228" t="n">
-        <v>12</v>
+        <v>559</v>
       </c>
       <c r="F228" t="n">
-        <v>24</v>
+        <v>567</v>
       </c>
     </row>
     <row r="229">
@@ -5717,19 +6161,19 @@
         <v>249</v>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C229" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D229" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E229" t="n">
-        <v>8</v>
+        <v>228</v>
       </c>
       <c r="F229" t="n">
-        <v>16</v>
+        <v>231</v>
       </c>
     </row>
     <row r="230">
@@ -5737,19 +6181,19 @@
         <v>250</v>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C230" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D230" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E230" t="n">
-        <v>13</v>
+        <v>149</v>
       </c>
       <c r="F230" t="n">
-        <v>26</v>
+        <v>157</v>
       </c>
     </row>
     <row r="231">
@@ -5757,19 +6201,19 @@
         <v>251</v>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44640</v>
+        <v>44653</v>
       </c>
       <c r="C231" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E231" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="232">
@@ -5777,19 +6221,19 @@
         <v>252</v>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44640</v>
+        <v>44652</v>
       </c>
       <c r="C232" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D232" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E232" t="n">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="F232" t="n">
-        <v>22</v>
+        <v>260</v>
       </c>
     </row>
     <row r="233">
@@ -5797,19 +6241,19 @@
         <v>253</v>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44640</v>
+        <v>44652</v>
       </c>
       <c r="C233" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D233" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E233" t="n">
-        <v>9</v>
+        <v>178</v>
       </c>
       <c r="F233" t="n">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
     <row r="234">
@@ -5817,19 +6261,19 @@
         <v>254</v>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44640</v>
+        <v>44652</v>
       </c>
       <c r="C234" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D234" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E234" t="n">
-        <v>4</v>
+        <v>602</v>
       </c>
       <c r="F234" t="n">
-        <v>8</v>
+        <v>639</v>
       </c>
     </row>
     <row r="235">
@@ -5837,19 +6281,19 @@
         <v>255</v>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44640</v>
+        <v>44652</v>
       </c>
       <c r="C235" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D235" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E235" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="F235" t="n">
-        <v>26</v>
+        <v>74</v>
       </c>
     </row>
     <row r="236">
@@ -5857,19 +6301,19 @@
         <v>256</v>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C236" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D236" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E236" t="n">
-        <v>127</v>
+        <v>232</v>
       </c>
       <c r="F236" t="n">
-        <v>135</v>
+        <v>245</v>
       </c>
     </row>
     <row r="237">
@@ -5877,19 +6321,19 @@
         <v>257</v>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C237" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D237" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E237" t="n">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F237" t="n">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="238">
@@ -5897,19 +6341,19 @@
         <v>258</v>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C238" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" t="n">
         <v>11</v>
       </c>
-      <c r="D238" t="n">
-        <v>15</v>
-      </c>
       <c r="E238" t="n">
-        <v>15</v>
+        <v>123</v>
       </c>
       <c r="F238" t="n">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="239">
@@ -5917,19 +6361,19 @@
         <v>259</v>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C239" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D239" t="n">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E239" t="n">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="F239" t="n">
-        <v>122</v>
+        <v>45</v>
       </c>
     </row>
     <row r="240">
@@ -5937,19 +6381,19 @@
         <v>260</v>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C240" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D240" t="n">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E240" t="n">
-        <v>12</v>
+        <v>986</v>
       </c>
       <c r="F240" t="n">
-        <v>24</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="241">
@@ -5957,19 +6401,19 @@
         <v>261</v>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C241" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D241" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="E241" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -5977,19 +6421,19 @@
         <v>262</v>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C242" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D242" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E242" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F242" t="n">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="243">
@@ -5997,19 +6441,19 @@
         <v>263</v>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C243" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D243" t="n">
-        <v>2</v>
+        <v>474</v>
       </c>
       <c r="E243" t="n">
-        <v>79</v>
+        <v>474</v>
       </c>
       <c r="F243" t="n">
-        <v>81</v>
+        <v>948</v>
       </c>
     </row>
     <row r="244">
@@ -6017,19 +6461,19 @@
         <v>264</v>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C244" t="s">
         <v>31</v>
       </c>
       <c r="D244" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="E244" t="n">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="F244" t="n">
-        <v>32</v>
+        <v>174</v>
       </c>
     </row>
     <row r="245">
@@ -6037,19 +6481,19 @@
         <v>265</v>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44639</v>
+        <v>44652</v>
       </c>
       <c r="C245" t="s">
         <v>33</v>
       </c>
       <c r="D245" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E245" t="n">
-        <v>5</v>
+        <v>159</v>
       </c>
       <c r="F245" t="n">
-        <v>10</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246">
@@ -6057,18 +6501,2978 @@
         <v>266</v>
       </c>
       <c r="B246" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="C246" t="s">
+        <v>65</v>
+      </c>
+      <c r="D246" t="n">
+        <v>83</v>
+      </c>
+      <c r="E246" t="n">
+        <v>83</v>
+      </c>
+      <c r="F246" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>267</v>
+      </c>
+      <c r="B247" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C247" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" t="n">
+        <v>180</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2227</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2407</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>268</v>
+      </c>
+      <c r="B248" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C248" t="s">
+        <v>9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>7</v>
+      </c>
+      <c r="E248" t="n">
+        <v>114</v>
+      </c>
+      <c r="F248" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>269</v>
+      </c>
+      <c r="B249" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C249" t="s">
+        <v>11</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4</v>
+      </c>
+      <c r="E249" t="n">
+        <v>160</v>
+      </c>
+      <c r="F249" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>270</v>
+      </c>
+      <c r="B250" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="n">
+        <v>20</v>
+      </c>
+      <c r="E250" t="n">
+        <v>206</v>
+      </c>
+      <c r="F250" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>271</v>
+      </c>
+      <c r="B251" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C251" t="s">
+        <v>15</v>
+      </c>
+      <c r="D251" t="n">
+        <v>43</v>
+      </c>
+      <c r="E251" t="n">
+        <v>213</v>
+      </c>
+      <c r="F251" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>272</v>
+      </c>
+      <c r="B252" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C252" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" t="n">
+        <v>6</v>
+      </c>
+      <c r="E252" t="n">
+        <v>9</v>
+      </c>
+      <c r="F252" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>273</v>
+      </c>
+      <c r="B253" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C253" t="s">
+        <v>19</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8</v>
+      </c>
+      <c r="E253" t="n">
+        <v>120</v>
+      </c>
+      <c r="F253" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>274</v>
+      </c>
+      <c r="B254" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C254" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" t="n">
+        <v>5</v>
+      </c>
+      <c r="E254" t="n">
+        <v>169</v>
+      </c>
+      <c r="F254" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>275</v>
+      </c>
+      <c r="B255" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C255" t="s">
+        <v>23</v>
+      </c>
+      <c r="D255" t="n">
+        <v>4</v>
+      </c>
+      <c r="E255" t="n">
+        <v>13</v>
+      </c>
+      <c r="F255" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>276</v>
+      </c>
+      <c r="B256" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C256" t="s">
+        <v>25</v>
+      </c>
+      <c r="D256" t="n">
+        <v>59</v>
+      </c>
+      <c r="E256" t="n">
+        <v>333</v>
+      </c>
+      <c r="F256" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>277</v>
+      </c>
+      <c r="B257" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C257" t="s">
+        <v>27</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7</v>
+      </c>
+      <c r="E257" t="n">
+        <v>47</v>
+      </c>
+      <c r="F257" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>278</v>
+      </c>
+      <c r="B258" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C258" t="s">
+        <v>60</v>
+      </c>
+      <c r="D258" t="n">
+        <v>3</v>
+      </c>
+      <c r="E258" t="n">
+        <v>39</v>
+      </c>
+      <c r="F258" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>279</v>
+      </c>
+      <c r="B259" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C259" t="s">
+        <v>31</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>94</v>
+      </c>
+      <c r="F259" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>280</v>
+      </c>
+      <c r="B260" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C260" t="s">
+        <v>33</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5</v>
+      </c>
+      <c r="E260" t="n">
+        <v>178</v>
+      </c>
+      <c r="F260" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>281</v>
+      </c>
+      <c r="B261" s="1" t="n">
+        <v>44651</v>
+      </c>
+      <c r="C261" t="s">
+        <v>65</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="n">
+        <v>43</v>
+      </c>
+      <c r="F261" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>282</v>
+      </c>
+      <c r="B262" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C262" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" t="n">
+        <v>249</v>
+      </c>
+      <c r="E262" t="n">
+        <v>1958</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>283</v>
+      </c>
+      <c r="B263" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C263" t="s">
+        <v>9</v>
+      </c>
+      <c r="D263" t="n">
+        <v>16</v>
+      </c>
+      <c r="E263" t="n">
+        <v>345</v>
+      </c>
+      <c r="F263" t="n">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>284</v>
+      </c>
+      <c r="B264" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C264" t="s">
+        <v>11</v>
+      </c>
+      <c r="D264" t="n">
+        <v>8</v>
+      </c>
+      <c r="E264" t="n">
+        <v>94</v>
+      </c>
+      <c r="F264" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>285</v>
+      </c>
+      <c r="B265" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" t="n">
+        <v>15</v>
+      </c>
+      <c r="E265" t="n">
+        <v>389</v>
+      </c>
+      <c r="F265" t="n">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>286</v>
+      </c>
+      <c r="B266" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C266" t="s">
+        <v>15</v>
+      </c>
+      <c r="D266" t="n">
+        <v>8</v>
+      </c>
+      <c r="E266" t="n">
+        <v>120</v>
+      </c>
+      <c r="F266" t="n">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>287</v>
+      </c>
+      <c r="B267" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C267" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" t="n">
+        <v>6</v>
+      </c>
+      <c r="E267" t="n">
+        <v>140</v>
+      </c>
+      <c r="F267" t="n">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>288</v>
+      </c>
+      <c r="B268" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C268" t="s">
+        <v>19</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>83</v>
+      </c>
+      <c r="F268" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>289</v>
+      </c>
+      <c r="B269" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C269" t="s">
+        <v>21</v>
+      </c>
+      <c r="D269" t="n">
+        <v>3</v>
+      </c>
+      <c r="E269" t="n">
+        <v>97</v>
+      </c>
+      <c r="F269" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>290</v>
+      </c>
+      <c r="B270" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C270" t="s">
+        <v>23</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1</v>
+      </c>
+      <c r="E270" t="n">
+        <v>503</v>
+      </c>
+      <c r="F270" t="n">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>291</v>
+      </c>
+      <c r="B271" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C271" t="s">
+        <v>25</v>
+      </c>
+      <c r="D271" t="n">
+        <v>19</v>
+      </c>
+      <c r="E271" t="n">
+        <v>761</v>
+      </c>
+      <c r="F271" t="n">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>292</v>
+      </c>
+      <c r="B272" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C272" t="s">
+        <v>27</v>
+      </c>
+      <c r="D272" t="n">
+        <v>9</v>
+      </c>
+      <c r="E272" t="n">
+        <v>149</v>
+      </c>
+      <c r="F272" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>293</v>
+      </c>
+      <c r="B273" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C273" t="s">
+        <v>60</v>
+      </c>
+      <c r="D273" t="n">
+        <v>33</v>
+      </c>
+      <c r="E273" t="n">
+        <v>33</v>
+      </c>
+      <c r="F273" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>294</v>
+      </c>
+      <c r="B274" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C274" t="s">
+        <v>29</v>
+      </c>
+      <c r="D274" t="n">
+        <v>238</v>
+      </c>
+      <c r="E274" t="n">
+        <v>238</v>
+      </c>
+      <c r="F274" t="n">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>295</v>
+      </c>
+      <c r="B275" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C275" t="s">
+        <v>31</v>
+      </c>
+      <c r="D275" t="n">
+        <v>5</v>
+      </c>
+      <c r="E275" t="n">
+        <v>72</v>
+      </c>
+      <c r="F275" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>296</v>
+      </c>
+      <c r="B276" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C276" t="s">
+        <v>33</v>
+      </c>
+      <c r="D276" t="n">
+        <v>7</v>
+      </c>
+      <c r="E276" t="n">
+        <v>123</v>
+      </c>
+      <c r="F276" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>297</v>
+      </c>
+      <c r="B277" s="1" t="n">
+        <v>44650</v>
+      </c>
+      <c r="C277" t="s">
+        <v>65</v>
+      </c>
+      <c r="D277" t="n">
+        <v>193</v>
+      </c>
+      <c r="E277" t="n">
+        <v>193</v>
+      </c>
+      <c r="F277" t="n">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>298</v>
+      </c>
+      <c r="B278" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C278" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" t="n">
+        <v>169</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2014</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>299</v>
+      </c>
+      <c r="B279" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C279" t="s">
+        <v>9</v>
+      </c>
+      <c r="D279" t="n">
+        <v>6</v>
+      </c>
+      <c r="E279" t="n">
+        <v>104</v>
+      </c>
+      <c r="F279" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>300</v>
+      </c>
+      <c r="B280" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C280" t="s">
+        <v>11</v>
+      </c>
+      <c r="D280" t="n">
+        <v>8</v>
+      </c>
+      <c r="E280" t="n">
+        <v>167</v>
+      </c>
+      <c r="F280" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>301</v>
+      </c>
+      <c r="B281" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" t="n">
+        <v>34</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1066</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>302</v>
+      </c>
+      <c r="B282" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C282" t="s">
+        <v>15</v>
+      </c>
+      <c r="D282" t="n">
+        <v>3</v>
+      </c>
+      <c r="E282" t="n">
+        <v>27</v>
+      </c>
+      <c r="F282" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>303</v>
+      </c>
+      <c r="B283" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C283" t="s">
+        <v>17</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6</v>
+      </c>
+      <c r="E283" t="n">
+        <v>107</v>
+      </c>
+      <c r="F283" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>304</v>
+      </c>
+      <c r="B284" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C284" t="s">
+        <v>19</v>
+      </c>
+      <c r="D284" t="n">
+        <v>7</v>
+      </c>
+      <c r="E284" t="n">
+        <v>66</v>
+      </c>
+      <c r="F284" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>305</v>
+      </c>
+      <c r="B285" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C285" t="s">
+        <v>21</v>
+      </c>
+      <c r="D285" t="n">
+        <v>3</v>
+      </c>
+      <c r="E285" t="n">
+        <v>96</v>
+      </c>
+      <c r="F285" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>306</v>
+      </c>
+      <c r="B286" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C286" t="s">
+        <v>23</v>
+      </c>
+      <c r="D286" t="n">
+        <v>33</v>
+      </c>
+      <c r="E286" t="n">
+        <v>330</v>
+      </c>
+      <c r="F286" t="n">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>307</v>
+      </c>
+      <c r="B287" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C287" t="s">
+        <v>25</v>
+      </c>
+      <c r="D287" t="n">
+        <v>29</v>
+      </c>
+      <c r="E287" t="n">
+        <v>959</v>
+      </c>
+      <c r="F287" t="n">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>308</v>
+      </c>
+      <c r="B288" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C288" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" t="n">
+        <v>9</v>
+      </c>
+      <c r="E288" t="n">
+        <v>246</v>
+      </c>
+      <c r="F288" t="n">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>309</v>
+      </c>
+      <c r="B289" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C289" t="s">
+        <v>60</v>
+      </c>
+      <c r="D289" t="n">
+        <v>2</v>
+      </c>
+      <c r="E289" t="n">
+        <v>24</v>
+      </c>
+      <c r="F289" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>310</v>
+      </c>
+      <c r="B290" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C290" t="s">
+        <v>29</v>
+      </c>
+      <c r="D290" t="n">
+        <v>214</v>
+      </c>
+      <c r="E290" t="n">
+        <v>214</v>
+      </c>
+      <c r="F290" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>311</v>
+      </c>
+      <c r="B291" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C291" t="s">
+        <v>31</v>
+      </c>
+      <c r="D291" t="n">
+        <v>87</v>
+      </c>
+      <c r="E291" t="n">
+        <v>87</v>
+      </c>
+      <c r="F291" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>312</v>
+      </c>
+      <c r="B292" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C292" t="s">
+        <v>33</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" t="n">
+        <v>95</v>
+      </c>
+      <c r="F292" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>313</v>
+      </c>
+      <c r="B293" s="1" t="n">
+        <v>44649</v>
+      </c>
+      <c r="C293" t="s">
+        <v>65</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" t="n">
+        <v>54</v>
+      </c>
+      <c r="F293" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>314</v>
+      </c>
+      <c r="B294" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C294" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" t="n">
+        <v>39</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2467</v>
+      </c>
+      <c r="F294" t="n">
+        <v>2506</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>315</v>
+      </c>
+      <c r="B295" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C295" t="s">
+        <v>11</v>
+      </c>
+      <c r="D295" t="n">
+        <v>10</v>
+      </c>
+      <c r="E295" t="n">
+        <v>94</v>
+      </c>
+      <c r="F295" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>316</v>
+      </c>
+      <c r="B296" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C296" t="s">
+        <v>15</v>
+      </c>
+      <c r="D296" t="n">
+        <v>7</v>
+      </c>
+      <c r="E296" t="n">
+        <v>108</v>
+      </c>
+      <c r="F296" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>317</v>
+      </c>
+      <c r="B297" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C297" t="s">
+        <v>23</v>
+      </c>
+      <c r="D297" t="n">
+        <v>8</v>
+      </c>
+      <c r="E297" t="n">
+        <v>303</v>
+      </c>
+      <c r="F297" t="n">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>318</v>
+      </c>
+      <c r="B298" s="1" t="n">
+        <v>44648</v>
+      </c>
+      <c r="C298" t="s">
+        <v>33</v>
+      </c>
+      <c r="D298" t="n">
+        <v>115</v>
+      </c>
+      <c r="E298" t="n">
+        <v>115</v>
+      </c>
+      <c r="F298" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>319</v>
+      </c>
+      <c r="B299" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C299" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1</v>
+      </c>
+      <c r="E299" t="n">
+        <v>322</v>
+      </c>
+      <c r="F299" t="n">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>320</v>
+      </c>
+      <c r="B300" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C300" t="s">
+        <v>9</v>
+      </c>
+      <c r="D300" t="n">
+        <v>160</v>
+      </c>
+      <c r="E300" t="n">
+        <v>160</v>
+      </c>
+      <c r="F300" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>321</v>
+      </c>
+      <c r="B301" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C301" t="s">
+        <v>11</v>
+      </c>
+      <c r="D301" t="n">
+        <v>3</v>
+      </c>
+      <c r="E301" t="n">
+        <v>105</v>
+      </c>
+      <c r="F301" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>322</v>
+      </c>
+      <c r="B302" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C302" t="s">
+        <v>13</v>
+      </c>
+      <c r="D302" t="n">
+        <v>5</v>
+      </c>
+      <c r="E302" t="n">
+        <v>326</v>
+      </c>
+      <c r="F302" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>323</v>
+      </c>
+      <c r="B303" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C303" t="s">
+        <v>15</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2</v>
+      </c>
+      <c r="E303" t="n">
+        <v>27</v>
+      </c>
+      <c r="F303" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>324</v>
+      </c>
+      <c r="B304" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C304" t="s">
+        <v>17</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1</v>
+      </c>
+      <c r="E304" t="n">
+        <v>68</v>
+      </c>
+      <c r="F304" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>325</v>
+      </c>
+      <c r="B305" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C305" t="s">
+        <v>19</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1</v>
+      </c>
+      <c r="E305" t="n">
+        <v>49</v>
+      </c>
+      <c r="F305" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>326</v>
+      </c>
+      <c r="B306" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C306" t="s">
+        <v>21</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2</v>
+      </c>
+      <c r="E306" t="n">
+        <v>21</v>
+      </c>
+      <c r="F306" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>327</v>
+      </c>
+      <c r="B307" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C307" t="s">
+        <v>23</v>
+      </c>
+      <c r="D307" t="n">
+        <v>6</v>
+      </c>
+      <c r="E307" t="n">
+        <v>147</v>
+      </c>
+      <c r="F307" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>328</v>
+      </c>
+      <c r="B308" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C308" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" t="n">
+        <v>15</v>
+      </c>
+      <c r="E308" t="n">
+        <v>957</v>
+      </c>
+      <c r="F308" t="n">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>329</v>
+      </c>
+      <c r="B309" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C309" t="s">
+        <v>27</v>
+      </c>
+      <c r="D309" t="n">
+        <v>9</v>
+      </c>
+      <c r="E309" t="n">
+        <v>0</v>
+      </c>
+      <c r="F309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>330</v>
+      </c>
+      <c r="B310" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C310" t="s">
+        <v>60</v>
+      </c>
+      <c r="D310" t="n">
+        <v>0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>331</v>
+      </c>
+      <c r="B311" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C311" t="s">
+        <v>29</v>
+      </c>
+      <c r="D311" t="n">
+        <v>79</v>
+      </c>
+      <c r="E311" t="n">
+        <v>79</v>
+      </c>
+      <c r="F311" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>332</v>
+      </c>
+      <c r="B312" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C312" t="s">
+        <v>31</v>
+      </c>
+      <c r="D312" t="n">
+        <v>22</v>
+      </c>
+      <c r="E312" t="n">
+        <v>22</v>
+      </c>
+      <c r="F312" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>333</v>
+      </c>
+      <c r="B313" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C313" t="s">
+        <v>33</v>
+      </c>
+      <c r="D313" t="n">
+        <v>84</v>
+      </c>
+      <c r="E313" t="n">
+        <v>84</v>
+      </c>
+      <c r="F313" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>334</v>
+      </c>
+      <c r="B314" s="1" t="n">
+        <v>44646</v>
+      </c>
+      <c r="C314" t="s">
+        <v>65</v>
+      </c>
+      <c r="D314" t="n">
+        <v>27</v>
+      </c>
+      <c r="E314" t="n">
+        <v>27</v>
+      </c>
+      <c r="F314" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>335</v>
+      </c>
+      <c r="B315" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C315" t="s">
+        <v>11</v>
+      </c>
+      <c r="D315" t="n">
+        <v>2</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2</v>
+      </c>
+      <c r="F315" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>336</v>
+      </c>
+      <c r="B316" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C316" t="s">
+        <v>15</v>
+      </c>
+      <c r="D316" t="n">
+        <v>4</v>
+      </c>
+      <c r="E316" t="n">
+        <v>4</v>
+      </c>
+      <c r="F316" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>337</v>
+      </c>
+      <c r="B317" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C317" t="s">
+        <v>23</v>
+      </c>
+      <c r="D317" t="n">
+        <v>4</v>
+      </c>
+      <c r="E317" t="n">
+        <v>4</v>
+      </c>
+      <c r="F317" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>338</v>
+      </c>
+      <c r="B318" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C318" t="s">
+        <v>31</v>
+      </c>
+      <c r="D318" t="n">
+        <v>13</v>
+      </c>
+      <c r="E318" t="n">
+        <v>13</v>
+      </c>
+      <c r="F318" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>339</v>
+      </c>
+      <c r="B319" s="1" t="n">
+        <v>44645</v>
+      </c>
+      <c r="C319" t="s">
+        <v>65</v>
+      </c>
+      <c r="D319" t="n">
+        <v>41</v>
+      </c>
+      <c r="E319" t="n">
+        <v>41</v>
+      </c>
+      <c r="F319" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>340</v>
+      </c>
+      <c r="B320" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C320" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" t="n">
+        <v>12</v>
+      </c>
+      <c r="E320" t="n">
+        <v>181</v>
+      </c>
+      <c r="F320" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>341</v>
+      </c>
+      <c r="B321" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C321" t="s">
+        <v>9</v>
+      </c>
+      <c r="D321" t="n">
+        <v>102</v>
+      </c>
+      <c r="E321" t="n">
+        <v>102</v>
+      </c>
+      <c r="F321" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>342</v>
+      </c>
+      <c r="B322" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C322" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" t="n">
+        <v>8</v>
+      </c>
+      <c r="E322" t="n">
+        <v>62</v>
+      </c>
+      <c r="F322" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>343</v>
+      </c>
+      <c r="B323" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C323" t="s">
+        <v>13</v>
+      </c>
+      <c r="D323" t="n">
+        <v>2</v>
+      </c>
+      <c r="E323" t="n">
+        <v>165</v>
+      </c>
+      <c r="F323" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>344</v>
+      </c>
+      <c r="B324" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C324" t="s">
+        <v>15</v>
+      </c>
+      <c r="D324" t="n">
+        <v>59</v>
+      </c>
+      <c r="E324" t="n">
+        <v>59</v>
+      </c>
+      <c r="F324" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>345</v>
+      </c>
+      <c r="B325" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C325" t="s">
+        <v>17</v>
+      </c>
+      <c r="D325" t="n">
+        <v>2</v>
+      </c>
+      <c r="E325" t="n">
+        <v>36</v>
+      </c>
+      <c r="F325" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>346</v>
+      </c>
+      <c r="B326" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C326" t="s">
+        <v>19</v>
+      </c>
+      <c r="D326" t="n">
+        <v>29</v>
+      </c>
+      <c r="E326" t="n">
+        <v>29</v>
+      </c>
+      <c r="F326" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>347</v>
+      </c>
+      <c r="B327" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C327" t="s">
+        <v>21</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1</v>
+      </c>
+      <c r="E327" t="n">
+        <v>20</v>
+      </c>
+      <c r="F327" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>348</v>
+      </c>
+      <c r="B328" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C328" t="s">
+        <v>23</v>
+      </c>
+      <c r="D328" t="n">
+        <v>3</v>
+      </c>
+      <c r="E328" t="n">
+        <v>84</v>
+      </c>
+      <c r="F328" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>349</v>
+      </c>
+      <c r="B329" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C329" t="s">
+        <v>25</v>
+      </c>
+      <c r="D329" t="n">
+        <v>490</v>
+      </c>
+      <c r="E329" t="n">
+        <v>490</v>
+      </c>
+      <c r="F329" t="n">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>350</v>
+      </c>
+      <c r="B330" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C330" t="s">
+        <v>27</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1</v>
+      </c>
+      <c r="E330" t="n">
+        <v>129</v>
+      </c>
+      <c r="F330" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>351</v>
+      </c>
+      <c r="B331" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C331" t="s">
+        <v>60</v>
+      </c>
+      <c r="D331" t="n">
+        <v>0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>0</v>
+      </c>
+      <c r="F331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>352</v>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C332" t="s">
+        <v>29</v>
+      </c>
+      <c r="D332" t="n">
+        <v>92</v>
+      </c>
+      <c r="E332" t="n">
+        <v>92</v>
+      </c>
+      <c r="F332" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>353</v>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C333" t="s">
+        <v>31</v>
+      </c>
+      <c r="D333" t="n">
+        <v>13</v>
+      </c>
+      <c r="E333" t="n">
+        <v>13</v>
+      </c>
+      <c r="F333" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>354</v>
+      </c>
+      <c r="B334" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C334" t="s">
+        <v>33</v>
+      </c>
+      <c r="D334" t="n">
+        <v>24</v>
+      </c>
+      <c r="E334" t="n">
+        <v>24</v>
+      </c>
+      <c r="F334" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>355</v>
+      </c>
+      <c r="B335" s="1" t="n">
+        <v>44644</v>
+      </c>
+      <c r="C335" t="s">
+        <v>65</v>
+      </c>
+      <c r="D335" t="n">
+        <v>82</v>
+      </c>
+      <c r="E335" t="n">
+        <v>82</v>
+      </c>
+      <c r="F335" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>356</v>
+      </c>
+      <c r="B336" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C336" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" t="n">
+        <v>218</v>
+      </c>
+      <c r="E336" t="n">
+        <v>218</v>
+      </c>
+      <c r="F336" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>357</v>
+      </c>
+      <c r="B337" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C337" t="s">
+        <v>9</v>
+      </c>
+      <c r="D337" t="n">
+        <v>20</v>
+      </c>
+      <c r="E337" t="n">
+        <v>20</v>
+      </c>
+      <c r="F337" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>358</v>
+      </c>
+      <c r="B338" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C338" t="s">
+        <v>11</v>
+      </c>
+      <c r="D338" t="n">
+        <v>48</v>
+      </c>
+      <c r="E338" t="n">
+        <v>48</v>
+      </c>
+      <c r="F338" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>359</v>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C339" t="s">
+        <v>13</v>
+      </c>
+      <c r="D339" t="n">
+        <v>106</v>
+      </c>
+      <c r="E339" t="n">
+        <v>106</v>
+      </c>
+      <c r="F339" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>360</v>
+      </c>
+      <c r="B340" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C340" t="s">
+        <v>15</v>
+      </c>
+      <c r="D340" t="n">
+        <v>11</v>
+      </c>
+      <c r="E340" t="n">
+        <v>11</v>
+      </c>
+      <c r="F340" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>361</v>
+      </c>
+      <c r="B341" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C341" t="s">
+        <v>17</v>
+      </c>
+      <c r="D341" t="n">
+        <v>34</v>
+      </c>
+      <c r="E341" t="n">
+        <v>34</v>
+      </c>
+      <c r="F341" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>362</v>
+      </c>
+      <c r="B342" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C342" t="s">
+        <v>19</v>
+      </c>
+      <c r="D342" t="n">
+        <v>26</v>
+      </c>
+      <c r="E342" t="n">
+        <v>26</v>
+      </c>
+      <c r="F342" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>363</v>
+      </c>
+      <c r="B343" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C343" t="s">
+        <v>21</v>
+      </c>
+      <c r="D343" t="n">
+        <v>11</v>
+      </c>
+      <c r="E343" t="n">
+        <v>11</v>
+      </c>
+      <c r="F343" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>364</v>
+      </c>
+      <c r="B344" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C344" t="s">
+        <v>23</v>
+      </c>
+      <c r="D344" t="n">
+        <v>69</v>
+      </c>
+      <c r="E344" t="n">
+        <v>69</v>
+      </c>
+      <c r="F344" t="n">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>365</v>
+      </c>
+      <c r="B345" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C345" t="s">
+        <v>25</v>
+      </c>
+      <c r="D345" t="n">
+        <v>2</v>
+      </c>
+      <c r="E345" t="n">
+        <v>254</v>
+      </c>
+      <c r="F345" t="n">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>366</v>
+      </c>
+      <c r="B346" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C346" t="s">
+        <v>27</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1</v>
+      </c>
+      <c r="E346" t="n">
+        <v>68</v>
+      </c>
+      <c r="F346" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>367</v>
+      </c>
+      <c r="B347" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C347" t="s">
+        <v>60</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>368</v>
+      </c>
+      <c r="B348" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C348" t="s">
+        <v>29</v>
+      </c>
+      <c r="D348" t="n">
+        <v>34</v>
+      </c>
+      <c r="E348" t="n">
+        <v>34</v>
+      </c>
+      <c r="F348" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>369</v>
+      </c>
+      <c r="B349" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C349" t="s">
+        <v>31</v>
+      </c>
+      <c r="D349" t="n">
+        <v>10</v>
+      </c>
+      <c r="E349" t="n">
+        <v>10</v>
+      </c>
+      <c r="F349" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>370</v>
+      </c>
+      <c r="B350" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C350" t="s">
+        <v>33</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="n">
+        <v>11</v>
+      </c>
+      <c r="F350" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>371</v>
+      </c>
+      <c r="B351" s="1" t="n">
+        <v>44643</v>
+      </c>
+      <c r="C351" t="s">
+        <v>65</v>
+      </c>
+      <c r="D351" t="n">
+        <v>54</v>
+      </c>
+      <c r="E351" t="n">
+        <v>54</v>
+      </c>
+      <c r="F351" t="n">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>372</v>
+      </c>
+      <c r="B352" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C352" t="s">
+        <v>9</v>
+      </c>
+      <c r="D352" t="n">
+        <v>59</v>
+      </c>
+      <c r="E352" t="n">
+        <v>59</v>
+      </c>
+      <c r="F352" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>373</v>
+      </c>
+      <c r="B353" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C353" t="s">
+        <v>15</v>
+      </c>
+      <c r="D353" t="n">
+        <v>19</v>
+      </c>
+      <c r="E353" t="n">
+        <v>19</v>
+      </c>
+      <c r="F353" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>374</v>
+      </c>
+      <c r="B354" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C354" t="s">
+        <v>23</v>
+      </c>
+      <c r="D354" t="n">
+        <v>16</v>
+      </c>
+      <c r="E354" t="n">
+        <v>16</v>
+      </c>
+      <c r="F354" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>375</v>
+      </c>
+      <c r="B355" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C355" t="s">
+        <v>31</v>
+      </c>
+      <c r="D355" t="n">
+        <v>20</v>
+      </c>
+      <c r="E355" t="n">
+        <v>20</v>
+      </c>
+      <c r="F355" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>376</v>
+      </c>
+      <c r="B356" s="1" t="n">
+        <v>44642</v>
+      </c>
+      <c r="C356" t="s">
+        <v>65</v>
+      </c>
+      <c r="D356" t="n">
+        <v>19</v>
+      </c>
+      <c r="E356" t="n">
+        <v>19</v>
+      </c>
+      <c r="F356" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>377</v>
+      </c>
+      <c r="B357" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C357" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357" t="n">
+        <v>6</v>
+      </c>
+      <c r="E357" t="n">
+        <v>163</v>
+      </c>
+      <c r="F357" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>378</v>
+      </c>
+      <c r="B358" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C358" t="s">
+        <v>9</v>
+      </c>
+      <c r="D358" t="n">
+        <v>49</v>
+      </c>
+      <c r="E358" t="n">
+        <v>49</v>
+      </c>
+      <c r="F358" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>379</v>
+      </c>
+      <c r="B359" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C359" t="s">
+        <v>11</v>
+      </c>
+      <c r="D359" t="n">
+        <v>44</v>
+      </c>
+      <c r="E359" t="n">
+        <v>44</v>
+      </c>
+      <c r="F359" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>380</v>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D360" t="n">
+        <v>4</v>
+      </c>
+      <c r="E360" t="n">
+        <v>126</v>
+      </c>
+      <c r="F360" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>381</v>
+      </c>
+      <c r="B361" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C361" t="s">
+        <v>15</v>
+      </c>
+      <c r="D361" t="n">
+        <v>26</v>
+      </c>
+      <c r="E361" t="n">
+        <v>26</v>
+      </c>
+      <c r="F361" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>382</v>
+      </c>
+      <c r="B362" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C362" t="s">
+        <v>17</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1</v>
+      </c>
+      <c r="E362" t="n">
+        <v>30</v>
+      </c>
+      <c r="F362" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>383</v>
+      </c>
+      <c r="B363" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C363" t="s">
+        <v>19</v>
+      </c>
+      <c r="D363" t="n">
+        <v>23</v>
+      </c>
+      <c r="E363" t="n">
+        <v>23</v>
+      </c>
+      <c r="F363" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>384</v>
+      </c>
+      <c r="B364" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C364" t="s">
+        <v>21</v>
+      </c>
+      <c r="D364" t="n">
+        <v>10</v>
+      </c>
+      <c r="E364" t="n">
+        <v>10</v>
+      </c>
+      <c r="F364" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>385</v>
+      </c>
+      <c r="B365" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C365" t="s">
+        <v>23</v>
+      </c>
+      <c r="D365" t="n">
+        <v>67</v>
+      </c>
+      <c r="E365" t="n">
+        <v>67</v>
+      </c>
+      <c r="F365" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>386</v>
+      </c>
+      <c r="B366" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C366" t="s">
+        <v>25</v>
+      </c>
+      <c r="D366" t="n">
+        <v>10</v>
+      </c>
+      <c r="E366" t="n">
+        <v>112</v>
+      </c>
+      <c r="F366" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>387</v>
+      </c>
+      <c r="B367" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C367" t="s">
+        <v>29</v>
+      </c>
+      <c r="D367" t="n">
+        <v>38</v>
+      </c>
+      <c r="E367" t="n">
+        <v>38</v>
+      </c>
+      <c r="F367" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>388</v>
+      </c>
+      <c r="B368" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C368" t="s">
+        <v>31</v>
+      </c>
+      <c r="D368" t="n">
+        <v>5</v>
+      </c>
+      <c r="E368" t="n">
+        <v>5</v>
+      </c>
+      <c r="F368" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>389</v>
+      </c>
+      <c r="B369" s="1" t="n">
+        <v>44641</v>
+      </c>
+      <c r="C369" t="s">
+        <v>33</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1</v>
+      </c>
+      <c r="E369" t="n">
+        <v>21</v>
+      </c>
+      <c r="F369" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>390</v>
+      </c>
+      <c r="B370" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C370" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1</v>
+      </c>
+      <c r="E370" t="n">
+        <v>219</v>
+      </c>
+      <c r="F370" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>391</v>
+      </c>
+      <c r="B371" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C371" t="s">
+        <v>9</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2</v>
+      </c>
+      <c r="E371" t="n">
+        <v>40</v>
+      </c>
+      <c r="F371" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>392</v>
+      </c>
+      <c r="B372" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C372" t="s">
+        <v>11</v>
+      </c>
+      <c r="D372" t="n">
+        <v>32</v>
+      </c>
+      <c r="E372" t="n">
+        <v>32</v>
+      </c>
+      <c r="F372" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>393</v>
+      </c>
+      <c r="B373" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C373" t="s">
+        <v>13</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1</v>
+      </c>
+      <c r="E373" t="n">
+        <v>45</v>
+      </c>
+      <c r="F373" t="n">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>394</v>
+      </c>
+      <c r="B374" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C374" t="s">
+        <v>15</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1</v>
+      </c>
+      <c r="E374" t="n">
+        <v>12</v>
+      </c>
+      <c r="F374" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>395</v>
+      </c>
+      <c r="B375" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C375" t="s">
+        <v>17</v>
+      </c>
+      <c r="D375" t="n">
+        <v>18</v>
+      </c>
+      <c r="E375" t="n">
+        <v>18</v>
+      </c>
+      <c r="F375" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>396</v>
+      </c>
+      <c r="B376" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C376" t="s">
+        <v>19</v>
+      </c>
+      <c r="D376" t="n">
+        <v>12</v>
+      </c>
+      <c r="E376" t="n">
+        <v>12</v>
+      </c>
+      <c r="F376" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>397</v>
+      </c>
+      <c r="B377" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C377" t="s">
+        <v>21</v>
+      </c>
+      <c r="D377" t="n">
+        <v>8</v>
+      </c>
+      <c r="E377" t="n">
+        <v>8</v>
+      </c>
+      <c r="F377" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>398</v>
+      </c>
+      <c r="B378" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C378" t="s">
+        <v>23</v>
+      </c>
+      <c r="D378" t="n">
+        <v>13</v>
+      </c>
+      <c r="E378" t="n">
+        <v>13</v>
+      </c>
+      <c r="F378" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>399</v>
+      </c>
+      <c r="B379" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C379" t="s">
+        <v>27</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0</v>
+      </c>
+      <c r="F379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>400</v>
+      </c>
+      <c r="B380" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C380" t="s">
+        <v>60</v>
+      </c>
+      <c r="D380" t="n">
+        <v>11</v>
+      </c>
+      <c r="E380" t="n">
+        <v>11</v>
+      </c>
+      <c r="F380" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>401</v>
+      </c>
+      <c r="B381" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C381" t="s">
+        <v>29</v>
+      </c>
+      <c r="D381" t="n">
+        <v>9</v>
+      </c>
+      <c r="E381" t="n">
+        <v>9</v>
+      </c>
+      <c r="F381" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>402</v>
+      </c>
+      <c r="B382" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C382" t="s">
+        <v>31</v>
+      </c>
+      <c r="D382" t="n">
+        <v>4</v>
+      </c>
+      <c r="E382" t="n">
+        <v>4</v>
+      </c>
+      <c r="F382" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>403</v>
+      </c>
+      <c r="B383" s="1" t="n">
+        <v>44640</v>
+      </c>
+      <c r="C383" t="s">
+        <v>33</v>
+      </c>
+      <c r="D383" t="n">
+        <v>13</v>
+      </c>
+      <c r="E383" t="n">
+        <v>13</v>
+      </c>
+      <c r="F383" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>404</v>
+      </c>
+      <c r="B384" s="1" t="n">
         <v>44639</v>
       </c>
-      <c r="C246" t="s">
-        <v>35</v>
-      </c>
-      <c r="D246" t="n">
+      <c r="C384" t="s">
+        <v>7</v>
+      </c>
+      <c r="D384" t="n">
+        <v>8</v>
+      </c>
+      <c r="E384" t="n">
+        <v>127</v>
+      </c>
+      <c r="F384" t="n">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>405</v>
+      </c>
+      <c r="B385" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C385" t="s">
+        <v>9</v>
+      </c>
+      <c r="D385" t="n">
+        <v>36</v>
+      </c>
+      <c r="E385" t="n">
+        <v>36</v>
+      </c>
+      <c r="F385" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>406</v>
+      </c>
+      <c r="B386" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C386" t="s">
+        <v>11</v>
+      </c>
+      <c r="D386" t="n">
+        <v>15</v>
+      </c>
+      <c r="E386" t="n">
+        <v>15</v>
+      </c>
+      <c r="F386" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>407</v>
+      </c>
+      <c r="B387" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D387" t="n">
+        <v>61</v>
+      </c>
+      <c r="E387" t="n">
+        <v>61</v>
+      </c>
+      <c r="F387" t="n">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>408</v>
+      </c>
+      <c r="B388" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C388" t="s">
+        <v>15</v>
+      </c>
+      <c r="D388" t="n">
+        <v>12</v>
+      </c>
+      <c r="E388" t="n">
+        <v>12</v>
+      </c>
+      <c r="F388" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>409</v>
+      </c>
+      <c r="B389" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C389" t="s">
+        <v>17</v>
+      </c>
+      <c r="D389" t="n">
+        <v>25</v>
+      </c>
+      <c r="E389" t="n">
+        <v>25</v>
+      </c>
+      <c r="F389" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>410</v>
+      </c>
+      <c r="B390" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C390" t="s">
+        <v>21</v>
+      </c>
+      <c r="D390" t="n">
+        <v>14</v>
+      </c>
+      <c r="E390" t="n">
+        <v>14</v>
+      </c>
+      <c r="F390" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>411</v>
+      </c>
+      <c r="B391" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C391" t="s">
+        <v>27</v>
+      </c>
+      <c r="D391" t="n">
+        <v>2</v>
+      </c>
+      <c r="E391" t="n">
+        <v>79</v>
+      </c>
+      <c r="F391" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>412</v>
+      </c>
+      <c r="B392" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C392" t="s">
+        <v>29</v>
+      </c>
+      <c r="D392" t="n">
+        <v>16</v>
+      </c>
+      <c r="E392" t="n">
+        <v>16</v>
+      </c>
+      <c r="F392" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>413</v>
+      </c>
+      <c r="B393" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C393" t="s">
+        <v>31</v>
+      </c>
+      <c r="D393" t="n">
+        <v>5</v>
+      </c>
+      <c r="E393" t="n">
+        <v>5</v>
+      </c>
+      <c r="F393" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>414</v>
+      </c>
+      <c r="B394" s="1" t="n">
+        <v>44639</v>
+      </c>
+      <c r="C394" t="s">
+        <v>33</v>
+      </c>
+      <c r="D394" t="n">
         <v>6</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E394" t="n">
         <v>6</v>
       </c>
-      <c r="F246" t="n">
+      <c r="F394" t="n">
         <v>12</v>
       </c>
     </row>
